--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -12,9 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +130,51 @@
   </si>
   <si>
     <t>RunsConceded</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of RunsScored</t>
+  </si>
+  <si>
+    <t>Sum of Wickets</t>
+  </si>
+  <si>
+    <t>Sum of 6s</t>
+  </si>
+  <si>
+    <t>Sum of 4s</t>
+  </si>
+  <si>
+    <t>Sum of 50s</t>
+  </si>
+  <si>
+    <t>Sum of 100s</t>
+  </si>
+  <si>
+    <t>Sum of RunsConceded</t>
+  </si>
+  <si>
+    <t>Sum of Wides</t>
+  </si>
+  <si>
+    <t>Sum of NoBalls</t>
+  </si>
+  <si>
+    <t>Sum of Catches</t>
+  </si>
+  <si>
+    <t>Sum of Econ</t>
+  </si>
+  <si>
+    <t>Sum of AvgW</t>
+  </si>
+  <si>
+    <t>Sum of Overs</t>
   </si>
 </sst>
 </file>
@@ -161,13 +210,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,6 +285,749 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42158.686554398148" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource name="data"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MatchType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Batsman" numFmtId="0">
+      <sharedItems count="18">
+        <s v="Khalid"/>
+        <s v="Mahjoob"/>
+        <s v="Shakir"/>
+        <s v="Aleem"/>
+        <s v="Majid"/>
+        <s v="Asim Khan"/>
+        <s v="Mehtab"/>
+        <s v="Waqas"/>
+        <s v="Hamza"/>
+        <s v="Nouman"/>
+        <s v="Junaid"/>
+        <s v="Zubair"/>
+        <s v="Omer"/>
+        <s v="Iqbal"/>
+        <s v="Adnan"/>
+        <s v="Imran"/>
+        <s v="Asim Manzoor"/>
+        <s v="Kaleem"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RunsScored" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="72"/>
+    </cacheField>
+    <cacheField name="6s" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="4s" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="50s" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="100s" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Overs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="RunsConceded" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="49"/>
+    </cacheField>
+    <cacheField name="Wickets" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Wides" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+    </cacheField>
+    <cacheField name="NoBalls" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Catches" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="Econ" numFmtId="0" formula="RunsConceded /Overs" databaseField="0"/>
+    <cacheField name="AvgW" numFmtId="0" formula="RunsConceded /Wickets" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="72"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="46"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="32"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="49"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="9"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="40"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="60"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="19">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="8">
+    <dataField name="Sum of Overs" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsConceded" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of AvgW" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wickets" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wides" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NoBalls" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Catches" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="7">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="19">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of RunsScored" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 6s" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 4s" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50s" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 100s" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:N19" totalsRowShown="0">
+  <autoFilter ref="A1:N19"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="MatchType"/>
+    <tableColumn id="3" name="Batsman"/>
+    <tableColumn id="4" name="RunsScored"/>
+    <tableColumn id="5" name="6s"/>
+    <tableColumn id="6" name="4s"/>
+    <tableColumn id="7" name="50s"/>
+    <tableColumn id="8" name="100s"/>
+    <tableColumn id="9" name="Overs"/>
+    <tableColumn id="10" name="RunsConceded"/>
+    <tableColumn id="11" name="Wickets"/>
+    <tableColumn id="12" name="Wides"/>
+    <tableColumn id="13" name="NoBalls"/>
+    <tableColumn id="14" name="Catches"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,16 +1293,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>46</v>
+      </c>
+      <c r="K7" s="4">
+        <v>46</v>
+      </c>
+      <c r="L7" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>40</v>
+      </c>
+      <c r="L8" s="4">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>49</v>
+      </c>
+      <c r="K10" s="4">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>19</v>
+      </c>
+      <c r="K11" s="4">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="4">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>33</v>
+      </c>
+      <c r="K19" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="4">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>31</v>
+      </c>
+      <c r="K21" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>307</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3">
+        <v>344</v>
+      </c>
+      <c r="K22" s="3">
+        <v>24.571428571428573</v>
+      </c>
+      <c r="L22" s="3">
+        <v>8.8205128205128212</v>
+      </c>
+      <c r="M22" s="3">
+        <v>14</v>
+      </c>
+      <c r="N22" s="3">
+        <v>34</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -707,13 +2534,13 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1135,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1293,5 +3120,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\UNHCR\Jordan\ActivityInfo\Github\pakcricketjo\stats\"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -171,10 +171,25 @@
     <t>Sum of Econ</t>
   </si>
   <si>
-    <t>Sum of AvgW</t>
-  </si>
-  <si>
     <t>Sum of Overs</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Count of Inn</t>
+  </si>
+  <si>
+    <t>Sum of AvgR</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,11 +236,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -257,22 +300,7 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,19 +316,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42158.686554398148" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42166.452421759263" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
-  <cacheFields count="16">
+  <cacheFields count="19">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-05-07T00:00:00"/>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Batsman" numFmtId="0">
-      <sharedItems count="18">
+      <sharedItems containsBlank="1" count="19">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -319,43 +347,51 @@
         <s v="Imran"/>
         <s v="Asim Manzoor"/>
         <s v="Kaleem"/>
+        <m/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Match" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Inn" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
     <cacheField name="RunsScored" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="72"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="75"/>
     </cacheField>
     <cacheField name="6s" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="4s" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="50s" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="100s" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Overs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="RunsConceded" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="49"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="51"/>
     </cacheField>
     <cacheField name="Wickets" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
     <cacheField name="Wides" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="NoBalls" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Catches" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
-    <cacheField name="Econ" numFmtId="0" formula="RunsConceded /Overs" databaseField="0"/>
-    <cacheField name="AvgW" numFmtId="0" formula="RunsConceded /Wickets" databaseField="0"/>
+    <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
+    <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
+    <cacheField name="AvgR" numFmtId="0" formula="RunsScored /Inn" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -366,11 +402,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -387,6 +425,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="23"/>
     <n v="0"/>
     <n v="1"/>
@@ -403,6 +443,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="72"/>
     <n v="5"/>
     <n v="8"/>
@@ -419,6 +461,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="18"/>
     <n v="2"/>
     <n v="0"/>
@@ -435,6 +479,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="32"/>
     <n v="2"/>
     <n v="3"/>
@@ -443,14 +489,16 @@
     <n v="5"/>
     <n v="45"/>
     <n v="2"/>
-    <n v="8"/>
-    <n v="1"/>
+    <n v="9"/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="18"/>
     <n v="1"/>
     <n v="2"/>
@@ -467,6 +515,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="8"/>
     <n v="1"/>
     <n v="0"/>
@@ -483,6 +533,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <n v="0"/>
     <n v="0"/>
@@ -499,6 +551,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -515,6 +569,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -531,6 +587,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="12"/>
     <n v="0"/>
     <n v="1"/>
@@ -547,6 +605,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="17"/>
     <n v="2"/>
     <n v="0"/>
@@ -563,6 +623,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <n v="0"/>
     <n v="0"/>
@@ -579,6 +641,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -595,6 +659,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="60"/>
     <n v="6"/>
     <n v="3"/>
@@ -611,6 +677,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -627,6 +695,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="22"/>
     <n v="1"/>
     <n v="3"/>
@@ -643,6 +713,8 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="3"/>
     <n v="0"/>
     <n v="0"/>
@@ -654,18 +726,234 @@
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="29"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="43"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="31"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="51"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H25:O45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="19">
+      <items count="20">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -684,89 +972,96 @@
         <item x="2"/>
         <item x="7"/>
         <item x="11"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
+    <i>
+      <x v="15"/>
+    </i>
     <i>
       <x/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="14"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -775,7 +1070,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -797,57 +1092,16 @@
     <i i="6">
       <x v="6"/>
     </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
   </colItems>
-  <dataFields count="8">
-    <dataField name="Sum of Overs" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsConceded" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of AvgW" fld="15" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Econ" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wickets" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wides" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NoBalls" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Catches" fld="13" baseField="0" baseItem="0"/>
+  <dataFields count="7">
+    <dataField name="Count of Inn" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of AvgR" fld="18" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 6s" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 4s" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50s" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 100s" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="13">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="7">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -858,13 +1112,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:O23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="19">
+      <items count="20">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -883,6 +1137,198 @@
         <item x="2"/>
         <item x="7"/>
         <item x="11"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="Sum of Overs" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsConceded" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="16" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wickets" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wides" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NoBalls" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Catches" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="6">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="20">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -895,6 +1341,8 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -908,11 +1356,12 @@
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
     <i>
       <x v="15"/>
     </i>
@@ -920,6 +1369,12 @@
       <x/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x v="11"/>
     </i>
     <i>
@@ -929,43 +1384,40 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -992,11 +1444,11 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="Sum of RunsScored" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 6s" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 4s" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 50s" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 100s" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 6s" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 4s" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50s" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 100s" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1008,12 +1460,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:N19" totalsRowShown="0">
-  <autoFilter ref="A1:N19"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:P31" totalsRowShown="0">
+  <autoFilter ref="A1:P31"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Batsman"/>
+    <tableColumn id="16" name="Match"/>
+    <tableColumn id="15" name="Inn"/>
     <tableColumn id="4" name="RunsScored"/>
     <tableColumn id="5" name="6s"/>
     <tableColumn id="6" name="4s"/>
@@ -1293,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P22"/>
+  <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,18 +1760,18 @@
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1340,45 +1794,42 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1387,16 +1838,16 @@
         <v>27</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K4" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L4" s="4">
-        <v>4.4000000000000004</v>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7</v>
       </c>
       <c r="M4" s="3">
         <v>4</v>
@@ -1405,162 +1856,150 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3">
+        <v>96</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J7" s="3">
         <v>11</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K7" s="4">
         <v>3.6666666666666665</v>
       </c>
-      <c r="L5" s="4">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L7" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>8</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>46</v>
-      </c>
-      <c r="K7" s="4">
-        <v>46</v>
-      </c>
-      <c r="L7" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>9</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -1572,186 +2011,174 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>75</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10.714285714285714</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4">
-        <v>40</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="I9" s="3">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>83</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9.2222222222222214</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>8</v>
-      </c>
-      <c r="K9" s="4">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>49</v>
-      </c>
-      <c r="K10" s="4">
-        <v>49</v>
-      </c>
-      <c r="L10" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>6</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4">
-        <v>19</v>
-      </c>
-      <c r="L11" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
-        <v>12</v>
-      </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1760,42 +2187,39 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="4">
-        <v>13.333333333333334</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1807,22 +2231,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="4" t="e">
-        <v>#DIV/0!</v>
+        <v>31</v>
+      </c>
+      <c r="K13" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -1830,22 +2254,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1854,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1865,8 +2286,8 @@
       <c r="K14" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="4" t="e">
-        <v>#DIV/0!</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1877,22 +2298,19 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1901,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1912,8 +2330,8 @@
       <c r="K15" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="4" t="e">
-        <v>#DIV/0!</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1922,13 +2340,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1959,8 +2374,8 @@
       <c r="K16" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="4" t="e">
-        <v>#DIV/0!</v>
+      <c r="L16" s="3">
+        <v>0</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1971,16 +2386,13 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2006,8 +2418,8 @@
       <c r="K17" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="4" t="e">
-        <v>#DIV/0!</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2018,61 +2430,55 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>40</v>
+      </c>
+      <c r="K18" s="4">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -2089,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="4">
-        <v>11</v>
+      <c r="L19" s="3">
+        <v>0</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2110,60 +2516,32 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2183,78 +2561,650 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>33</v>
+      </c>
+      <c r="K21" s="4">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>488</v>
+      </c>
+      <c r="C23" s="3">
         <v>30</v>
       </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D23" s="3">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3">
+        <v>58</v>
+      </c>
+      <c r="J23" s="3">
+        <v>523</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9.0172413793103452</v>
+      </c>
+      <c r="L23" s="3">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3">
+        <v>55</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>147</v>
+      </c>
+      <c r="K26" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
+        <v>15</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>91</v>
+      </c>
+      <c r="K27" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>9</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>36</v>
+      </c>
+      <c r="K28" s="3">
+        <v>18</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>34</v>
+      </c>
+      <c r="K29" s="3">
+        <v>17</v>
+      </c>
+      <c r="L29" s="3">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>33</v>
+      </c>
+      <c r="K30" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>29</v>
+      </c>
+      <c r="K31" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>28</v>
+      </c>
+      <c r="K32" s="3">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>21</v>
+      </c>
+      <c r="K33" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>18</v>
+      </c>
+      <c r="K34" s="3">
+        <v>18</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>15</v>
+      </c>
+      <c r="K35" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>12</v>
+      </c>
+      <c r="K36" s="3">
+        <v>12</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6</v>
+      </c>
+      <c r="K38" s="3">
+        <v>6</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>6</v>
+      </c>
+      <c r="K39" s="3">
+        <v>6</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
-        <v>307</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="I45" s="3">
+        <v>29</v>
+      </c>
+      <c r="J45" s="3">
+        <v>488</v>
+      </c>
+      <c r="K45" s="3">
+        <v>16.827586206896552</v>
+      </c>
+      <c r="L45" s="3">
+        <v>30</v>
+      </c>
+      <c r="M45" s="3">
         <v>35</v>
       </c>
-      <c r="I22" s="3">
-        <v>39</v>
-      </c>
-      <c r="J22" s="3">
-        <v>344</v>
-      </c>
-      <c r="K22" s="3">
-        <v>24.571428571428573</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8.8205128205128212</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14</v>
-      </c>
-      <c r="N22" s="3">
-        <v>34</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2264,25 +3214,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2293,40 +3243,46 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2337,10 +3293,10 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2352,25 +3308,31 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2381,19 +3343,19 @@
         <v>13</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2413,8 +3375,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2425,40 +3393,46 @@
         <v>14</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>46</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>9</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2469,16 +3443,16 @@
         <v>15</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2499,10 +3473,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2513,40 +3493,46 @@
         <v>16</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>45</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2557,19 +3543,19 @@
         <v>17</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2587,10 +3573,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2601,40 +3593,46 @@
         <v>18</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>49</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2645,13 +3643,13 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2660,25 +3658,31 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2689,10 +3693,10 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2721,8 +3725,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2733,14 +3743,14 @@
         <v>21</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -2765,8 +3775,14 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2777,19 +3793,19 @@
         <v>23</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2809,8 +3825,14 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2821,40 +3843,46 @@
         <v>24</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>17</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>19</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2865,13 +3893,13 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2880,25 +3908,31 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>40</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2909,14 +3943,14 @@
         <v>26</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2924,25 +3958,31 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>40</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2953,40 +3993,46 @@
         <v>27</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>22</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2997,14 +4043,14 @@
         <v>28</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -3029,8 +4075,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3041,40 +4093,46 @@
         <v>29</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>22</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>33</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3085,14 +4143,14 @@
         <v>30</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -3100,21 +4158,577 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
         <v>31</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>43</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>51</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>0</v>
       </c>
     </row>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -241,61 +241,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -391,7 +337,7 @@
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
-    <cacheField name="AvgR" numFmtId="0" formula="RunsScored /Inn" databaseField="0"/>
+    <cacheField name="AvgR" numFmtId="0" formula="RunsScored/Inn" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -947,7 +893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H25:O45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -1112,7 +1058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:O23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -1268,7 +1214,7 @@
     <dataField name="Sum of Catches" fld="15" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1278,7 +1224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -1303,7 +1249,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -1460,8 +1406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:P31" totalsRowShown="0">
-  <autoFilter ref="A1:P31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:P30" totalsRowShown="0">
+  <autoFilter ref="A1:P30"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="MatchType"/>
@@ -1749,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+    <sheetView topLeftCell="H2" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3216,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\UNHCR\Jordan\ActivityInfo\Github\pakcricketjo\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,24 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Batsman</t>
-  </si>
-  <si>
-    <t>6s</t>
-  </si>
-  <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>50s</t>
-  </si>
-  <si>
-    <t>100s</t>
   </si>
   <si>
     <t>Wickets</t>
@@ -144,18 +129,6 @@
     <t>Sum of Wickets</t>
   </si>
   <si>
-    <t>Sum of 6s</t>
-  </si>
-  <si>
-    <t>Sum of 4s</t>
-  </si>
-  <si>
-    <t>Sum of 50s</t>
-  </si>
-  <si>
-    <t>Sum of 100s</t>
-  </si>
-  <si>
     <t>Sum of RunsConceded</t>
   </si>
   <si>
@@ -180,16 +153,58 @@
     <t>Inn</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Count of Inn</t>
-  </si>
-  <si>
     <t>Sum of AvgR</t>
   </si>
   <si>
     <t>Match</t>
+  </si>
+  <si>
+    <t>Sixes</t>
+  </si>
+  <si>
+    <t>Fours</t>
+  </si>
+  <si>
+    <t>Fifties</t>
+  </si>
+  <si>
+    <t>Hundreds</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>No Balls</t>
+  </si>
+  <si>
+    <t>Salah</t>
+  </si>
+  <si>
+    <t>Dr. Mateen</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Sum of Sixes</t>
+  </si>
+  <si>
+    <t>Sum of Fours</t>
+  </si>
+  <si>
+    <t>Sum of Fifties</t>
+  </si>
+  <si>
+    <t>Sum of Hundreds</t>
+  </si>
+  <si>
+    <t>Sum of Match</t>
+  </si>
+  <si>
+    <t>Sum of Inn</t>
   </si>
 </sst>
 </file>
@@ -225,14 +240,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -241,12 +255,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,19 +300,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42166.452421759263" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42171.625862615743" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="52">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
-  <cacheFields count="19">
+  <cacheFields count="21">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-05-07T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00"/>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Batsman" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+    <cacheField name="Player" numFmtId="0">
+      <sharedItems count="20">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -293,11 +331,15 @@
         <s v="Imran"/>
         <s v="Asim Manzoor"/>
         <s v="Kaleem"/>
-        <m/>
+        <s v="Salah"/>
+        <s v="Dr. Mateen"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
+        <n v="1"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
@@ -305,17 +347,32 @@
     <cacheField name="RunsScored" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="75"/>
     </cacheField>
-    <cacheField name="6s" numFmtId="0">
+    <cacheField name="Sixes" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
-    <cacheField name="4s" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    <cacheField name="Fours" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="7">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="8"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="7"/>
+        <m/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="50s" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    <cacheField name="Fifties" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+        <n v="0"/>
+        <n v="1"/>
+        <m/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="100s" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    <cacheField name="Hundreds" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+        <n v="0"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Overs" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
@@ -327,13 +384,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
     <cacheField name="Wides" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="NoBalls" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Catches" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Extra" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
@@ -348,562 +411,1063 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52">
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="8"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="1"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="23"/>
     <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="72"/>
     <n v="5"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="46"/>
     <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
     <n v="9"/>
-    <n v="1"/>
-    <n v="1"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="3"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="18"/>
     <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="32"/>
     <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="45"/>
     <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="5"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="18"/>
     <n v="1"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="6"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="8"/>
     <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="49"/>
     <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="7"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="11"/>
     <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="9"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="10"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="12"/>
     <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="11"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="17"/>
     <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="19"/>
     <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="12"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="40"/>
     <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="13"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="40"/>
     <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="2"/>
-    <n v="1"/>
-    <n v="0"/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="14"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="60"/>
     <n v="6"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="22"/>
     <n v="4"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="15"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="16"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="22"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="33"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="17"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="3"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="31"/>
     <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="75"/>
     <n v="3"/>
-    <n v="7"/>
-    <n v="1"/>
-    <n v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="29"/>
     <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <s v="Wides"/>
     <n v="6"/>
-    <n v="0"/>
-    <n v="2"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="16"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="13"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="15"/>
     <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="5"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="18"/>
     <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="12"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="43"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="14"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="31"/>
     <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="29"/>
     <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <s v="Wides"/>
     <n v="4"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="11"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="17"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="6"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="7"/>
     <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="27"/>
     <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
     <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="51"/>
     <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <s v="Wides"/>
     <n v="6"/>
-    <n v="0"/>
-    <n v="1"/>
   </r>
   <r>
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="17"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="4"/>
     <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="29/05/2015"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="14"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2015-05-06T00:00:00"/>
+    <s v="International"/>
+    <x v="4"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="36"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
     <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="29"/>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="18"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H25:O45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H27:P48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="20">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
         <item x="16"/>
+        <item x="19"/>
         <item x="8"/>
         <item x="15"/>
         <item x="13"/>
@@ -915,35 +1479,62 @@
         <item x="6"/>
         <item x="9"/>
         <item x="12"/>
+        <item x="18"/>
         <item x="2"/>
         <item x="7"/>
         <item x="11"/>
-        <item x="18"/>
-        <item t="default"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -951,9 +1542,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="21">
     <i>
-      <x v="15"/>
+      <x v="17"/>
     </i>
     <i>
       <x/>
@@ -962,16 +1553,199 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
     <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
       <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="8">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of AvgR" fld="20" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sixes" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fours" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fifties" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hundreds" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:O24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="20">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="6"/>
@@ -980,31 +1754,25 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="9"/>
@@ -1040,191 +1808,16 @@
     </i>
   </colItems>
   <dataFields count="7">
-    <dataField name="Count of Inn" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of AvgR" fld="18" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 6s" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 4s" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 50s" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 100s" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:O23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="20">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-  </colItems>
-  <dataFields count="7">
     <dataField name="Sum of Overs" fld="10" baseField="0" baseItem="0"/>
     <dataField name="Sum of RunsConceded" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Econ" fld="16" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="18" baseField="0" baseItem="0"/>
     <dataField name="Sum of Wickets" fld="12" baseField="0" baseItem="0"/>
     <dataField name="Sum of Wides" fld="13" baseField="0" baseItem="0"/>
     <dataField name="Sum of NoBalls" fld="14" baseField="0" baseItem="0"/>
     <dataField name="Sum of Catches" fld="15" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
+  <formats count="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -1249,152 +1842,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="20">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="5">
+  <dataFields count="1">
     <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 6s" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 4s" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 50s" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 100s" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1406,25 +1886,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:P30" totalsRowShown="0">
-  <autoFilter ref="A1:P30"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Date"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R53" totalsRowShown="0">
+  <autoFilter ref="A1:R53">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Shakir"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="MatchType"/>
-    <tableColumn id="3" name="Batsman"/>
+    <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
     <tableColumn id="15" name="Inn"/>
     <tableColumn id="4" name="RunsScored"/>
-    <tableColumn id="5" name="6s"/>
-    <tableColumn id="6" name="4s"/>
-    <tableColumn id="7" name="50s"/>
-    <tableColumn id="8" name="100s"/>
+    <tableColumn id="5" name="Sixes"/>
+    <tableColumn id="6" name="Fours"/>
+    <tableColumn id="7" name="Fifties"/>
+    <tableColumn id="8" name="Hundreds"/>
     <tableColumn id="9" name="Overs"/>
     <tableColumn id="10" name="RunsConceded"/>
     <tableColumn id="11" name="Wickets"/>
     <tableColumn id="12" name="Wides"/>
     <tableColumn id="13" name="NoBalls"/>
     <tableColumn id="14" name="Catches"/>
+    <tableColumn id="17" name="Extra"/>
+    <tableColumn id="18" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1693,16 +2181,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O45"/>
+  <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1714,74 +2201,44 @@
     <col min="13" max="13" width="7.140625" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>147</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
+      <c r="A4" s="3">
+        <v>583</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>9</v>
@@ -1789,102 +2246,64 @@
       <c r="J4" s="3">
         <v>51</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>5.666666666666667</v>
       </c>
       <c r="L4" s="3">
         <v>7</v>
       </c>
       <c r="M4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <v>112</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8.615384615384615</v>
+      </c>
+      <c r="L5" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3">
-        <v>91</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3">
-        <v>96</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10.666666666666666</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4</v>
-      </c>
       <c r="M5" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>9</v>
       </c>
       <c r="J6" s="3">
-        <v>76</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8.4444444444444446</v>
+        <v>96</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10.666666666666666</v>
       </c>
       <c r="L6" s="3">
         <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1894,41 +2313,23 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3.6666666666666665</v>
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.5</v>
       </c>
       <c r="L7" s="3">
         <v>3</v>
       </c>
       <c r="M7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1938,167 +2339,95 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>75</v>
-      </c>
-      <c r="K8" s="4">
-        <v>10.714285714285714</v>
+        <v>30</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
       </c>
       <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3">
+        <v>105</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8.0769230769230766</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>89</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9.8888888888888893</v>
+      </c>
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="3">
-        <v>15</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
-        <v>83</v>
-      </c>
-      <c r="K9" s="4">
-        <v>9.2222222222222214</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
       </c>
       <c r="J11" s="3">
-        <v>8</v>
-      </c>
-      <c r="K11" s="4">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9.5</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -2114,85 +2443,49 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="e">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>31</v>
-      </c>
-      <c r="K13" s="4">
-        <v>15.5</v>
-      </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2202,24 +2495,6 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2229,7 +2504,7 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="4" t="e">
+      <c r="K14" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="3">
@@ -2246,910 +2521,918 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>33</v>
+      </c>
+      <c r="K22" s="3">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>31</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>40</v>
-      </c>
-      <c r="K18" s="4">
-        <v>13.333333333333334</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="I24" s="3">
+        <v>75</v>
+      </c>
+      <c r="J24" s="3">
+        <v>640</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="L24" s="3">
+        <v>29</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>158</v>
+      </c>
+      <c r="L28" s="3">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="M28" s="3">
+        <v>8</v>
+      </c>
+      <c r="N28" s="3">
+        <v>16</v>
+      </c>
+      <c r="O28" s="3">
         <v>2</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>33</v>
-      </c>
-      <c r="K21" s="4">
-        <v>11</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3">
-        <v>488</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3">
-        <v>35</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="3">
-        <v>58</v>
-      </c>
-      <c r="J23" s="3">
-        <v>523</v>
-      </c>
-      <c r="K23" s="3">
-        <v>9.0172413793103452</v>
-      </c>
-      <c r="L23" s="3">
-        <v>24</v>
-      </c>
-      <c r="M23" s="3">
-        <v>55</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3">
-        <v>147</v>
-      </c>
-      <c r="K26" s="3">
-        <v>73.5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
-        <v>15</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>91</v>
-      </c>
-      <c r="K27" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="L27" s="3">
-        <v>9</v>
-      </c>
-      <c r="M27" s="3">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3">
-        <v>36</v>
-      </c>
-      <c r="K28" s="3">
-        <v>18</v>
-      </c>
-      <c r="L28" s="3">
-        <v>3</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
       </c>
       <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>91</v>
+      </c>
+      <c r="L29" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>9</v>
+      </c>
+      <c r="N29" s="3">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3">
+        <v>51</v>
+      </c>
+      <c r="L30" s="3">
+        <v>17</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>4</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
         <v>34</v>
       </c>
-      <c r="K29" s="3">
-        <v>17</v>
-      </c>
-      <c r="L29" s="3">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="3">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3">
-        <v>33</v>
-      </c>
-      <c r="K30" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="L30" s="3">
-        <v>2</v>
-      </c>
-      <c r="M30" s="3">
-        <v>3</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>29</v>
-      </c>
-      <c r="K31" s="3">
-        <v>14.5</v>
-      </c>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
       </c>
       <c r="J32" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K32" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="M32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3">
         <v>2</v>
       </c>
       <c r="J33" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="M33" s="3">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>2</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L34" s="3">
-        <v>2</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I35" s="3">
         <v>2</v>
       </c>
       <c r="J35" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K35" s="3">
-        <v>7.5</v>
+        <v>28</v>
       </c>
       <c r="L35" s="3">
+        <v>14</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3</v>
+      </c>
+      <c r="K36" s="3">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
         <v>2</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H36" s="2" t="s">
+      <c r="K37" s="3">
+        <v>21</v>
+      </c>
+      <c r="L37" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>18</v>
+      </c>
+      <c r="L38" s="3">
+        <v>18</v>
+      </c>
+      <c r="M38" s="3">
+        <v>2</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>16</v>
+      </c>
+      <c r="L39" s="3">
+        <v>8</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>12</v>
+      </c>
+      <c r="L40" s="3">
+        <v>12</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>7</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>6</v>
+      </c>
+      <c r="L43" s="3">
+        <v>6</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>12</v>
-      </c>
-      <c r="K36" s="3">
-        <v>12</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H37" s="2" t="s">
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6</v>
+      </c>
+      <c r="L44" s="3">
+        <v>6</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I48" s="3">
+        <v>43</v>
+      </c>
+      <c r="J48" s="3">
+        <v>41</v>
+      </c>
+      <c r="K48" s="3">
+        <v>583</v>
+      </c>
+      <c r="L48" s="3">
+        <v>14.219512195121951</v>
+      </c>
+      <c r="M48" s="3">
+        <v>35</v>
+      </c>
+      <c r="N48" s="3">
+        <v>42</v>
+      </c>
+      <c r="O48" s="3">
         <v>2</v>
       </c>
-      <c r="J37" s="3">
-        <v>7</v>
-      </c>
-      <c r="K37" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>6</v>
-      </c>
-      <c r="K38" s="3">
-        <v>6</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <v>6</v>
-      </c>
-      <c r="K39" s="3">
-        <v>6</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="3">
-        <v>2</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="3">
-        <v>29</v>
-      </c>
-      <c r="J45" s="3">
-        <v>488</v>
-      </c>
-      <c r="K45" s="3">
-        <v>16.827586206896552</v>
-      </c>
-      <c r="L45" s="3">
-        <v>30</v>
-      </c>
-      <c r="M45" s="3">
-        <v>35</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3160,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,65 +3461,71 @@
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3266,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3277,16 +3566,22 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3328,15 +3623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3369,24 +3664,24 @@
         <v>1</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4">
         <v>9</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3424,19 +3719,16 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3469,24 +3761,30 @@
         <v>2</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6">
         <v>9</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3524,19 +3822,16 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3569,24 +3864,30 @@
         <v>1</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3619,24 +3920,30 @@
         <v>3</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3678,15 +3985,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3728,15 +4035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3778,15 +4085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3819,24 +4126,27 @@
         <v>1</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3869,24 +4179,30 @@
         <v>1</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3919,24 +4235,27 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3974,19 +4293,16 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4028,15 +4344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4078,15 +4394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4119,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4127,16 +4443,22 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>42130</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4178,15 +4500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>42130</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4219,24 +4541,27 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21">
         <v>6</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>42130</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4278,15 +4603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>42130</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4328,15 +4653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>42130</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4378,15 +4703,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>42130</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4419,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4427,16 +4752,22 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>42130</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4469,24 +4800,27 @@
         <v>3</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>42130</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4528,15 +4862,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>42130</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4569,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4577,16 +4911,22 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>42130</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4619,24 +4959,27 @@
         <v>2</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29">
         <v>6</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>42130</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4676,6 +5019,829 @@
       </c>
       <c r="P30">
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>42130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>42130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>42130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>36</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>29</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,18 @@
   <si>
     <t>Sum of Inn</t>
   </si>
+  <si>
+    <t>19/7/2015</t>
+  </si>
+  <si>
+    <t>Armoghan</t>
+  </si>
+  <si>
+    <t>Janisar</t>
+  </si>
+  <si>
+    <t>Shahzad</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +267,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -269,22 +281,10 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42171.625862615743" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="52">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42206.888983449076" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
@@ -312,7 +312,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="20">
+      <sharedItems count="23">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -333,52 +333,37 @@
         <s v="Kaleem"/>
         <s v="Salah"/>
         <s v="Dr. Mateen"/>
+        <s v="Armoghan"/>
+        <s v="Janisar"/>
+        <s v="Shahzad"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
-        <n v="1"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="RunsScored" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="75"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="110"/>
     </cacheField>
     <cacheField name="Sixes" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
+    </cacheField>
+    <cacheField name="Fours" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Fifties" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Hundreds" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Overs" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
-    <cacheField name="Fours" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="7">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="8"/>
-        <n v="3"/>
-        <n v="2"/>
-        <n v="7"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Fifties" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
-        <n v="0"/>
-        <n v="1"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Hundreds" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
-        <n v="0"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Overs" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
-    </cacheField>
     <cacheField name="RunsConceded" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="51"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="52"/>
     </cacheField>
     <cacheField name="Wickets" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
@@ -411,21 +396,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="52">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="2"/>
     <n v="8"/>
-    <n v="0"/>
+    <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -436,13 +421,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="23"/>
     <n v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -456,13 +441,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="72"/>
     <n v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="46"/>
     <n v="1"/>
@@ -476,13 +461,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="3"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="18"/>
     <n v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -496,13 +481,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="4"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="32"/>
     <n v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="5"/>
     <n v="45"/>
     <n v="2"/>
@@ -516,13 +501,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="5"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="18"/>
     <n v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -536,13 +521,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="6"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="8"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="5"/>
     <n v="49"/>
     <n v="1"/>
@@ -556,13 +541,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="7"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="3"/>
     <n v="11"/>
     <n v="3"/>
@@ -576,13 +561,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="8"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -596,13 +581,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="9"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -616,13 +601,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="10"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="12"/>
     <n v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -636,13 +621,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="11"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="17"/>
     <n v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="2"/>
     <n v="19"/>
     <n v="1"/>
@@ -656,13 +641,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="12"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="5"/>
     <n v="40"/>
     <n v="1"/>
@@ -676,13 +661,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="13"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="3"/>
     <n v="40"/>
     <n v="0"/>
@@ -696,13 +681,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="14"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="60"/>
     <n v="6"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="5"/>
     <n v="22"/>
     <n v="4"/>
@@ -716,13 +701,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="15"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -736,13 +721,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="16"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="22"/>
     <n v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="3"/>
     <n v="33"/>
     <n v="0"/>
@@ -756,13 +741,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="17"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="3"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="2"/>
     <n v="31"/>
     <n v="0"/>
@@ -776,13 +761,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -796,13 +781,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="75"/>
     <n v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="0"/>
     <n v="3"/>
     <n v="29"/>
     <n v="1"/>
@@ -816,13 +801,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="16"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -836,13 +821,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="13"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="15"/>
     <n v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -856,13 +841,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="5"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="18"/>
     <n v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -876,13 +861,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="12"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="43"/>
     <n v="1"/>
@@ -896,13 +881,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="14"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="31"/>
     <n v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="29"/>
     <n v="3"/>
@@ -916,13 +901,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="11"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="17"/>
     <n v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -936,13 +921,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="6"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="7"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="27"/>
     <n v="3"/>
@@ -956,13 +941,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="4"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="51"/>
     <n v="2"/>
@@ -976,13 +961,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="17"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="4"/>
     <n v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -996,13 +981,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1016,13 +1001,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="11"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1036,13 +1021,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="13"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1056,13 +1041,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1076,13 +1061,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="3"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1096,13 +1081,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="5"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1116,13 +1101,13 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="14"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1136,13 +1121,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1156,13 +1141,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="14"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1176,13 +1161,13 @@
     <d v="2015-05-06T00:00:00"/>
     <s v="International"/>
     <x v="4"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1196,13 +1181,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="17"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1216,13 +1201,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="11"/>
     <n v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="2"/>
     <n v="14"/>
     <n v="0"/>
@@ -1236,13 +1221,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="12"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="22"/>
     <n v="1"/>
@@ -1256,13 +1241,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1276,13 +1261,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1296,13 +1281,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="6"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="10"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="36"/>
     <n v="2"/>
@@ -1316,13 +1301,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="18"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="10"/>
     <n v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="26"/>
     <n v="3"/>
@@ -1336,13 +1321,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="5"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="15"/>
     <n v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1356,13 +1341,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="11"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1376,13 +1361,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="7"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="14"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="3"/>
     <n v="19"/>
     <n v="0"/>
@@ -1396,13 +1381,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="8"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="29"/>
     <n v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1416,13 +1401,13 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="19"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="4"/>
     <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1436,33 +1421,333 @@
     <d v="2015-12-06T00:00:00"/>
     <s v="International"/>
     <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-12-06T00:00:00"/>
+    <s v="International"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="110"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="52"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="36"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="49"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="52"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="42"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="42"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="22"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="No Balls"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
     <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H27:P48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H42:P66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="20">
+      <items count="23">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -1483,6 +1768,9 @@
         <item x="2"/>
         <item x="7"/>
         <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -1494,39 +1782,13 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1542,15 +1804,15 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="24">
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i>
       <x v="19"/>
@@ -1559,7 +1821,10 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="11"/>
@@ -1568,10 +1833,19 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
       <x v="13"/>
     </i>
     <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="1"/>
@@ -1583,10 +1857,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="14"/>
@@ -1595,13 +1869,10 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1656,13 +1927,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:O24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="20">
+      <items count="23">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -1683,18 +1954,21 @@
         <item x="2"/>
         <item x="7"/>
         <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
+              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1716,21 +1990,15 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="24">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="13"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="15"/>
@@ -1739,7 +2007,46 @@
       <x v="17"/>
     </i>
     <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="4"/>
@@ -1748,34 +2055,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1784,7 +2067,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -1806,8 +2089,12 @@
     <i i="6">
       <x v="6"/>
     </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
   </colItems>
-  <dataFields count="7">
+  <dataFields count="8">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of Overs" fld="10" baseField="0" baseItem="0"/>
     <dataField name="Sum of RunsConceded" fld="11" baseField="0" baseItem="0"/>
     <dataField name="Sum of Econ" fld="18" baseField="0" baseItem="0"/>
@@ -1817,16 +2104,16 @@
     <dataField name="Sum of Catches" fld="15" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
-            <x v="1"/>
             <x v="2"/>
             <x v="3"/>
             <x v="4"/>
             <x v="5"/>
             <x v="6"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -1842,7 +2129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -1886,16 +2173,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R53" totalsRowShown="0">
-  <autoFilter ref="A1:R53">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Shakir"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R68" totalsRowShown="0">
+  <autoFilter ref="A1:R68"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -2181,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P48"/>
+  <dimension ref="A3:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,17 +2475,17 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2212,354 +2493,389 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>583</v>
+        <v>916</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>9</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>51</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>5.666666666666667</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>7</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K6" s="3">
         <v>112</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L6" s="3">
         <v>8.615384615384615</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M6" s="3">
         <v>6</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3">
+        <v>113</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.0625</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="3">
-        <v>96</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10.666666666666666</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3">
+        <v>141</v>
+      </c>
+      <c r="L8" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="2" t="s">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K10" s="3">
         <v>26</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L10" s="3">
         <v>6.5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="3">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K12" s="3">
+        <v>42</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>55</v>
+      </c>
+      <c r="L13" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>75</v>
+      </c>
+      <c r="L14" s="3">
+        <v>9.375</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3">
-        <v>105</v>
-      </c>
-      <c r="K9" s="3">
-        <v>8.0769230769230766</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
-        <v>89</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9.8888888888888893</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="e">
+      <c r="K15" s="3">
+        <v>40</v>
+      </c>
+      <c r="L15" s="3">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
@@ -2567,24 +2883,27 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2595,23 +2914,24 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="e">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -2619,25 +2939,28 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="e">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
@@ -2645,76 +2968,67 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
-        <v>13.333333333333334</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>33</v>
-      </c>
       <c r="K22" s="3">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2723,24 +3037,27 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2749,543 +3066,321 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="3">
-        <v>75</v>
-      </c>
-      <c r="J24" s="3">
-        <v>640</v>
-      </c>
-      <c r="K24" s="3">
-        <v>8.5333333333333332</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="I27" s="3">
+        <v>65</v>
+      </c>
+      <c r="J27" s="3">
+        <v>105</v>
+      </c>
+      <c r="K27" s="3">
+        <v>856</v>
+      </c>
+      <c r="L27" s="3">
+        <v>8.1523809523809518</v>
+      </c>
+      <c r="M27" s="3">
+        <v>39</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="I42" t="s">
         <v>57</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J42" t="s">
         <v>58</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K42" t="s">
         <v>31</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L42" t="s">
         <v>41</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M42" t="s">
         <v>53</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N42" t="s">
         <v>54</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O42" t="s">
         <v>55</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P42" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3</v>
-      </c>
-      <c r="K28" s="3">
-        <v>158</v>
-      </c>
-      <c r="L28" s="3">
-        <v>52.666666666666664</v>
-      </c>
-      <c r="M28" s="3">
-        <v>8</v>
-      </c>
-      <c r="N28" s="3">
-        <v>16</v>
-      </c>
-      <c r="O28" s="3">
-        <v>2</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3">
-        <v>91</v>
-      </c>
-      <c r="L29" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>9</v>
-      </c>
-      <c r="N29" s="3">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>51</v>
-      </c>
-      <c r="L30" s="3">
-        <v>17</v>
-      </c>
-      <c r="M30" s="3">
-        <v>3</v>
-      </c>
-      <c r="N30" s="3">
-        <v>4</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="3">
-        <v>4</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3</v>
-      </c>
-      <c r="K31" s="3">
-        <v>34</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11.333333333333334</v>
-      </c>
-      <c r="M31" s="3">
-        <v>3</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>33</v>
-      </c>
-      <c r="L32" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>29</v>
-      </c>
-      <c r="L33" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34" s="3">
-        <v>3</v>
-      </c>
-      <c r="K34" s="3">
-        <v>29</v>
-      </c>
-      <c r="L34" s="3">
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>28</v>
-      </c>
-      <c r="L35" s="3">
-        <v>14</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="3">
-        <v>3</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3</v>
-      </c>
-      <c r="K36" s="3">
-        <v>25</v>
-      </c>
-      <c r="L36" s="3">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="M36" s="3">
-        <v>3</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="3">
-        <v>3</v>
-      </c>
-      <c r="J37" s="3">
-        <v>2</v>
-      </c>
-      <c r="K37" s="3">
-        <v>21</v>
-      </c>
-      <c r="L37" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>2</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
-        <v>18</v>
-      </c>
-      <c r="L38" s="3">
-        <v>18</v>
-      </c>
-      <c r="M38" s="3">
-        <v>2</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2</v>
-      </c>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3">
-        <v>16</v>
-      </c>
-      <c r="L39" s="3">
-        <v>8</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
-        <v>12</v>
-      </c>
-      <c r="L40" s="3">
-        <v>12</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>10</v>
-      </c>
-      <c r="L41" s="3">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
-        <v>7</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
+        <v>165</v>
+      </c>
+      <c r="L43" s="3">
+        <v>33</v>
+      </c>
+      <c r="M43" s="3">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>16</v>
       </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>6</v>
-      </c>
-      <c r="L43" s="3">
-        <v>6</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3293,28 +3388,28 @@
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
+        <v>115</v>
+      </c>
+      <c r="L44" s="3">
         <v>23</v>
       </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>6</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6</v>
-      </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3322,25 +3417,25 @@
     </row>
     <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" s="3">
+        <v>91</v>
+      </c>
+      <c r="L45" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>9</v>
+      </c>
+      <c r="N45" s="3">
         <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3351,25 +3446,25 @@
     </row>
     <row r="46" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J46" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46" s="3">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="L46" s="3">
-        <v>4</v>
+        <v>17.2</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3380,25 +3475,25 @@
     </row>
     <row r="47" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I47" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3409,30 +3504,552 @@
     </row>
     <row r="48" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
+        <v>56</v>
+      </c>
+      <c r="L48" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="M48" s="3">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>51</v>
+      </c>
+      <c r="L49" s="3">
+        <v>17</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3">
+        <v>5</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
+        <v>45</v>
+      </c>
+      <c r="L50" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>2</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3">
+        <v>35</v>
+      </c>
+      <c r="L51" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <v>4</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>29</v>
+      </c>
+      <c r="L52" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2</v>
+      </c>
+      <c r="K53" s="3">
+        <v>25</v>
+      </c>
+      <c r="L53" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="M53" s="3">
+        <v>2</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
+        <v>25</v>
+      </c>
+      <c r="L54" s="3">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2</v>
+      </c>
+      <c r="K55" s="3">
+        <v>21</v>
+      </c>
+      <c r="L55" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2</v>
+      </c>
+      <c r="K56" s="3">
+        <v>18</v>
+      </c>
+      <c r="L56" s="3">
+        <v>9</v>
+      </c>
+      <c r="M56" s="3">
+        <v>2</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>18</v>
+      </c>
+      <c r="L57" s="3">
+        <v>18</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2</v>
+      </c>
+      <c r="K58" s="3">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>12</v>
+      </c>
+      <c r="L59" s="3">
+        <v>12</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
+        <v>10</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <v>10</v>
+      </c>
+      <c r="L61" s="3">
+        <v>10</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>6</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>6</v>
+      </c>
+      <c r="L63" s="3">
+        <v>6</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2</v>
+      </c>
+      <c r="K64" s="3">
+        <v>4</v>
+      </c>
+      <c r="L64" s="3">
+        <v>2</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>4</v>
+      </c>
+      <c r="L65" s="3">
+        <v>4</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="3">
-        <v>43</v>
-      </c>
-      <c r="J48" s="3">
-        <v>41</v>
-      </c>
-      <c r="K48" s="3">
-        <v>583</v>
-      </c>
-      <c r="L48" s="3">
-        <v>14.219512195121951</v>
-      </c>
-      <c r="M48" s="3">
-        <v>35</v>
-      </c>
-      <c r="N48" s="3">
-        <v>42</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="I66" s="3">
+        <v>65</v>
+      </c>
+      <c r="J66" s="3">
+        <v>62</v>
+      </c>
+      <c r="K66" s="3">
+        <v>916</v>
+      </c>
+      <c r="L66" s="3">
+        <v>14.774193548387096</v>
+      </c>
+      <c r="M66" s="3">
+        <v>69</v>
+      </c>
+      <c r="N66" s="3">
+        <v>53</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3443,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +4134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3573,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +4393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3823,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3879,7 +4496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3935,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4035,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4138,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4194,7 +4811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4247,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4294,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4344,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4394,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>42130</v>
       </c>
@@ -4553,7 +5170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>42130</v>
       </c>
@@ -4603,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>42130</v>
       </c>
@@ -4653,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>42130</v>
       </c>
@@ -4703,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>42130</v>
       </c>
@@ -4759,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>42130</v>
       </c>
@@ -4812,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42130</v>
       </c>
@@ -4862,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>42130</v>
       </c>
@@ -4918,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42130</v>
       </c>
@@ -4971,7 +5588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>42130</v>
       </c>
@@ -5038,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5058,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5095,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5112,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -5129,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -5163,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42130</v>
       </c>
@@ -5180,7 +5797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>42130</v>
       </c>
@@ -5197,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>42344</v>
       </c>
@@ -5309,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42344</v>
       </c>
@@ -5365,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42344</v>
       </c>
@@ -5415,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42344</v>
       </c>
@@ -5465,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>42344</v>
       </c>
@@ -5521,7 +6138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>42344</v>
       </c>
@@ -5577,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>42344</v>
       </c>
@@ -5627,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>42344</v>
       </c>
@@ -5677,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42344</v>
       </c>
@@ -5727,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42344</v>
       </c>
@@ -5777,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>42344</v>
       </c>
@@ -5827,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42344</v>
       </c>
@@ -5841,6 +6458,546 @@
         <v>49</v>
       </c>
       <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>42344</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>17</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>110</v>
+      </c>
+      <c r="G55">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>52</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>36</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>49</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>13</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>52</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>42</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>42</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>17</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>3</v>
+      </c>
+      <c r="R68">
         <v>1</v>
       </c>
     </row>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\UNHCR\Jordan\ActivityInfo\Github\pakcricketjo\stats\"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,12 @@
   <si>
     <t>Shahzad</t>
   </si>
+  <si>
+    <t>Not Outs</t>
+  </si>
+  <si>
+    <t>Sum of Not Outs</t>
+  </si>
 </sst>
 </file>
 
@@ -267,19 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -300,11 +294,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42206.888983449076" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42207.628841087964" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
-  <cacheFields count="21">
+  <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
       <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00"/>
     </cacheField>
@@ -342,6 +336,9 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="Not Outs" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="RunsScored" numFmtId="0">
@@ -385,7 +382,7 @@
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
-    <cacheField name="AvgR" numFmtId="0" formula="RunsScored/Inn" databaseField="0"/>
+    <cacheField name="AvgR" numFmtId="0" formula="RunsScored/(Inn-'Not Outs' )" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -403,6 +400,7 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -423,6 +421,7 @@
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="1"/>
     <n v="23"/>
     <n v="0"/>
     <n v="1"/>
@@ -443,6 +442,7 @@
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="72"/>
     <n v="5"/>
     <n v="8"/>
@@ -463,6 +463,7 @@
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="18"/>
     <n v="2"/>
     <n v="0"/>
@@ -483,6 +484,7 @@
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="32"/>
     <n v="2"/>
     <n v="3"/>
@@ -503,6 +505,7 @@
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="18"/>
     <n v="1"/>
     <n v="2"/>
@@ -523,6 +526,7 @@
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="8"/>
     <n v="1"/>
     <n v="0"/>
@@ -543,6 +547,7 @@
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="2"/>
     <n v="0"/>
     <n v="0"/>
@@ -563,6 +568,7 @@
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -583,6 +589,7 @@
     <x v="9"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -603,6 +610,7 @@
     <x v="10"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="12"/>
     <n v="0"/>
     <n v="1"/>
@@ -623,6 +631,7 @@
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="17"/>
     <n v="2"/>
     <n v="0"/>
@@ -643,6 +652,7 @@
     <x v="12"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="2"/>
     <n v="0"/>
     <n v="0"/>
@@ -663,6 +673,7 @@
     <x v="13"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -683,6 +694,7 @@
     <x v="14"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="60"/>
     <n v="6"/>
     <n v="3"/>
@@ -703,6 +715,7 @@
     <x v="15"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -723,6 +736,7 @@
     <x v="16"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="22"/>
     <n v="1"/>
     <n v="3"/>
@@ -743,6 +757,7 @@
     <x v="17"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="3"/>
     <n v="0"/>
     <n v="0"/>
@@ -763,6 +778,7 @@
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="6"/>
     <n v="0"/>
     <n v="0"/>
@@ -783,6 +799,7 @@
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="75"/>
     <n v="3"/>
     <n v="7"/>
@@ -803,6 +820,7 @@
     <x v="16"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="6"/>
     <n v="0"/>
     <n v="1"/>
@@ -823,6 +841,7 @@
     <x v="13"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="15"/>
     <n v="0"/>
     <n v="2"/>
@@ -843,6 +862,7 @@
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="18"/>
     <n v="2"/>
     <n v="0"/>
@@ -863,6 +883,7 @@
     <x v="12"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -883,6 +904,7 @@
     <x v="14"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="31"/>
     <n v="3"/>
     <n v="2"/>
@@ -903,6 +925,7 @@
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="17"/>
     <n v="1"/>
     <n v="1"/>
@@ -923,6 +946,7 @@
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="7"/>
     <n v="1"/>
     <n v="0"/>
@@ -943,6 +967,7 @@
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -963,6 +988,7 @@
     <x v="17"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="1"/>
     <n v="4"/>
     <n v="0"/>
     <n v="1"/>
@@ -994,6 +1020,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="No Balls"/>
     <n v="1"/>
   </r>
@@ -1014,6 +1041,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="No Balls"/>
     <n v="1"/>
   </r>
@@ -1034,6 +1062,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="No Balls"/>
     <n v="1"/>
   </r>
@@ -1054,6 +1083,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="1"/>
   </r>
@@ -1074,6 +1104,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="1"/>
   </r>
@@ -1094,6 +1125,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="1"/>
   </r>
@@ -1101,6 +1133,7 @@
     <s v="29/05/2015"/>
     <s v="Domestic"/>
     <x v="14"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1134,6 +1167,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="2"/>
   </r>
@@ -1154,6 +1188,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="4"/>
   </r>
@@ -1174,6 +1209,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="1"/>
   </r>
@@ -1183,6 +1219,7 @@
     <x v="17"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1203,6 +1240,7 @@
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="11"/>
     <n v="0"/>
     <n v="1"/>
@@ -1223,6 +1261,7 @@
     <x v="12"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="2"/>
     <n v="0"/>
     <n v="0"/>
@@ -1243,6 +1282,7 @@
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1263,6 +1303,7 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1283,6 +1324,7 @@
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="10"/>
     <n v="1"/>
     <n v="0"/>
@@ -1303,6 +1345,7 @@
     <x v="18"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="10"/>
     <n v="0"/>
     <n v="2"/>
@@ -1323,6 +1366,7 @@
     <x v="5"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="15"/>
     <n v="0"/>
     <n v="2"/>
@@ -1343,6 +1387,7 @@
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1363,6 +1408,7 @@
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="14"/>
     <n v="1"/>
     <n v="0"/>
@@ -1383,6 +1429,7 @@
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
+    <m/>
     <n v="29"/>
     <n v="3"/>
     <n v="2"/>
@@ -1403,6 +1450,7 @@
     <x v="19"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="1"/>
     <n v="4"/>
     <n v="0"/>
     <n v="0"/>
@@ -1434,6 +1482,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="No Balls"/>
     <n v="1"/>
   </r>
@@ -1454,6 +1503,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Catches"/>
     <n v="1"/>
   </r>
@@ -1461,6 +1511,7 @@
     <s v="19/7/2015"/>
     <s v="Domestic"/>
     <x v="12"/>
+    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="110"/>
@@ -1483,6 +1534,7 @@
     <x v="20"/>
     <n v="2"/>
     <n v="2"/>
+    <m/>
     <n v="18"/>
     <n v="2"/>
     <n v="0"/>
@@ -1503,6 +1555,7 @@
     <x v="0"/>
     <n v="2"/>
     <n v="2"/>
+    <n v="1"/>
     <n v="10"/>
     <n v="0"/>
     <n v="1"/>
@@ -1523,6 +1576,7 @@
     <x v="4"/>
     <n v="2"/>
     <n v="2"/>
+    <n v="1"/>
     <n v="35"/>
     <n v="4"/>
     <n v="1"/>
@@ -1534,8 +1588,8 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="19/7/2015"/>
@@ -1543,6 +1597,7 @@
     <x v="11"/>
     <n v="2"/>
     <n v="2"/>
+    <m/>
     <n v="52"/>
     <n v="8"/>
     <n v="0"/>
@@ -1563,6 +1618,7 @@
     <x v="17"/>
     <n v="2"/>
     <n v="2"/>
+    <m/>
     <n v="49"/>
     <n v="5"/>
     <n v="3"/>
@@ -1583,6 +1639,7 @@
     <x v="2"/>
     <n v="2"/>
     <n v="2"/>
+    <m/>
     <n v="7"/>
     <n v="0"/>
     <n v="0"/>
@@ -1603,6 +1660,7 @@
     <x v="21"/>
     <n v="2"/>
     <n v="2"/>
+    <n v="1"/>
     <n v="25"/>
     <n v="2"/>
     <n v="2"/>
@@ -1623,6 +1681,7 @@
     <x v="16"/>
     <n v="2"/>
     <n v="2"/>
+    <m/>
     <n v="7"/>
     <n v="0"/>
     <n v="0"/>
@@ -1643,6 +1702,7 @@
     <x v="22"/>
     <n v="2"/>
     <n v="2"/>
+    <n v="1"/>
     <n v="4"/>
     <n v="0"/>
     <n v="1"/>
@@ -1656,31 +1716,12 @@
     <m/>
     <m/>
     <m/>
-  </r>
-  <r>
-    <s v="19/7/2015"/>
-    <s v="Domestic"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Catches"/>
-    <n v="1"/>
   </r>
   <r>
     <s v="19/7/2015"/>
     <s v="Domestic"/>
     <x v="20"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1703,6 +1744,7 @@
     <x v="1"/>
     <n v="2"/>
     <n v="1"/>
+    <m/>
     <n v="16"/>
     <n v="0"/>
     <n v="1"/>
@@ -1734,6 +1776,28 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="19/7/2015"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <s v="Wides"/>
     <n v="1"/>
   </r>
@@ -1741,195 +1805,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H42:P66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="23">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="24">
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-  </colItems>
-  <dataFields count="8">
-    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of AvgR" fld="20" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sixes" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fours" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fifties" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Hundreds" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
+  <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -1969,6 +1847,7 @@
       </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2095,16 +1974,16 @@
   </colItems>
   <dataFields count="8">
     <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Overs" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsConceded" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Econ" fld="18" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wickets" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wides" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NoBalls" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Catches" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Overs" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsConceded" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="19" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wickets" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wides" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NoBalls" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -2128,12 +2007,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="21">
+  <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2161,7 +2041,198 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H42:Q66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="23">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Not Outs" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of AvgR" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sixes" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fours" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fifties" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hundreds" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2173,14 +2244,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R68" totalsRowShown="0">
-  <autoFilter ref="A1:R68"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S68" totalsRowShown="0">
+  <autoFilter ref="A1:S68"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
     <tableColumn id="15" name="Inn"/>
+    <tableColumn id="19" name="Not Outs"/>
     <tableColumn id="4" name="RunsScored"/>
     <tableColumn id="5" name="Sixes"/>
     <tableColumn id="6" name="Fours"/>
@@ -2462,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P66"/>
+  <dimension ref="A3:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,13 +2548,14 @@
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,7 +3311,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -3248,7 +3321,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -3258,7 +3331,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -3268,7 +3341,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -3278,7 +3351,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -3288,7 +3361,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3298,7 +3371,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3308,7 +3381,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H40" s="2"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3318,7 +3391,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -3328,7 +3401,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
         <v>29</v>
       </c>
@@ -3339,25 +3412,28 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" t="s">
         <v>31</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>41</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>53</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>54</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>55</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
         <v>9</v>
       </c>
@@ -3367,26 +3443,27 @@
       <c r="J43" s="3">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
         <v>165</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16</v>
       </c>
-      <c r="O43" s="3">
-        <v>2</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3397,25 +3474,28 @@
         <v>5</v>
       </c>
       <c r="K44" s="3">
+        <v>2</v>
+      </c>
+      <c r="L44" s="3">
         <v>115</v>
       </c>
-      <c r="L44" s="3">
-        <v>23</v>
-      </c>
       <c r="M44" s="3">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="N44" s="3">
         <v>13</v>
       </c>
-      <c r="N44" s="3">
-        <v>2</v>
-      </c>
       <c r="O44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
         <v>22</v>
       </c>
@@ -3425,26 +3505,27 @@
       <c r="J45" s="3">
         <v>2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
         <v>91</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45.5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3454,26 +3535,27 @@
       <c r="J46" s="3">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
         <v>86</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17.2</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11</v>
       </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
         <v>11</v>
       </c>
@@ -3484,25 +3566,28 @@
         <v>4</v>
       </c>
       <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
         <v>68</v>
       </c>
-      <c r="L47" s="3">
-        <v>17</v>
-      </c>
       <c r="M47" s="3">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="N47" s="3">
         <v>6</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
         <v>25</v>
       </c>
@@ -3513,25 +3598,28 @@
         <v>5</v>
       </c>
       <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
         <v>56</v>
       </c>
-      <c r="L48" s="3">
-        <v>11.2</v>
-      </c>
       <c r="M48" s="3">
+        <v>14</v>
+      </c>
+      <c r="N48" s="3">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
         <v>12</v>
       </c>
@@ -3541,26 +3629,27 @@
       <c r="J49" s="3">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
         <v>51</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
@@ -3571,25 +3660,28 @@
         <v>4</v>
       </c>
       <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3">
         <v>45</v>
       </c>
-      <c r="L50" s="3">
-        <v>11.25</v>
-      </c>
       <c r="M50" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
         <v>24</v>
       </c>
@@ -3599,26 +3691,27 @@
       <c r="J51" s="3">
         <v>4</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
         <v>35</v>
       </c>
-      <c r="L51" s="3">
+      <c r="M51" s="3">
         <v>8.75</v>
       </c>
-      <c r="M51" s="3">
-        <v>1</v>
-      </c>
       <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
         <v>4</v>
       </c>
-      <c r="O51" s="3">
-        <v>0</v>
-      </c>
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
         <v>15</v>
       </c>
@@ -3628,26 +3721,27 @@
       <c r="J52" s="3">
         <v>2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
         <v>29</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14.5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>2</v>
-      </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
         <v>61</v>
       </c>
@@ -3658,25 +3752,28 @@
         <v>2</v>
       </c>
       <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3">
         <v>25</v>
       </c>
-      <c r="L53" s="3">
-        <v>12.5</v>
-      </c>
       <c r="M53" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N53" s="3">
         <v>2</v>
       </c>
       <c r="O53" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3686,26 +3783,27 @@
       <c r="J54" s="3">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
         <v>25</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
         <v>21</v>
       </c>
@@ -3715,26 +3813,27 @@
       <c r="J55" s="3">
         <v>2</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
         <v>21</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <v>10.5</v>
       </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
       <c r="N55" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O55" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
         <v>60</v>
       </c>
@@ -3744,17 +3843,15 @@
       <c r="J56" s="3">
         <v>2</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
         <v>18</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56" s="3">
         <v>9</v>
       </c>
-      <c r="M56" s="3">
-        <v>2</v>
-      </c>
       <c r="N56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -3762,8 +3859,11 @@
       <c r="P56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
         <v>10</v>
       </c>
@@ -3773,17 +3873,15 @@
       <c r="J57" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
-        <v>18</v>
-      </c>
+      <c r="K57" s="3"/>
       <c r="L57" s="3">
         <v>18</v>
       </c>
       <c r="M57" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3791,8 +3889,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3802,17 +3903,15 @@
       <c r="J58" s="3">
         <v>2</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>1</v>
-      </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3820,8 +3919,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
         <v>18</v>
       </c>
@@ -3831,26 +3933,27 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="3">
-        <v>12</v>
-      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="3">
         <v>12</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
         <v>26</v>
       </c>
@@ -3861,25 +3964,28 @@
         <v>4</v>
       </c>
       <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
         <v>10</v>
       </c>
-      <c r="L60" s="3">
-        <v>2.5</v>
-      </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
         <v>50</v>
       </c>
@@ -3889,26 +3995,27 @@
       <c r="J61" s="3">
         <v>1</v>
       </c>
-      <c r="K61" s="3">
-        <v>10</v>
-      </c>
+      <c r="K61" s="3"/>
       <c r="L61" s="3">
         <v>10</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N61" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
         <v>16</v>
       </c>
@@ -3918,14 +4025,12 @@
       <c r="J62" s="3">
         <v>1</v>
       </c>
-      <c r="K62" s="3">
-        <v>6</v>
-      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3">
         <v>6</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3936,8 +4041,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
         <v>23</v>
       </c>
@@ -3947,14 +4055,12 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="3">
-        <v>6</v>
-      </c>
+      <c r="K63" s="3"/>
       <c r="L63" s="3">
         <v>6</v>
       </c>
       <c r="M63" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
@@ -3965,8 +4071,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
         <v>62</v>
       </c>
@@ -3977,25 +4086,28 @@
         <v>2</v>
       </c>
       <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
         <v>4</v>
       </c>
-      <c r="L64" s="3">
-        <v>2</v>
-      </c>
       <c r="M64" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
         <v>51</v>
       </c>
@@ -4006,13 +4118,13 @@
         <v>1</v>
       </c>
       <c r="K65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3">
         <v>4</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
+      <c r="M65" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
@@ -4023,8 +4135,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
         <v>30</v>
       </c>
@@ -4035,21 +4150,24 @@
         <v>62</v>
       </c>
       <c r="K66" s="3">
+        <v>9</v>
+      </c>
+      <c r="L66" s="3">
         <v>916</v>
       </c>
-      <c r="L66" s="3">
-        <v>14.774193548387096</v>
-      </c>
       <c r="M66" s="3">
+        <v>17.283018867924529</v>
+      </c>
+      <c r="N66" s="3">
         <v>69</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4060,10 +4178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4196,7 @@
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4095,46 +4213,49 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
       <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
       <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4150,9 +4271,6 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -4166,16 +4284,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -4183,14 +4301,17 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4207,16 +4328,16 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>23</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4239,8 +4360,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4256,41 +4380,41 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>72</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>46</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>3</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4306,14 +4430,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4336,8 +4457,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4353,32 +4477,29 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>45</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4386,14 +4507,17 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4409,17 +4533,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4439,8 +4560,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4456,14 +4580,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4472,16 +4593,16 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>49</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -4489,14 +4610,17 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4512,11 +4636,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4528,31 +4649,34 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>3</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4568,9 +4692,6 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -4601,8 +4722,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4618,12 +4742,9 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -4651,8 +4772,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4668,17 +4792,14 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4701,8 +4822,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4718,14 +4842,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>17</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4734,28 +4855,31 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <v>19</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>3</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4771,11 +4895,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4787,16 +4908,16 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>40</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -4804,14 +4925,17 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>3</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4827,12 +4951,9 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -4843,28 +4964,31 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>40</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>3</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4880,38 +5004,38 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>60</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4927,12 +5051,9 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -4960,8 +5081,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4977,30 +5101,27 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>22</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>33</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -5010,8 +5131,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5027,12 +5151,9 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -5043,14 +5164,14 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
         <v>31</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -5060,14 +5181,17 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
         <v>3</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>42130</v>
       </c>
@@ -5083,12 +5207,9 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -5116,8 +5237,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>42130</v>
       </c>
@@ -5133,44 +5257,44 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>75</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>7</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>29</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>42130</v>
       </c>
@@ -5186,17 +5310,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5219,8 +5340,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>42130</v>
       </c>
@@ -5236,17 +5360,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>15</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5269,8 +5390,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>42130</v>
       </c>
@@ -5286,14 +5410,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>18</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5319,8 +5440,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>42130</v>
       </c>
@@ -5336,11 +5460,8 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5352,16 +5473,16 @@
         <v>0</v>
       </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>43</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -5369,14 +5490,17 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>42130</v>
       </c>
@@ -5392,44 +5516,44 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>31</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>29</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42130</v>
       </c>
@@ -5445,17 +5569,14 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>17</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5478,8 +5599,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>42130</v>
       </c>
@@ -5495,14 +5619,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5511,31 +5632,34 @@
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>27</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>3</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42130</v>
       </c>
@@ -5551,11 +5675,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5567,28 +5688,31 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>51</v>
       </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
       <c r="N29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
         <v>3</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>42130</v>
       </c>
@@ -5605,16 +5729,16 @@
         <v>1</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5637,8 +5761,11 @@
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5648,14 +5775,14 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>49</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5668,14 +5795,14 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>49</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5688,14 +5815,14 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>49</v>
       </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5705,14 +5832,14 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>17</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5722,14 +5849,14 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>17</v>
       </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -5739,14 +5866,14 @@
       <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>17</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -5756,14 +5883,14 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>17</v>
       </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>42130</v>
       </c>
@@ -5773,14 +5900,14 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>17</v>
       </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42130</v>
       </c>
@@ -5790,14 +5917,14 @@
       <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>17</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>42130</v>
       </c>
@@ -5807,14 +5934,14 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>17</v>
       </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>42344</v>
       </c>
@@ -5830,9 +5957,6 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -5863,14 +5987,17 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
         <v>17</v>
       </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>42344</v>
       </c>
@@ -5886,30 +6013,27 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>11</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
         <v>14</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>0</v>
       </c>
@@ -5919,14 +6043,17 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
         <v>17</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42344</v>
       </c>
@@ -5942,11 +6069,8 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -5958,16 +6082,16 @@
         <v>0</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>4</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>22</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5975,14 +6099,17 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
         <v>3</v>
       </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42344</v>
       </c>
@@ -5998,9 +6125,6 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -6031,8 +6155,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42344</v>
       </c>
@@ -6048,9 +6175,6 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -6081,8 +6205,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>42344</v>
       </c>
@@ -6098,14 +6225,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>10</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6114,16 +6238,16 @@
         <v>0</v>
       </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>4</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>36</v>
       </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
       <c r="N46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6131,14 +6255,17 @@
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
         <v>3</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>42344</v>
       </c>
@@ -6154,47 +6281,47 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>26</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>3</v>
       </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
         <v>3</v>
       </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>42344</v>
       </c>
@@ -6210,17 +6337,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>15</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -6243,8 +6367,11 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>42344</v>
       </c>
@@ -6260,9 +6387,6 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -6293,8 +6417,11 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42344</v>
       </c>
@@ -6310,14 +6437,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>14</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6326,14 +6450,14 @@
         <v>0</v>
       </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>19</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
       <c r="N50">
         <v>0</v>
       </c>
@@ -6343,8 +6467,11 @@
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42344</v>
       </c>
@@ -6360,17 +6487,14 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>29</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6393,8 +6517,11 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>42344</v>
       </c>
@@ -6411,11 +6538,11 @@
         <v>1</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>4</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -6443,8 +6570,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42344</v>
       </c>
@@ -6454,14 +6584,14 @@
       <c r="C53" t="s">
         <v>50</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>49</v>
       </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>42344</v>
       </c>
@@ -6471,14 +6601,14 @@
       <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>17</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6495,37 +6625,40 @@
         <v>2</v>
       </c>
       <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
         <v>110</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>13</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>3</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8</v>
       </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s">
         <v>3</v>
       </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6541,14 +6674,11 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>18</v>
       </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6557,22 +6687,25 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
         <v>17</v>
       </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6589,31 +6722,34 @@
         <v>2</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
         <v>12</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -6630,31 +6766,40 @@
         <v>2</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>35</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>4</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -6670,15 +6815,12 @@
       <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>52</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>8</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="I59">
         <v>0</v>
       </c>
@@ -6686,22 +6828,25 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
         <v>36</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
         <v>3</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6717,35 +6862,35 @@
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>49</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>5</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>3</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>13</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>17</v>
       </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -6761,12 +6906,9 @@
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>7</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -6777,22 +6919,25 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>6</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>52</v>
       </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s">
         <v>3</v>
       </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6809,37 +6954,40 @@
         <v>2</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>25</v>
       </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>6</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>42</v>
       </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
         <v>3</v>
       </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -6855,12 +7003,9 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>7</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -6871,22 +7016,25 @@
         <v>0</v>
       </c>
       <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>5</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>42</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
         <v>3</v>
       </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -6903,22 +7051,25 @@
         <v>2</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -6926,16 +7077,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>17</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="R65" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -6943,16 +7094,31 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -6960,31 +7126,16 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>16</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -6994,10 +7145,10 @@
       <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>3</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>1</v>
       </c>
     </row>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -273,7 +273,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -294,7 +297,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42207.628841087964" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42207.642171874999" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
@@ -382,7 +385,7 @@
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
-    <cacheField name="AvgR" numFmtId="0" formula="RunsScored/(Inn-'Not Outs' )" databaseField="0"/>
+    <cacheField name="AvgR" numFmtId="0" formula="RunsScored/(Inn-'Not Outs')" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1744,7 +1747,7 @@
     <x v="1"/>
     <n v="2"/>
     <n v="1"/>
-    <m/>
+    <n v="1"/>
     <n v="16"/>
     <n v="0"/>
     <n v="1"/>
@@ -1805,255 +1808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="23">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="24">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-  </colItems>
-  <dataFields count="8">
-    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Overs" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsConceded" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Econ" fld="19" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wickets" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wides" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NoBalls" fld="15" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="6">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H42:Q66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -2243,11 +1998,259 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="23">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="8">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Overs" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsConceded" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="19" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wickets" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wides" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NoBalls" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="6">
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S68" totalsRowShown="0">
   <autoFilter ref="A1:S68"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -2537,7 +2540,7 @@
   <dimension ref="A3:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,13 +2551,13 @@
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3660,13 +3663,13 @@
         <v>4</v>
       </c>
       <c r="K50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="3">
         <v>45</v>
       </c>
       <c r="M50" s="3">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="N50" s="3">
         <v>0</v>
@@ -4150,13 +4153,13 @@
         <v>62</v>
       </c>
       <c r="K66" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L66" s="3">
         <v>916</v>
       </c>
       <c r="M66" s="3">
-        <v>17.283018867924529</v>
+        <v>17.615384615384617</v>
       </c>
       <c r="N66" s="3">
         <v>69</v>
@@ -4180,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7102,6 +7105,9 @@
       <c r="E66">
         <v>1</v>
       </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
       <c r="G66">
         <v>16</v>
       </c>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -273,7 +273,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -297,7 +306,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42207.642171874999" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="67">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42211.473598611112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="70">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
@@ -336,13 +345,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="Not Outs" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
     </cacheField>
     <cacheField name="RunsScored" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="110"/>
@@ -360,10 +369,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Overs" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
     </cacheField>
     <cacheField name="RunsConceded" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="52"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="104"/>
     </cacheField>
     <cacheField name="Wickets" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
@@ -396,7 +405,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="70">
   <r>
     <s v="29/05/2015"/>
     <s v="Domestic"/>
@@ -1784,31 +1793,94 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <d v="2015-10-07T00:00:00"/>
     <s v="Domestic"/>
     <x v="17"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="19"/>
+    <n v="4"/>
     <m/>
     <m/>
     <m/>
     <s v="Wides"/>
     <n v="1"/>
+  </r>
+  <r>
+    <d v="2015-10-07T00:00:00"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-10-07T00:00:00"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2015-10-07T00:00:00"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="104"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H42:Q66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -1886,19 +1958,19 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
@@ -1999,7 +2071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -2065,28 +2137,34 @@
   </rowFields>
   <rowItems count="24">
     <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="21"/>
@@ -2095,19 +2173,19 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x v="6"/>
@@ -2116,19 +2194,13 @@
       <x v="20"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i>
       <x v="11"/>
@@ -2177,7 +2249,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -2202,7 +2274,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -2247,10 +2319,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S68" totalsRowShown="0">
-  <autoFilter ref="A1:S68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S71" totalsRowShown="0">
+  <autoFilter ref="A1:S71"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -2539,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,15 +2622,14 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,22 +2666,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>916</v>
+        <v>998</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="L4" s="3">
-        <v>5.666666666666667</v>
+        <v>10.733333333333333</v>
       </c>
       <c r="M4" s="3">
         <v>7</v>
@@ -2621,26 +2692,28 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L5" s="3">
-        <v>8.3333333333333339</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="M5" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -2648,9 +2721,7 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
@@ -2683,22 +2754,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3">
-        <v>7.0625</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="M7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -2712,22 +2783,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
         <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" s="3">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="L8" s="3">
-        <v>9.4</v>
+        <v>7.0625</v>
       </c>
       <c r="M8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2741,22 +2812,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3">
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="M9" s="3">
         <v>5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2770,22 +2841,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>63</v>
+      </c>
+      <c r="L10" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="M10" s="3">
         <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -2799,22 +2870,22 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>4</v>
       </c>
       <c r="K11" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L11" s="3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2828,7 +2899,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -2837,36 +2908,42 @@
         <v>6</v>
       </c>
       <c r="K12" s="3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L12" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="L13" s="3">
-        <v>13.75</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="M13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2880,51 +2957,45 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="L14" s="3">
-        <v>9.375</v>
+        <v>7</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L15" s="3">
-        <v>13.333333333333334</v>
+        <v>13.75</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -2994,10 +3065,10 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -3023,10 +3094,10 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -3052,76 +3123,88 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="3">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L20" s="3">
-        <v>3.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
       <c r="L21" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="L22" s="3">
-        <v>14.666666666666666</v>
+        <v>3.5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -3150,36 +3233,24 @@
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3240,19 +3311,19 @@
         <v>30</v>
       </c>
       <c r="I27" s="3">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J27" s="3">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K27" s="3">
-        <v>856</v>
+        <v>1011</v>
       </c>
       <c r="L27" s="3">
-        <v>8.1523809523809518</v>
+        <v>8.2868852459016402</v>
       </c>
       <c r="M27" s="3">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -3441,17 +3512,19 @@
         <v>9</v>
       </c>
       <c r="I43" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J43" s="3">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
       <c r="L43" s="3">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M43" s="3">
-        <v>33</v>
+        <v>20.555555555555557</v>
       </c>
       <c r="N43" s="3">
         <v>8</v>
@@ -3560,28 +3633,28 @@
     </row>
     <row r="47" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I47" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J47" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
       </c>
       <c r="L47" s="3">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M47" s="3">
-        <v>22.666666666666668</v>
+        <v>10.25</v>
       </c>
       <c r="N47" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3592,25 +3665,25 @@
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J48" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M48" s="3">
-        <v>14</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="N48" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O48" s="3">
         <v>4</v>
@@ -3624,23 +3697,25 @@
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" s="3">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
       <c r="L49" s="3">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M49" s="3">
-        <v>17</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="N49" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O49" s="3">
         <v>4</v>
@@ -3654,28 +3729,26 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I50" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J50" s="3">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>51</v>
+      </c>
+      <c r="M50" s="3">
+        <v>17</v>
+      </c>
+      <c r="N50" s="3">
+        <v>3</v>
+      </c>
+      <c r="O50" s="3">
         <v>4</v>
-      </c>
-      <c r="K50" s="3">
-        <v>2</v>
-      </c>
-      <c r="L50" s="3">
-        <v>45</v>
-      </c>
-      <c r="M50" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3">
-        <v>2</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
@@ -3686,26 +3759,28 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3">
         <v>4</v>
       </c>
-      <c r="K51" s="3"/>
+      <c r="K51" s="3">
+        <v>2</v>
+      </c>
       <c r="L51" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M51" s="3">
-        <v>8.75</v>
+        <v>22.5</v>
       </c>
       <c r="N51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P51" s="3">
         <v>0</v>
@@ -3961,7 +4036,7 @@
         <v>26</v>
       </c>
       <c r="I60" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" s="3">
         <v>4</v>
@@ -4147,25 +4222,25 @@
         <v>30</v>
       </c>
       <c r="I66" s="3">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J66" s="3">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K66" s="3">
         <v>10</v>
       </c>
       <c r="L66" s="3">
-        <v>916</v>
+        <v>998</v>
       </c>
       <c r="M66" s="3">
-        <v>17.615384615384617</v>
+        <v>14.676470588235293</v>
       </c>
       <c r="N66" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O66" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" s="3">
         <v>3</v>
@@ -4181,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7142,8 +7217,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>59</v>
+      <c r="A68" s="5">
+        <v>42284</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -7151,11 +7226,176 @@
       <c r="C68" t="s">
         <v>25</v>
       </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>19</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
       <c r="R68" t="s">
         <v>3</v>
       </c>
       <c r="S68">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>42284</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>42284</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>42284</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>36</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>12</v>
+      </c>
+      <c r="M71">
+        <v>104</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="29" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +225,12 @@
   <si>
     <t>Sum of Not Outs</t>
   </si>
+  <si>
+    <t>31/7/2015</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,11 +276,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -306,19 +322,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42211.473598611112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="70">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42219.60009699074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="86">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="6">
+        <s v="29/05/2015"/>
+        <d v="2015-05-06T00:00:00"/>
+        <d v="2015-12-06T00:00:00"/>
+        <s v="19/7/2015"/>
+        <d v="2015-10-07T00:00:00"/>
+        <s v="31/7/2015"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="23">
+      <sharedItems count="24">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -342,10 +365,11 @@
         <s v="Armoghan"/>
         <s v="Janisar"/>
         <s v="Shahzad"/>
+        <s v="Robert"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
@@ -405,9 +429,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="70">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="0"/>
     <n v="1"/>
@@ -428,7 +452,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="1"/>
     <n v="1"/>
@@ -449,7 +473,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="2"/>
     <n v="1"/>
@@ -470,7 +494,7 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="3"/>
     <n v="1"/>
@@ -491,7 +515,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="4"/>
     <n v="1"/>
@@ -512,7 +536,7 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="5"/>
     <n v="1"/>
@@ -533,7 +557,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="6"/>
     <n v="1"/>
@@ -554,7 +578,7 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="7"/>
     <n v="1"/>
@@ -575,7 +599,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="8"/>
     <n v="1"/>
@@ -596,7 +620,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="9"/>
     <n v="1"/>
@@ -617,7 +641,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="10"/>
     <n v="1"/>
@@ -638,7 +662,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="11"/>
     <n v="1"/>
@@ -659,7 +683,7 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="12"/>
     <n v="1"/>
@@ -680,7 +704,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="13"/>
     <n v="1"/>
@@ -701,7 +725,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="14"/>
     <n v="1"/>
@@ -722,7 +746,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="15"/>
     <n v="1"/>
@@ -743,7 +767,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="16"/>
     <n v="1"/>
@@ -764,7 +788,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="17"/>
     <n v="1"/>
@@ -785,7 +809,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="1"/>
     <n v="1"/>
@@ -806,7 +830,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="2"/>
     <n v="1"/>
@@ -827,7 +851,7 @@
     <n v="6"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="16"/>
     <n v="1"/>
@@ -848,7 +872,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="13"/>
     <n v="1"/>
@@ -869,7 +893,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="5"/>
     <n v="1"/>
@@ -890,7 +914,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="12"/>
     <n v="1"/>
@@ -911,7 +935,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="14"/>
     <n v="1"/>
@@ -932,7 +956,7 @@
     <n v="4"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="11"/>
     <n v="1"/>
@@ -953,7 +977,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="6"/>
     <n v="1"/>
@@ -974,7 +998,7 @@
     <n v="3"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="4"/>
     <n v="1"/>
@@ -995,7 +1019,7 @@
     <n v="6"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="17"/>
     <n v="1"/>
@@ -1016,7 +1040,7 @@
     <m/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="2"/>
     <m/>
@@ -1037,7 +1061,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="11"/>
     <n v="1"/>
@@ -1058,7 +1082,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="13"/>
     <n v="1"/>
@@ -1079,7 +1103,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="2"/>
     <m/>
@@ -1100,7 +1124,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="3"/>
     <m/>
@@ -1121,7 +1145,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="5"/>
     <m/>
@@ -1142,7 +1166,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="29/05/2015"/>
+    <x v="0"/>
     <s v="Domestic"/>
     <x v="14"/>
     <m/>
@@ -1163,7 +1187,7 @@
     <n v="2"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="2"/>
     <m/>
@@ -1184,7 +1208,7 @@
     <n v="2"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="14"/>
     <m/>
@@ -1205,7 +1229,7 @@
     <n v="4"/>
   </r>
   <r>
-    <d v="2015-05-06T00:00:00"/>
+    <x v="1"/>
     <s v="International"/>
     <x v="4"/>
     <m/>
@@ -1226,7 +1250,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="17"/>
     <n v="1"/>
@@ -1247,7 +1271,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="2"/>
     <n v="1"/>
@@ -1268,7 +1292,7 @@
     <n v="3"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="12"/>
     <n v="1"/>
@@ -1289,7 +1313,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="1"/>
     <n v="1"/>
@@ -1310,7 +1334,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="0"/>
     <n v="1"/>
@@ -1331,7 +1355,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="6"/>
     <n v="1"/>
@@ -1352,7 +1376,7 @@
     <n v="3"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="18"/>
     <n v="1"/>
@@ -1373,7 +1397,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="5"/>
     <n v="1"/>
@@ -1394,7 +1418,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="11"/>
     <n v="1"/>
@@ -1415,7 +1439,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="7"/>
     <n v="1"/>
@@ -1436,7 +1460,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="8"/>
     <n v="1"/>
@@ -1457,7 +1481,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="19"/>
     <n v="1"/>
@@ -1478,7 +1502,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="18"/>
     <m/>
@@ -1499,7 +1523,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-12-06T00:00:00"/>
+    <x v="2"/>
     <s v="International"/>
     <x v="18"/>
     <m/>
@@ -1520,7 +1544,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="12"/>
     <n v="2"/>
@@ -1541,7 +1565,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="20"/>
     <n v="2"/>
@@ -1562,7 +1586,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="0"/>
     <n v="2"/>
@@ -1583,7 +1607,7 @@
     <m/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="4"/>
     <n v="2"/>
@@ -1604,7 +1628,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="11"/>
     <n v="2"/>
@@ -1625,7 +1649,7 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="17"/>
     <n v="2"/>
@@ -1646,13 +1670,13 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="2"/>
     <n v="2"/>
     <n v="2"/>
     <m/>
-    <n v="7"/>
+    <n v="22"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1667,7 +1691,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="21"/>
     <n v="2"/>
@@ -1688,7 +1712,7 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="16"/>
     <n v="2"/>
@@ -1709,7 +1733,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="22"/>
     <n v="2"/>
@@ -1730,7 +1754,7 @@
     <m/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="20"/>
     <m/>
@@ -1751,7 +1775,7 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="1"/>
     <n v="2"/>
@@ -1772,7 +1796,7 @@
     <m/>
   </r>
   <r>
-    <s v="19/7/2015"/>
+    <x v="3"/>
     <s v="Domestic"/>
     <x v="17"/>
     <m/>
@@ -1793,7 +1817,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-10-07T00:00:00"/>
+    <x v="4"/>
     <s v="Domestic"/>
     <x v="17"/>
     <n v="4"/>
@@ -1814,7 +1838,7 @@
     <n v="1"/>
   </r>
   <r>
-    <d v="2015-10-07T00:00:00"/>
+    <x v="4"/>
     <s v="Domestic"/>
     <x v="0"/>
     <n v="1"/>
@@ -1835,28 +1859,7 @@
     <m/>
   </r>
   <r>
-    <d v="2015-10-07T00:00:00"/>
-    <s v="Domestic"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2015-10-07T00:00:00"/>
+    <x v="4"/>
     <s v="Domestic"/>
     <x v="16"/>
     <n v="8"/>
@@ -1875,18 +1878,535 @@
     <m/>
     <m/>
     <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="47"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="77"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="68"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="39"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="72"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="69"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="53"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="50"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="22"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="32"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="75"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H42:Q66" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="22">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="25">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="20" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H42:Q67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="23">
+      <items count="24">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -1910,6 +2430,7 @@
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -1944,7 +2465,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="25">
     <i>
       <x v="17"/>
     </i>
@@ -1952,16 +2473,19 @@
       <x v="15"/>
     </i>
     <i>
-      <x/>
+      <x v="9"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="3"/>
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="12"/>
@@ -1970,19 +2494,19 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
       <x v="13"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i>
       <x v="20"/>
@@ -1994,22 +2518,22 @@
       <x v="18"/>
     </i>
     <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="14"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="22"/>
     </i>
     <i>
       <x v="4"/>
@@ -2070,14 +2594,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="23">
+      <items count="24">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -2101,6 +2625,7 @@
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -2135,12 +2660,18 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="25">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x/>
+      <x v="18"/>
     </i>
     <i>
       <x v="13"/>
@@ -2149,61 +2680,58 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -2249,7 +2777,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -2273,56 +2801,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S71" totalsRowShown="0">
-  <autoFilter ref="A1:S71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S87" totalsRowShown="0">
+  <autoFilter ref="A1:S87"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -2609,10 +3092,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q66"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42344</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,15 +3212,15 @@
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,22 +3257,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>998</v>
+        <v>1374</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L4" s="3">
-        <v>10.733333333333333</v>
+        <v>8.6190476190476186</v>
       </c>
       <c r="M4" s="3">
         <v>7</v>
@@ -2725,19 +3316,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K6" s="3">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="L6" s="3">
-        <v>8.615384615384615</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M6" s="3">
         <v>6</v>
@@ -2754,19 +3345,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L7" s="3">
-        <v>8.3333333333333339</v>
+        <v>7.8</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2783,22 +3374,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="3">
-        <v>7.0625</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="M8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -2812,22 +3403,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K9" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>4.5714285714285712</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="M9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2841,22 +3432,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="M10" s="3">
         <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>63</v>
-      </c>
-      <c r="L10" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -2873,19 +3464,19 @@
         <v>50</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L11" s="3">
-        <v>6.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2899,22 +3490,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J12" s="3">
         <v>6</v>
       </c>
       <c r="K12" s="3">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="L12" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2931,16 +3522,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="L13" s="3">
-        <v>8.9499999999999993</v>
+        <v>10.16</v>
       </c>
       <c r="M13" s="3">
         <v>3</v>
@@ -2957,45 +3548,51 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="L14" s="3">
-        <v>7</v>
+        <v>8.875</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L15" s="3">
-        <v>13.75</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3009,36 +3606,30 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>92</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9.1999999999999993</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -3055,17 +3646,13 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -3094,10 +3681,10 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -3123,19 +3710,19 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>40</v>
-      </c>
-      <c r="L20" s="3">
-        <v>13.333333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -3146,13 +3733,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -3204,19 +3789,19 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>61</v>
+      </c>
+      <c r="L23" s="3">
+        <v>15.25</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -3236,21 +3821,27 @@
         <v>62</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
       <c r="L24" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3279,10 +3870,10 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -3308,42 +3899,61 @@
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="3">
-        <v>82</v>
-      </c>
-      <c r="J27" s="3">
-        <v>122</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1011</v>
-      </c>
-      <c r="L27" s="3">
-        <v>8.2868852459016402</v>
-      </c>
-      <c r="M27" s="3">
-        <v>51</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="I28" s="3">
+        <v>100</v>
+      </c>
+      <c r="J28" s="3">
+        <v>158</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1399</v>
+      </c>
+      <c r="L28" s="3">
+        <v>8.8544303797468356</v>
+      </c>
+      <c r="M28" s="3">
+        <v>60</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2"/>
@@ -3512,28 +4122,28 @@
         <v>9</v>
       </c>
       <c r="I43" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J43" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="M43" s="3">
-        <v>20.555555555555557</v>
+        <v>36</v>
       </c>
       <c r="N43" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O43" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3544,28 +4154,28 @@
         <v>20</v>
       </c>
       <c r="I44" s="3">
+        <v>7</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>192</v>
+      </c>
+      <c r="M44" s="3">
+        <v>48</v>
+      </c>
+      <c r="N44" s="3">
+        <v>16</v>
+      </c>
+      <c r="O44" s="3">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2</v>
-      </c>
-      <c r="L44" s="3">
-        <v>115</v>
-      </c>
-      <c r="M44" s="3">
-        <v>38.333333333333336</v>
-      </c>
-      <c r="N44" s="3">
-        <v>13</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2</v>
-      </c>
       <c r="P44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3573,26 +4183,28 @@
     </row>
     <row r="45" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J45" s="3">
-        <v>2</v>
-      </c>
-      <c r="K45" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3</v>
+      </c>
       <c r="L45" s="3">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M45" s="3">
-        <v>45.5</v>
+        <v>16.125</v>
       </c>
       <c r="N45" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O45" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3606,20 +4218,22 @@
         <v>19</v>
       </c>
       <c r="I46" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J46" s="3">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
       <c r="L46" s="3">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M46" s="3">
-        <v>17.2</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="N46" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O46" s="3">
         <v>1</v>
@@ -3633,28 +4247,28 @@
     </row>
     <row r="47" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J47" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M47" s="3">
-        <v>10.25</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="N47" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3665,28 +4279,26 @@
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I48" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J48" s="3">
-        <v>12</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="M48" s="3">
-        <v>5.916666666666667</v>
+        <v>45.5</v>
       </c>
       <c r="N48" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3697,7 +4309,7 @@
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I49" s="3">
         <v>4</v>
@@ -3706,22 +4318,22 @@
         <v>4</v>
       </c>
       <c r="K49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="3">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M49" s="3">
-        <v>22.666666666666668</v>
+        <v>39</v>
       </c>
       <c r="N49" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3729,23 +4341,25 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" s="3">
-        <v>3</v>
-      </c>
-      <c r="K50" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
       <c r="L50" s="3">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M50" s="3">
-        <v>17</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="N50" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O50" s="3">
         <v>4</v>
@@ -3759,28 +4373,26 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I51" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>51</v>
+      </c>
+      <c r="M51" s="3">
+        <v>17</v>
+      </c>
+      <c r="N51" s="3">
+        <v>3</v>
+      </c>
+      <c r="O51" s="3">
         <v>4</v>
-      </c>
-      <c r="K51" s="3">
-        <v>2</v>
-      </c>
-      <c r="L51" s="3">
-        <v>45</v>
-      </c>
-      <c r="M51" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
-        <v>2</v>
       </c>
       <c r="P51" s="3">
         <v>0</v>
@@ -3791,23 +4403,25 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" s="3">
-        <v>2</v>
-      </c>
-      <c r="K52" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
       <c r="L52" s="3">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M52" s="3">
-        <v>14.5</v>
+        <v>24.5</v>
       </c>
       <c r="N52" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O52" s="3">
         <v>2</v>
@@ -3821,25 +4435,25 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I53" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J53" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K53" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M53" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
         <v>2</v>
@@ -3853,26 +4467,28 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I54" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" s="3">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
       <c r="L54" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M54" s="3">
-        <v>8.3333333333333339</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="N54" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3883,23 +4499,23 @@
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I55" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" s="3">
         <v>2</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M55" s="3">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="N55" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O55" s="3">
         <v>2</v>
@@ -3913,23 +4529,23 @@
     </row>
     <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M56" s="3">
-        <v>9</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="N56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -3943,20 +4559,20 @@
     </row>
     <row r="57" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3">
         <v>18</v>
       </c>
       <c r="M57" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N57" s="3">
         <v>2</v>
@@ -3973,23 +4589,23 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M58" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4003,26 +4619,28 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" s="3">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
       <c r="L59" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M59" s="3">
-        <v>12</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4033,28 +4651,28 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I60" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J60" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M60" s="3">
-        <v>3.3333333333333335</v>
+        <v>6</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -4065,7 +4683,7 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
@@ -4075,16 +4693,16 @@
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M61" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4095,26 +4713,28 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>1</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
       <c r="L62" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M62" s="3">
-        <v>6</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4125,7 +4745,7 @@
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -4133,12 +4753,14 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="3"/>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
       <c r="L63" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M63" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
@@ -4158,19 +4780,19 @@
         <v>62</v>
       </c>
       <c r="I64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M64" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
@@ -4187,7 +4809,7 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
@@ -4195,14 +4817,12 @@
       <c r="J65" s="3">
         <v>1</v>
       </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
+      <c r="K65" s="3"/>
       <c r="L65" s="3">
-        <v>4</v>
-      </c>
-      <c r="M65" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="M65" s="3">
+        <v>6</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
@@ -4219,33 +4839,65 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="3">
-        <v>82</v>
-      </c>
-      <c r="J66" s="3">
-        <v>78</v>
-      </c>
-      <c r="K66" s="3">
-        <v>10</v>
-      </c>
-      <c r="L66" s="3">
-        <v>998</v>
-      </c>
-      <c r="M66" s="3">
-        <v>14.676470588235293</v>
-      </c>
-      <c r="N66" s="3">
-        <v>72</v>
-      </c>
-      <c r="O66" s="3">
-        <v>54</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="I67" s="3">
+        <v>100</v>
+      </c>
+      <c r="J67" s="3">
+        <v>95</v>
+      </c>
+      <c r="K67" s="3">
+        <v>19</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1374</v>
+      </c>
+      <c r="M67" s="3">
+        <v>18.078947368421051</v>
+      </c>
+      <c r="N67" s="3">
+        <v>103</v>
+      </c>
+      <c r="O67" s="3">
+        <v>69</v>
+      </c>
+      <c r="P67" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4254,12 +4906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6985,7 +7637,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -7318,19 +7970,19 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7345,57 +7997,743 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>42284</v>
+      <c r="A71" t="s">
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>47</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>9</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>77</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>68</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="R73" t="s">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>48</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="R74" t="s">
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>39</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>20</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="R75" t="s">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>29</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>16</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>72</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>69</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="R78" t="s">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>53</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>50</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>14</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>21</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>32</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="R82" t="s">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>24</v>
       </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>8</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>36</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>12</v>
-      </c>
-      <c r="M71">
-        <v>104</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>29</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>75</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>49</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" t="s">
+        <v>17</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="R86" t="s">
+        <v>17</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="R87" t="s">
+        <v>17</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,15 @@
   <si>
     <t>Robert</t>
   </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
+    <t>Shawaiz</t>
+  </si>
+  <si>
+    <t>Hamza Usmani</t>
+  </si>
 </sst>
 </file>
 
@@ -283,22 +292,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -322,26 +316,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42219.60009699074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="86">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42228.740021064812" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="6">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="7">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
         <s v="19/7/2015"/>
         <d v="2015-10-07T00:00:00"/>
         <s v="31/7/2015"/>
+        <d v="2015-07-08T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="24">
+      <sharedItems count="27">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -366,13 +361,16 @@
         <s v="Janisar"/>
         <s v="Shahzad"/>
         <s v="Robert"/>
+        <s v="Hamza Usmani"/>
+        <s v="Fahad"/>
+        <s v="Shawaiz"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
     </cacheField>
     <cacheField name="Inn" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
     <cacheField name="Not Outs" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
@@ -399,7 +397,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="104"/>
     </cacheField>
     <cacheField name="Wickets" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="Wides" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
@@ -429,7 +427,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -1863,7 +1861,7 @@
     <s v="Domestic"/>
     <x v="16"/>
     <n v="8"/>
-    <n v="8"/>
+    <n v="4"/>
     <n v="0"/>
     <n v="36"/>
     <n v="0"/>
@@ -2234,19 +2232,377 @@
     <m/>
     <m/>
     <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <n v="41"/>
+    <n v="3"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="52"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <n v="55"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <n v="31"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="24"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="94"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <n v="72"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="50"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="83"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <n v="80"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <n v="33"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="55"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <n v="13"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="49"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="25"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="25"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="26"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="13"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
     <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
+      <items count="8">
         <item x="2"/>
         <item x="4"/>
+        <item x="6"/>
         <item x="1"/>
         <item x="5"/>
         <item x="0"/>
@@ -2256,7 +2612,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="25">
+      <items count="28">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -2281,6 +2637,9 @@
         <item x="7"/>
         <item x="11"/>
         <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2312,9 +2671,6 @@
       <x/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
     </i>
     <i>
@@ -2322,6 +2678,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2355,58 +2714,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H42:Q67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H42:Q70" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="24">
+      <items count="27">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -2431,6 +2745,9 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -2465,60 +2782,66 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="28">
+    <i>
+      <x v="15"/>
+    </i>
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x v="15"/>
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="25"/>
     </i>
     <i>
       <x v="8"/>
@@ -2527,13 +2850,16 @@
       <x v="10"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="4"/>
@@ -2594,14 +2920,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="24">
+      <items count="27">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -2626,6 +2952,9 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -2660,21 +2989,21 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="28">
     <i>
       <x v="15"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="17"/>
-    </i>
-    <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="17"/>
     </i>
     <i>
       <x v="12"/>
@@ -2689,49 +3018,58 @@
       <x v="9"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="21"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="22"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="5"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -2777,7 +3115,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -2801,11 +3139,56 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S87" totalsRowShown="0">
-  <autoFilter ref="A1:S87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S104" totalsRowShown="0">
+  <autoFilter ref="A1:S104"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -3200,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q67"/>
+  <dimension ref="A3:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,14 +3595,15 @@
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3257,25 +3641,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1374</v>
+        <v>1821</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="L4" s="3">
-        <v>8.6190476190476186</v>
+        <v>9.3703703703703702</v>
       </c>
       <c r="M4" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -3289,22 +3673,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="L5" s="3">
-        <v>5.666666666666667</v>
+        <v>8.473684210526315</v>
       </c>
       <c r="M5" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3312,55 +3696,55 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3">
+        <v>131</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="M6" s="3">
         <v>9</v>
       </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3">
-        <v>210</v>
-      </c>
-      <c r="L6" s="3">
-        <v>11.666666666666666</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6</v>
-      </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="L7" s="3">
-        <v>7.8</v>
+        <v>9.0833333333333339</v>
       </c>
       <c r="M7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3374,19 +3758,19 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K8" s="3">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="L8" s="3">
-        <v>8.615384615384615</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M8" s="3">
         <v>6</v>
@@ -3493,19 +3877,19 @@
         <v>25</v>
       </c>
       <c r="I12" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="L12" s="3">
-        <v>12</v>
+        <v>10.777777777777779</v>
       </c>
       <c r="M12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -3519,19 +3903,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K13" s="3">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="L13" s="3">
-        <v>10.16</v>
+        <v>9.4615384615384617</v>
       </c>
       <c r="M13" s="3">
         <v>3</v>
@@ -3548,22 +3932,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K14" s="3">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="L14" s="3">
-        <v>8.875</v>
+        <v>10.16</v>
       </c>
       <c r="M14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -3577,71 +3961,71 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3">
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K15" s="3">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="L15" s="3">
-        <v>10.666666666666666</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="M15" s="3">
         <v>2</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="L16" s="3">
-        <v>9.1999999999999993</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>56</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9.3333333333333339</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -3652,10 +4036,10 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -3681,39 +4065,33 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>23</v>
       </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="e">
-        <v>#DIV/0!</v>
+      <c r="L19" s="3">
+        <v>23</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -3733,11 +4111,13 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -3766,55 +4146,53 @@
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>61</v>
-      </c>
-      <c r="L23" s="3">
-        <v>15.25</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
@@ -3841,7 +4219,7 @@
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -3870,19 +4248,19 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>61</v>
+      </c>
+      <c r="L26" s="3">
+        <v>15.25</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -3899,91 +4277,124 @@
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>55</v>
+      </c>
+      <c r="L29" s="3">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="3">
-        <v>100</v>
-      </c>
-      <c r="J28" s="3">
-        <v>158</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1399</v>
-      </c>
-      <c r="L28" s="3">
-        <v>8.8544303797468356</v>
-      </c>
-      <c r="M28" s="3">
-        <v>60</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="I31" s="3">
+        <v>128</v>
+      </c>
+      <c r="J31" s="3">
+        <v>198</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1885</v>
+      </c>
+      <c r="L31" s="3">
+        <v>9.5202020202020208</v>
+      </c>
+      <c r="M31" s="3">
+        <v>76</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2"/>
@@ -4119,28 +4530,28 @@
     </row>
     <row r="43" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3">
         <v>9</v>
       </c>
-      <c r="I43" s="3">
-        <v>7</v>
-      </c>
       <c r="J43" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L43" s="3">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M43" s="3">
-        <v>36</v>
+        <v>71.5</v>
       </c>
       <c r="N43" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O43" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P43" s="3">
         <v>3</v>
@@ -4151,7 +4562,7 @@
     </row>
     <row r="44" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I44" s="3">
         <v>7</v>
@@ -4160,22 +4571,22 @@
         <v>7</v>
       </c>
       <c r="K44" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="M44" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N44" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O44" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -4183,31 +4594,31 @@
     </row>
     <row r="45" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I45" s="3">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>174</v>
+      </c>
+      <c r="M45" s="3">
+        <v>58</v>
+      </c>
+      <c r="N45" s="3">
+        <v>18</v>
+      </c>
+      <c r="O45" s="3">
         <v>11</v>
       </c>
-      <c r="J45" s="3">
-        <v>11</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
-        <v>129</v>
-      </c>
-      <c r="M45" s="3">
-        <v>16.125</v>
-      </c>
-      <c r="N45" s="3">
-        <v>12</v>
-      </c>
-      <c r="O45" s="3">
-        <v>7</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -4218,25 +4629,25 @@
         <v>19</v>
       </c>
       <c r="I46" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
       </c>
       <c r="L46" s="3">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="M46" s="3">
-        <v>19.166666666666668</v>
+        <v>19.5</v>
       </c>
       <c r="N46" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O46" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -4247,28 +4658,28 @@
     </row>
     <row r="47" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="M47" s="3">
-        <v>7.6923076923076925</v>
+        <v>15.888888888888889</v>
       </c>
       <c r="N47" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O47" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -4279,26 +4690,28 @@
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J48" s="3">
-        <v>2</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
       <c r="L48" s="3">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>45.5</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N48" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O48" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -4312,22 +4725,22 @@
         <v>61</v>
       </c>
       <c r="I49" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J49" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" s="3">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M49" s="3">
-        <v>39</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="N49" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O49" s="3">
         <v>3</v>
@@ -4341,28 +4754,26 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3">
-        <v>4</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K50" s="3"/>
       <c r="L50" s="3">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M50" s="3">
-        <v>22.666666666666668</v>
+        <v>16.8</v>
       </c>
       <c r="N50" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
@@ -4373,29 +4784,31 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I51" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3">
-        <v>3</v>
-      </c>
-      <c r="K51" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
       <c r="L51" s="3">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M51" s="3">
-        <v>17</v>
+        <v>14.2</v>
       </c>
       <c r="N51" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O51" s="3">
         <v>4</v>
       </c>
       <c r="P51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4403,28 +4816,28 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>1</v>
       </c>
       <c r="L52" s="3">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M52" s="3">
-        <v>24.5</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="N52" s="3">
         <v>6</v>
       </c>
       <c r="O52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4435,28 +4848,28 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I53" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="3">
         <v>5</v>
       </c>
       <c r="K53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M53" s="3">
-        <v>23</v>
+        <v>16.25</v>
       </c>
       <c r="N53" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O53" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
@@ -4467,28 +4880,28 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I54" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J54" s="3">
+        <v>7</v>
+      </c>
+      <c r="K54" s="3">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
       <c r="L54" s="3">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M54" s="3">
-        <v>11.666666666666666</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -4499,23 +4912,25 @@
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" s="3">
-        <v>2</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
       <c r="L55" s="3">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M55" s="3">
-        <v>14.5</v>
+        <v>24.5</v>
       </c>
       <c r="N55" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O55" s="3">
         <v>2</v>
@@ -4529,26 +4944,28 @@
     </row>
     <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I56" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3">
-        <v>3</v>
-      </c>
-      <c r="K56" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
       <c r="L56" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M56" s="3">
-        <v>8.3333333333333339</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="N56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P56" s="3">
         <v>0</v>
@@ -4562,20 +4979,20 @@
         <v>60</v>
       </c>
       <c r="I57" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M57" s="3">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="N57" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4589,26 +5006,26 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M58" s="3">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="N58" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4619,28 +5036,28 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M59" s="3">
-        <v>5.333333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="N59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4651,25 +5068,23 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="3">
-        <v>2</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K60" s="3"/>
       <c r="L60" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M60" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -4683,26 +5098,28 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
-      <c r="K61" s="3"/>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
       <c r="L61" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M61" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4713,39 +5130,31 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I62" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J62" s="3">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M62" s="3">
-        <v>3.3333333333333335</v>
+        <v>13</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -4753,20 +5162,18 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
+      <c r="K63" s="3"/>
       <c r="L63" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M63" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
       </c>
       <c r="O63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -4777,22 +5184,22 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I64" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3">
         <v>4</v>
       </c>
       <c r="K64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M64" s="3">
-        <v>4.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
@@ -4809,26 +5216,28 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I65" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" s="3">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
       <c r="L65" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M65" s="3">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
       </c>
       <c r="O65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="3">
         <v>0</v>
@@ -4839,7 +5248,7 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -4848,13 +5257,13 @@
         <v>1</v>
       </c>
       <c r="K66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="M66" s="3">
+        <v>9</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -4871,33 +5280,119 @@
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>6</v>
+      </c>
+      <c r="M67" s="3">
+        <v>6</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3">
+        <v>5</v>
+      </c>
+      <c r="M68" s="3">
+        <v>5</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3">
+        <v>4</v>
+      </c>
+      <c r="M69" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="3">
-        <v>100</v>
-      </c>
-      <c r="J67" s="3">
-        <v>95</v>
-      </c>
-      <c r="K67" s="3">
-        <v>19</v>
-      </c>
-      <c r="L67" s="3">
-        <v>1374</v>
-      </c>
-      <c r="M67" s="3">
-        <v>18.078947368421051</v>
-      </c>
-      <c r="N67" s="3">
-        <v>103</v>
-      </c>
-      <c r="O67" s="3">
-        <v>69</v>
-      </c>
-      <c r="P67" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q67" s="3">
+      <c r="I70" s="3">
+        <v>128</v>
+      </c>
+      <c r="J70" s="3">
+        <v>116</v>
+      </c>
+      <c r="K70" s="3">
+        <v>27</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1821</v>
+      </c>
+      <c r="M70" s="3">
+        <v>20.460674157303369</v>
+      </c>
+      <c r="N70" s="3">
+        <v>145</v>
+      </c>
+      <c r="O70" s="3">
+        <v>99</v>
+      </c>
+      <c r="P70" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4908,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7976,7 +8471,7 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -8733,6 +9228,598 @@
         <v>17</v>
       </c>
       <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>41</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>52</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="R88" t="s">
+        <v>3</v>
+      </c>
+      <c r="S88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>55</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>31</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>94</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <v>72</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="R91" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>50</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="L94">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>49</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="R94" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>83</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>6</v>
+      </c>
+      <c r="M95">
+        <v>80</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="R95" t="s">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>33</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>55</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>49</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>25</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>17</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>23</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>13</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="R102" t="s">
+        <v>17</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="R103" t="s">
+        <v>17</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>42193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R104" t="s">
+        <v>49</v>
+      </c>
+      <c r="S104">
         <v>1</v>
       </c>
     </row>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Zubair</t>
-  </si>
-  <si>
-    <t>Omer</t>
   </si>
   <si>
     <t>Iqbal</t>
@@ -240,6 +237,21 @@
   <si>
     <t>Hamza Usmani</t>
   </si>
+  <si>
+    <t>Omer Manzoor</t>
+  </si>
+  <si>
+    <t>14/8/2015</t>
+  </si>
+  <si>
+    <t>21/8/2015</t>
+  </si>
+  <si>
+    <t>Ijaz</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
 </sst>
 </file>
 
@@ -292,10 +304,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -316,13 +325,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42228.740021064812" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42243.661245833333" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="146">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="7">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="9">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -330,13 +339,15 @@
         <d v="2015-10-07T00:00:00"/>
         <s v="31/7/2015"/>
         <d v="2015-07-08T00:00:00"/>
+        <s v="14/8/2015"/>
+        <s v="21/8/2015"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="27">
+      <sharedItems count="31">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -349,7 +360,7 @@
         <s v="Nouman"/>
         <s v="Junaid"/>
         <s v="Zubair"/>
-        <s v="Omer"/>
+        <s v="Omer Manzoor"/>
         <s v="Iqbal"/>
         <s v="Adnan"/>
         <s v="Imran"/>
@@ -364,6 +375,10 @@
         <s v="Hamza Usmani"/>
         <s v="Fahad"/>
         <s v="Shawaiz"/>
+        <s v="Ijaz"/>
+        <s v="Umar"/>
+        <s v="Kalem" u="1"/>
+        <s v="Omer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Match" numFmtId="0">
@@ -427,7 +442,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="146">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -2591,28 +2606,933 @@
     <s v="No Balls"/>
     <n v="1"/>
   </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+    <n v="81"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="22"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="7"/>
+    <n v="66"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="66"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="5"/>
+    <n v="85"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="68"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="34"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="International"/>
+    <x v="25"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="76"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <n v="32"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="77"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="5"/>
+    <n v="65"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="54"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="22"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="25"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="91"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="71"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="68"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="56"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="22"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="41"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="27"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="28"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="8">
+      <items count="10">
         <item x="2"/>
         <item x="4"/>
         <item x="6"/>
         <item x="1"/>
         <item x="5"/>
         <item x="0"/>
+        <item x="8"/>
         <item x="3"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="28">
+      <items count="32">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -2630,7 +3550,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item x="12"/>
+        <item m="1" x="30"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -2640,6 +3560,10 @@
         <item x="25"/>
         <item x="26"/>
         <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2666,7 +3590,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -2681,6 +3605,12 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -2714,13 +3644,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H42:Q70" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="27">
+      <items count="31">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -2736,7 +3666,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item x="12"/>
+        <item m="1" x="30"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -2748,6 +3678,284 @@
         <item x="25"/>
         <item x="26"/>
         <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="29"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="8">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Overs" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsConceded" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Econ" fld="19" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wickets" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Wides" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NoBalls" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="6">
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H47:Q77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="31">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="30"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="29"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -2782,9 +3990,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="30">
     <i>
-      <x v="15"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="17"/>
@@ -2793,13 +4001,13 @@
       <x/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="21"/>
@@ -2808,19 +4016,16 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="16"/>
     </i>
     <i>
       <x v="7"/>
@@ -2829,22 +4034,25 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="25"/>
     </i>
     <i>
       <x v="10"/>
@@ -2863,6 +4071,12 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -2920,275 +4134,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="27">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-  </colItems>
-  <dataFields count="8">
-    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Overs" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsConceded" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Econ" fld="19" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wickets" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Wides" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NoBalls" fld="15" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="6">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S104" totalsRowShown="0">
-  <autoFilter ref="A1:S104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S147" totalsRowShown="0">
+  <autoFilter ref="A1:S147"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -3475,7 +4425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3493,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -3501,13 +4451,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,7 +4484,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -3556,24 +4506,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>252</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q70"/>
+  <dimension ref="A3:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,71 +4567,71 @@
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1821</v>
+        <v>2502</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I4" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3">
-        <v>253</v>
+        <v>402</v>
       </c>
       <c r="L4" s="3">
-        <v>9.3703703703703702</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="M4" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -3673,22 +4645,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="L5" s="3">
-        <v>8.473684210526315</v>
+        <v>8.1785714285714288</v>
       </c>
       <c r="M5" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -3696,28 +4668,26 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="L6" s="3">
-        <v>8.7333333333333325</v>
+        <v>10.25</v>
       </c>
       <c r="M6" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -3725,26 +4695,28 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="L7" s="3">
-        <v>9.0833333333333339</v>
+        <v>10.571428571428571</v>
       </c>
       <c r="M7" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3761,19 +4733,19 @@
         <v>9</v>
       </c>
       <c r="I8" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K8" s="3">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="L8" s="3">
-        <v>11.666666666666666</v>
+        <v>11.96</v>
       </c>
       <c r="M8" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -3787,22 +4759,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I9" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J9" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L9" s="3">
-        <v>8.3333333333333339</v>
+        <v>9.9444444444444446</v>
       </c>
       <c r="M9" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -3816,22 +4788,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="M10" s="3">
         <v>7</v>
-      </c>
-      <c r="K10" s="3">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="M10" s="3">
-        <v>5</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -3845,19 +4817,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="L11" s="3">
-        <v>4.5999999999999996</v>
+        <v>11.909090909090908</v>
       </c>
       <c r="M11" s="3">
         <v>5</v>
@@ -3874,19 +4846,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="3">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="L12" s="3">
-        <v>10.777777777777779</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M12" s="3">
         <v>5</v>
@@ -3903,22 +4875,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K13" s="3">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L13" s="3">
-        <v>9.4615384615384617</v>
+        <v>12.125</v>
       </c>
       <c r="M13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -3932,74 +4904,74 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K14" s="3">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="L14" s="3">
-        <v>10.16</v>
+        <v>10.894736842105264</v>
       </c>
       <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J15" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K15" s="3">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="L15" s="3">
-        <v>10.142857142857142</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="M15" s="3">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K16" s="3">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="L16" s="3">
-        <v>10.666666666666666</v>
+        <v>10.16</v>
       </c>
       <c r="M16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -4013,22 +4985,22 @@
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K17" s="3">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="L17" s="3">
-        <v>9.3333333333333339</v>
+        <v>10.4</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -4036,22 +5008,22 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>32</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10.666666666666666</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -4065,33 +5037,39 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L19" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -4105,51 +5083,33 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -4169,37 +5129,33 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -4213,54 +5169,54 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>23</v>
+      </c>
+      <c r="L25" s="3">
+        <v>23</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>61</v>
-      </c>
-      <c r="L26" s="3">
-        <v>15.25</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -4294,53 +5250,53 @@
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
       <c r="L28" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I29" s="3">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>55</v>
-      </c>
-      <c r="L29" s="3">
-        <v>18.333333333333332</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -4363,68 +5319,88 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="J31" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>1885</v>
-      </c>
-      <c r="L31" s="3">
-        <v>9.5202020202020208</v>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M31" s="3">
-        <v>76</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>190</v>
+      </c>
+      <c r="J33" s="3">
+        <v>276</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2784</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10.086956521739131</v>
+      </c>
+      <c r="M33" s="3">
+        <v>114</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H35" s="2"/>
@@ -4497,224 +5473,114 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" t="s">
         <v>57</v>
       </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="K47" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" t="s">
         <v>53</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P47" t="s">
         <v>54</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q47" t="s">
         <v>55</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="3">
-        <v>9</v>
-      </c>
-      <c r="J43" s="3">
-        <v>9</v>
-      </c>
-      <c r="K43" s="3">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
-        <v>286</v>
-      </c>
-      <c r="M43" s="3">
-        <v>71.5</v>
-      </c>
-      <c r="N43" s="3">
-        <v>28</v>
-      </c>
-      <c r="O43" s="3">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>252</v>
-      </c>
-      <c r="M44" s="3">
-        <v>36</v>
-      </c>
-      <c r="N44" s="3">
-        <v>14</v>
-      </c>
-      <c r="O44" s="3">
-        <v>20</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="3">
-        <v>174</v>
-      </c>
-      <c r="M45" s="3">
-        <v>58</v>
-      </c>
-      <c r="N45" s="3">
-        <v>18</v>
-      </c>
-      <c r="O45" s="3">
-        <v>11</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>156</v>
-      </c>
-      <c r="M46" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="N46" s="3">
-        <v>18</v>
-      </c>
-      <c r="O46" s="3">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="3">
-        <v>13</v>
-      </c>
-      <c r="J47" s="3">
-        <v>12</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
-        <v>143</v>
-      </c>
-      <c r="M47" s="3">
-        <v>15.888888888888889</v>
-      </c>
-      <c r="N47" s="3">
-        <v>12</v>
-      </c>
-      <c r="O47" s="3">
-        <v>9</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I48" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="3">
+        <v>13</v>
+      </c>
+      <c r="K48" s="3">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
+        <v>308</v>
+      </c>
+      <c r="M48" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="N48" s="3">
+        <v>30</v>
+      </c>
+      <c r="O48" s="3">
         <v>9</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3">
-        <v>7</v>
-      </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -4722,31 +5588,31 @@
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I49" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J49" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K49" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="M49" s="3">
-        <v>29.666666666666668</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="N49" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O49" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P49" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4754,29 +5620,31 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J50" s="3">
-        <v>5</v>
-      </c>
-      <c r="K50" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
       <c r="L50" s="3">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="M50" s="3">
-        <v>16.8</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="N50" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="O50" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -4784,31 +5652,31 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J51" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="M51" s="3">
-        <v>14.2</v>
+        <v>27.75</v>
       </c>
       <c r="N51" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="O51" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4816,28 +5684,28 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I52" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J52" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K52" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L52" s="3">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="M52" s="3">
-        <v>22.666666666666668</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="N52" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O52" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4848,28 +5716,28 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="3">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3">
         <v>13</v>
       </c>
-      <c r="I53" s="3">
-        <v>5</v>
-      </c>
-      <c r="J53" s="3">
-        <v>5</v>
-      </c>
       <c r="K53" s="3">
         <v>1</v>
       </c>
       <c r="L53" s="3">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="M53" s="3">
-        <v>16.25</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="N53" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O53" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
@@ -4880,31 +5748,31 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I54" s="3">
         <v>8</v>
       </c>
       <c r="J54" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L54" s="3">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="M54" s="3">
-        <v>21.333333333333332</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N54" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O54" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -4912,28 +5780,28 @@
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I55" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J55" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M55" s="3">
-        <v>24.5</v>
+        <v>18.25</v>
       </c>
       <c r="N55" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O55" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
@@ -4944,28 +5812,28 @@
     </row>
     <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I56" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J56" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M56" s="3">
-        <v>11.666666666666666</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="N56" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O56" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P56" s="3">
         <v>0</v>
@@ -4976,26 +5844,28 @@
     </row>
     <row r="57" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I57" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J57" s="3">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
       <c r="L57" s="3">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>7.75</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -5006,29 +5876,31 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J58" s="3">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
       <c r="L58" s="3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M58" s="3">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="N58" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O58" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -5036,28 +5908,28 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9</v>
+      </c>
+      <c r="K59" s="3">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
       <c r="L59" s="3">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="M59" s="3">
-        <v>7.333333333333333</v>
+        <v>17</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -5068,26 +5940,28 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I60" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J60" s="3">
-        <v>1</v>
-      </c>
-      <c r="K60" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
       <c r="L60" s="3">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M60" s="3">
-        <v>18</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="N60" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -5098,28 +5972,28 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I61" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M61" s="3">
-        <v>17</v>
+        <v>11.4</v>
       </c>
       <c r="N61" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -5130,50 +6004,60 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="3">
-        <v>1</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
       <c r="L62" s="3">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M62" s="3">
-        <v>13</v>
+        <v>24.5</v>
       </c>
       <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I63" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J63" s="3">
-        <v>1</v>
-      </c>
-      <c r="K63" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
       <c r="L63" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M63" s="3">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="N63" s="3">
         <v>0</v>
       </c>
       <c r="O63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -5184,28 +6068,26 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I64" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64" s="3">
-        <v>4</v>
-      </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M64" s="3">
-        <v>3.3333333333333335</v>
+        <v>14.5</v>
       </c>
       <c r="N64" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -5216,25 +6098,25 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I65" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M65" s="3">
-        <v>4.5</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="N65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="3">
         <v>1</v>
@@ -5251,25 +6133,25 @@
         <v>66</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J66" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M66" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -5280,7 +6162,7 @@
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -5290,13 +6172,13 @@
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M67" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
@@ -5310,52 +6192,52 @@
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I68" s="3">
         <v>2</v>
       </c>
       <c r="J68" s="3">
-        <v>2</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K68" s="3"/>
       <c r="L68" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M68" s="3">
-        <v>5</v>
-      </c>
-      <c r="N68" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I69" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J69" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>4</v>
-      </c>
-      <c r="M69" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="M69" s="3">
+        <v>2.6</v>
       </c>
       <c r="N69" s="3">
         <v>0</v>
       </c>
       <c r="O69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="3">
         <v>0</v>
@@ -5366,33 +6248,239 @@
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I70" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="J70" s="3">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="K70" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L70" s="3">
-        <v>1821</v>
+        <v>11</v>
       </c>
       <c r="M70" s="3">
-        <v>20.460674157303369</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N70" s="3">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
         <v>9</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="M71" s="3">
+        <v>9</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3">
+        <v>6</v>
+      </c>
+      <c r="M72" s="3">
+        <v>6</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3">
+        <v>5</v>
+      </c>
+      <c r="M73" s="3">
+        <v>5</v>
+      </c>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3">
+        <v>4</v>
+      </c>
+      <c r="M74" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2</v>
+      </c>
+      <c r="M75" s="3">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="3">
+        <v>190</v>
+      </c>
+      <c r="J77" s="3">
+        <v>173</v>
+      </c>
+      <c r="K77" s="3">
+        <v>34</v>
+      </c>
+      <c r="L77" s="3">
+        <v>2502</v>
+      </c>
+      <c r="M77" s="3">
+        <v>18</v>
+      </c>
+      <c r="N77" s="3">
+        <v>209</v>
+      </c>
+      <c r="O77" s="3">
+        <v>130</v>
+      </c>
+      <c r="P77" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q77" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5403,10 +6491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,37 +6517,37 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
@@ -5474,10 +6562,10 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>47</v>
-      </c>
-      <c r="S1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5488,7 +6576,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6112,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6168,7 +7256,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6221,7 +7309,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6268,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6318,7 +7406,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6368,7 +7456,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -6421,7 +7509,7 @@
         <v>42130</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -6471,7 +7559,7 @@
         <v>42130</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -6524,10 +7612,10 @@
         <v>42130</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -6574,10 +7662,10 @@
         <v>42130</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -6624,7 +7712,7 @@
         <v>42130</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -6674,10 +7762,10 @@
         <v>42130</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -6730,10 +7818,10 @@
         <v>42130</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -6783,7 +7871,7 @@
         <v>42130</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -6833,7 +7921,7 @@
         <v>42130</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -6889,7 +7977,7 @@
         <v>42130</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -6942,10 +8030,10 @@
         <v>42130</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7001,7 +8089,7 @@
         <v>9</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -7021,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -7035,13 +8123,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -7106,7 +8194,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R37" t="s">
         <v>17</v>
@@ -7120,7 +8208,7 @@
         <v>42130</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -7137,10 +8225,10 @@
         <v>42130</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R39" t="s">
         <v>17</v>
@@ -7154,7 +8242,7 @@
         <v>42130</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -7171,10 +8259,10 @@
         <v>42344</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -7227,7 +8315,7 @@
         <v>42344</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -7283,10 +8371,10 @@
         <v>42344</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -7339,7 +8427,7 @@
         <v>42344</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -7389,10 +8477,10 @@
         <v>42344</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -7439,7 +8527,7 @@
         <v>42344</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -7495,10 +8583,10 @@
         <v>42344</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -7551,7 +8639,7 @@
         <v>42344</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -7601,7 +8689,7 @@
         <v>42344</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -7651,7 +8739,7 @@
         <v>42344</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -7701,7 +8789,7 @@
         <v>42344</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -7751,10 +8839,10 @@
         <v>42344</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -7804,13 +8892,13 @@
         <v>42344</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -7821,10 +8909,10 @@
         <v>42344</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R54" t="s">
         <v>17</v>
@@ -7835,13 +8923,13 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7885,13 +8973,13 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -7932,13 +9020,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -7976,7 +9064,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -8026,7 +9114,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -8073,13 +9161,13 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -8117,7 +9205,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -8164,13 +9252,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -8214,13 +9302,13 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -8261,13 +9349,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -8296,13 +9384,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R65" t="s">
         <v>3</v>
@@ -8313,7 +9401,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -8348,13 +9436,13 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67" t="s">
         <v>3</v>
@@ -8371,7 +9459,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -8421,7 +9509,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -8465,7 +9553,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -8503,13 +9591,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -8547,13 +9635,13 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -8591,13 +9679,13 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -8641,7 +9729,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -8691,13 +9779,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -8741,7 +9829,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -8791,13 +9879,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -8835,7 +9923,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -8885,13 +9973,13 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -8935,13 +10023,13 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -8985,13 +10073,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -9029,7 +10117,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -9079,13 +10167,13 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -9129,7 +10217,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -9174,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -9182,7 +10270,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -9199,13 +10287,13 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R86" t="s">
         <v>17</v>
@@ -9216,13 +10304,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R87" t="s">
         <v>17</v>
@@ -9324,7 +10412,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -9347,7 +10435,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -9394,7 +10482,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -9508,7 +10596,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -9596,7 +10684,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -9634,7 +10722,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -9660,7 +10748,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -9707,7 +10795,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -9757,7 +10845,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -9780,7 +10868,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R102" t="s">
         <v>17</v>
@@ -9797,7 +10885,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="R103" t="s">
         <v>17</v>
@@ -9817,9 +10905,1418 @@
         <v>13</v>
       </c>
       <c r="R104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>21</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>21</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>7</v>
+      </c>
+      <c r="M106">
+        <v>81</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="R106" t="s">
+        <v>17</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>14</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>18</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>15</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>22</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="R108" t="s">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>12</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>7</v>
+      </c>
+      <c r="M109">
+        <v>66</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>27</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>14</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>66</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>85</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="R112" t="s">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>32</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>68</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="R113" t="s">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>9</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>29</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="R114" t="s">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>16</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>34</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="R115" t="s">
+        <v>3</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="R116" t="s">
+        <v>17</v>
+      </c>
+      <c r="S116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="R117" t="s">
+        <v>17</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>14</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>24</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>76</v>
+      </c>
+      <c r="H121">
+        <v>11</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>32</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="R121" t="s">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>77</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>65</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="R122" t="s">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>20</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="R123" t="s">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>13</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>54</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="R124" t="s">
+        <v>3</v>
+      </c>
+      <c r="S124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="R125" t="s">
+        <v>17</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>17</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>91</v>
+      </c>
+      <c r="H127">
+        <v>10</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>25</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>6</v>
+      </c>
+      <c r="M128">
+        <v>71</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="R128" t="s">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>35</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>6</v>
+      </c>
+      <c r="M130">
+        <v>68</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="R130" t="s">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>56</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="R131" t="s">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>37</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>22</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="R132" t="s">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>41</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="R133" t="s">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>26</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>48</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="R135" t="s">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>8</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>71</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="R138" t="s">
+        <v>17</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="R139" t="s">
+        <v>17</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="R140" t="s">
+        <v>17</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>71</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>69</v>
+      </c>
+      <c r="R141" t="s">
+        <v>17</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="R142" t="s">
+        <v>17</v>
+      </c>
+      <c r="S142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="R143" t="s">
+        <v>17</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>71</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="R144" t="s">
+        <v>17</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="R145" t="s">
+        <v>17</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="R146" t="s">
+        <v>17</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="R147" t="s">
+        <v>17</v>
+      </c>
+      <c r="S147">
         <v>1</v>
       </c>
     </row>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -244,13 +244,16 @@
     <t>14/8/2015</t>
   </si>
   <si>
-    <t>21/8/2015</t>
-  </si>
-  <si>
     <t>Ijaz</t>
   </si>
   <si>
     <t>Umar</t>
+  </si>
+  <si>
+    <t>18/8/2015</t>
+  </si>
+  <si>
+    <t>25/8/2015</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -325,13 +340,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42243.661245833333" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="146">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42249.68880520833" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="9">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="11">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -340,7 +355,9 @@
         <s v="31/7/2015"/>
         <d v="2015-07-08T00:00:00"/>
         <s v="14/8/2015"/>
-        <s v="21/8/2015"/>
+        <s v="18/8/2015"/>
+        <s v="25/8/2015"/>
+        <s v="21/8/2015" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
@@ -391,19 +408,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
     </cacheField>
     <cacheField name="RunsScored" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="110"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="175"/>
     </cacheField>
     <cacheField name="Sixes" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
     </cacheField>
     <cacheField name="Fours" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
     </cacheField>
     <cacheField name="Fifties" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Hundreds" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Overs" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
@@ -442,7 +459,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="146">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="171">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -3045,7 +3062,7 @@
     <m/>
     <m/>
     <s v="Catches"/>
-    <n v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="8"/>
@@ -3508,24 +3525,551 @@
     <m/>
     <s v="Catches"/>
     <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="65"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="38"/>
+    <n v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="37"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="8"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="4"/>
+    <n v="54"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="60"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="36"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="22"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="175"/>
+    <n v="15"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="57"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="56"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="41"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="41"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="45"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="36"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="19"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="24"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="10">
+      <items count="12">
         <item x="2"/>
         <item x="4"/>
         <item x="6"/>
         <item x="1"/>
         <item x="5"/>
         <item x="0"/>
+        <item x="9"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
         <item x="8"/>
-        <item x="3"/>
         <item x="7"/>
         <item t="default"/>
       </items>
@@ -3590,7 +4134,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -3607,10 +4151,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -3644,7 +4191,269 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H47:Q77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="31">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="30"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="29"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Not Outs" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of AvgR" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sixes" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fours" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fifties" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hundreds" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:P33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -3727,16 +4536,22 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i>
       <x v="9"/>
@@ -3748,16 +4563,10 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="19"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="20"/>
     </i>
     <i>
       <x v="11"/>
@@ -3766,28 +4575,25 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="29"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i>
       <x v="6"/>
@@ -3799,7 +4605,10 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="14"/>
@@ -3848,7 +4657,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -3872,273 +4681,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:Q77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="31">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item m="1" x="30"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="29"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="30">
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <dataFields count="9">
-    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Not Outs" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of AvgR" fld="21" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sixes" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fours" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fifties" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Hundreds" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S147" totalsRowShown="0">
-  <autoFilter ref="A1:S147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S172" totalsRowShown="0">
+  <autoFilter ref="A1:S172"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -4425,7 +4972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -4506,13 +5053,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4528,24 +5075,35 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>291</v>
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4557,8 +5115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,15 +5126,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4613,22 +5171,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2502</v>
+        <v>3020</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K4" s="3">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="L4" s="3">
-        <v>10.050000000000001</v>
+        <v>10.431818181818182</v>
       </c>
       <c r="M4" s="3">
         <v>19</v>
@@ -4675,19 +5233,19 @@
         <v>13</v>
       </c>
       <c r="I6" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="L6" s="3">
-        <v>10.25</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="M6" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -4701,22 +5259,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="L7" s="3">
-        <v>10.571428571428571</v>
+        <v>12.551724137931034</v>
       </c>
       <c r="M7" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -4730,22 +5288,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3">
         <v>9</v>
-      </c>
-      <c r="I8" s="3">
-        <v>11</v>
       </c>
       <c r="J8" s="3">
         <v>25</v>
       </c>
       <c r="K8" s="3">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="L8" s="3">
-        <v>11.96</v>
+        <v>10.32</v>
       </c>
       <c r="M8" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -4791,19 +5349,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="L10" s="3">
-        <v>4.7272727272727275</v>
+        <v>7.2</v>
       </c>
       <c r="M10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -4817,48 +5375,42 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="L11" s="3">
-        <v>11.909090909090908</v>
+        <v>11.272727272727273</v>
       </c>
       <c r="M11" s="3">
-        <v>5</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K12" s="3">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="L12" s="3">
-        <v>4.5999999999999996</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="M12" s="3">
         <v>5</v>
@@ -4875,22 +5427,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="L13" s="3">
-        <v>12.125</v>
+        <v>13.416666666666666</v>
       </c>
       <c r="M13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -4904,42 +5456,48 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K14" s="3">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3">
-        <v>10.894736842105264</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="M14" s="3">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="L15" s="3">
-        <v>11.166666666666666</v>
+        <v>12.181818181818182</v>
       </c>
       <c r="M15" s="3">
         <v>4</v>
@@ -4956,55 +5514,55 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J16" s="3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K16" s="3">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="L16" s="3">
-        <v>10.16</v>
+        <v>11.461538461538462</v>
       </c>
       <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K17" s="3">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="L17" s="3">
-        <v>10.4</v>
+        <v>10.16</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
@@ -5040,16 +5598,16 @@
         <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="L19" s="3">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
@@ -5066,22 +5624,22 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>19</v>
+      </c>
+      <c r="L20" s="3">
+        <v>19</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -5089,27 +5647,39 @@
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
       <c r="L21" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -5123,39 +5693,39 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
       <c r="L23" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -5184,7 +5754,7 @@
         <v>66</v>
       </c>
       <c r="I25" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
@@ -5204,129 +5774,117 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
       <c r="L27" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I28" s="3">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -5340,9 +5898,15 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
@@ -5378,19 +5942,19 @@
         <v>29</v>
       </c>
       <c r="I33" s="3">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J33" s="3">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="K33" s="3">
-        <v>2784</v>
+        <v>3344</v>
       </c>
       <c r="L33" s="3">
-        <v>10.086956521739131</v>
+        <v>10.582278481012658</v>
       </c>
       <c r="M33" s="3">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -5559,31 +6123,31 @@
         <v>69</v>
       </c>
       <c r="I48" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J48" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K48" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L48" s="3">
-        <v>308</v>
+        <v>483</v>
       </c>
       <c r="M48" s="3">
-        <v>38.5</v>
+        <v>60.375</v>
       </c>
       <c r="N48" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O48" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="P48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
@@ -5591,25 +6155,25 @@
         <v>9</v>
       </c>
       <c r="I49" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J49" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M49" s="3">
-        <v>26.454545454545453</v>
+        <v>25.25</v>
       </c>
       <c r="N49" s="3">
         <v>15</v>
       </c>
       <c r="O49" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P49" s="3">
         <v>3</v>
@@ -5620,31 +6184,31 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I50" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J50" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="M50" s="3">
-        <v>43.666666666666664</v>
+        <v>32.888888888888886</v>
       </c>
       <c r="N50" s="3">
         <v>30</v>
       </c>
       <c r="O50" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -5652,28 +6216,28 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I51" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="3">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="M51" s="3">
-        <v>27.75</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="N51" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O51" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P51" s="3">
         <v>2</v>
@@ -5684,31 +6248,31 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J52" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K52" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52" s="3">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="M52" s="3">
-        <v>16.636363636363637</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="N52" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O52" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -5716,31 +6280,31 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I53" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J53" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K53" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="3">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="M53" s="3">
-        <v>14.583333333333334</v>
+        <v>34.5</v>
       </c>
       <c r="N53" s="3">
         <v>20</v>
       </c>
       <c r="O53" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P53" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -5748,31 +6312,31 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I54" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J54" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K54" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L54" s="3">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M54" s="3">
-        <v>33.200000000000003</v>
+        <v>15.5</v>
       </c>
       <c r="N54" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O54" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -5780,28 +6344,28 @@
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I55" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J55" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="M55" s="3">
-        <v>18.25</v>
+        <v>13.923076923076923</v>
       </c>
       <c r="N55" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O55" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
@@ -5815,19 +6379,19 @@
         <v>11</v>
       </c>
       <c r="I56" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J56" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M56" s="3">
-        <v>16.142857142857142</v>
+        <v>14.375</v>
       </c>
       <c r="N56" s="3">
         <v>9</v>
@@ -5844,28 +6408,28 @@
     </row>
     <row r="57" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I57" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J57" s="3">
         <v>9</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M57" s="3">
-        <v>11.111111111111111</v>
+        <v>13.75</v>
       </c>
       <c r="N57" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O57" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -5876,31 +6440,31 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="3">
         <v>14</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9</v>
       </c>
       <c r="J58" s="3">
         <v>9</v>
       </c>
       <c r="K58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>11</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N58" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O58" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -5908,31 +6472,31 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I59" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J59" s="3">
         <v>9</v>
       </c>
       <c r="K59" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M59" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N59" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>5</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -5940,25 +6504,25 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I60" s="3">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3">
         <v>9</v>
       </c>
-      <c r="J60" s="3">
-        <v>8</v>
-      </c>
       <c r="K60" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L60" s="3">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="M60" s="3">
-        <v>10.285714285714286</v>
+        <v>17</v>
       </c>
       <c r="N60" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O60" s="3">
         <v>5</v>
@@ -5975,25 +6539,25 @@
         <v>59</v>
       </c>
       <c r="I61" s="3">
+        <v>7</v>
+      </c>
+      <c r="J61" s="3">
         <v>6</v>
       </c>
-      <c r="J61" s="3">
-        <v>5</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="M61" s="3">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="N61" s="3">
         <v>7</v>
       </c>
       <c r="O61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -6007,22 +6571,22 @@
         <v>49</v>
       </c>
       <c r="I62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M62" s="3">
-        <v>24.5</v>
+        <v>28</v>
       </c>
       <c r="N62" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O62" s="3">
         <v>2</v>
@@ -6039,25 +6603,25 @@
         <v>22</v>
       </c>
       <c r="I63" s="3">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3">
         <v>6</v>
       </c>
-      <c r="J63" s="3">
-        <v>5</v>
-      </c>
       <c r="K63" s="3">
         <v>1</v>
       </c>
       <c r="L63" s="3">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M63" s="3">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="N63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -6068,26 +6632,28 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I64" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J64" s="3">
-        <v>2</v>
-      </c>
-      <c r="K64" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
       <c r="L64" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M64" s="3">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="N64" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -6098,28 +6664,28 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M65" s="3">
-        <v>8.6666666666666661</v>
+        <v>15.5</v>
       </c>
       <c r="N65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="3">
         <v>0</v>
@@ -6130,25 +6696,23 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I66" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J66" s="3">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K66" s="3"/>
       <c r="L66" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M66" s="3">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="N66" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" s="3">
         <v>2</v>
@@ -6162,26 +6726,28 @@
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I67" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" s="3">
-        <v>1</v>
-      </c>
-      <c r="K67" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
       <c r="L67" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M67" s="3">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="N67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="3">
         <v>0</v>
@@ -6192,72 +6758,72 @@
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I68" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J68" s="3">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
       <c r="L68" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M68" s="3">
-        <v>13</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I69" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J69" s="3">
-        <v>6</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K69" s="3"/>
       <c r="L69" s="3">
         <v>13</v>
       </c>
       <c r="M69" s="3">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="N69" s="3">
-        <v>0</v>
-      </c>
-      <c r="O69" s="3">
-        <v>1</v>
-      </c>
-      <c r="P69" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I70" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J70" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K70" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L70" s="3">
         <v>11</v>
@@ -6312,57 +6878,57 @@
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I72" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" s="3">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2</v>
+      </c>
       <c r="L72" s="3">
         <v>6</v>
       </c>
       <c r="M72" s="3">
         <v>6</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="3">
-        <v>2</v>
-      </c>
-      <c r="K73" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K73" s="3"/>
       <c r="L73" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M73" s="3">
-        <v>5</v>
-      </c>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
@@ -6398,7 +6964,7 @@
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I75" s="3">
         <v>2</v>
@@ -6426,7 +6992,7 @@
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I76" s="3">
         <v>2</v>
@@ -6457,31 +7023,31 @@
         <v>29</v>
       </c>
       <c r="I77" s="3">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J77" s="3">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K77" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L77" s="3">
-        <v>2502</v>
+        <v>3020</v>
       </c>
       <c r="M77" s="3">
-        <v>18</v>
+        <v>19.738562091503269</v>
       </c>
       <c r="N77" s="3">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="O77" s="3">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="P77" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6491,10 +7057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S147"/>
+  <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="R125" sqref="R125"/>
+    <sheetView topLeftCell="C150" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11415,7 +11981,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -11444,7 +12010,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -11473,7 +12039,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -11520,7 +12086,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -11567,7 +12133,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -11611,7 +12177,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -11655,7 +12221,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -11690,7 +12256,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -11725,7 +12291,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -11757,7 +12323,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -11801,7 +12367,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -11839,7 +12405,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -11883,7 +12449,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -11927,7 +12493,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -11971,7 +12537,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -12015,13 +12581,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
         <v>71</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>72</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -12044,7 +12610,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -12094,7 +12660,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -12123,13 +12689,13 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -12152,7 +12718,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -12169,7 +12735,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -12186,7 +12752,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -12203,7 +12769,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -12220,7 +12786,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -12237,7 +12803,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -12254,7 +12820,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -12271,7 +12837,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -12288,7 +12854,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -12305,7 +12871,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -12318,6 +12884,803 @@
       </c>
       <c r="S147">
         <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>12</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>65</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="R148" t="s">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>23</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>38</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>37</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>16</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>85</v>
+      </c>
+      <c r="H152">
+        <v>11</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>24</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>74</v>
+      </c>
+      <c r="H153">
+        <v>8</v>
+      </c>
+      <c r="I153">
+        <v>5</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>54</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="R153" t="s">
+        <v>3</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>6</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>60</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="R154" t="s">
+        <v>3</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>36</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="R155" t="s">
+        <v>3</v>
+      </c>
+      <c r="S155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>13</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="R157" t="s">
+        <v>17</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>175</v>
+      </c>
+      <c r="H159">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>13</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>57</v>
+      </c>
+      <c r="R159" t="s">
+        <v>3</v>
+      </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>56</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="R160" t="s">
+        <v>3</v>
+      </c>
+      <c r="S160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>41</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>41</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="R161" t="s">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>59</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>21</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>45</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="R162" t="s">
+        <v>3</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>36</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="R163" t="s">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>30</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="R164" t="s">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>74</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>19</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="R165" t="s">
+        <v>3</v>
+      </c>
+      <c r="S165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>74</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="R166" t="s">
+        <v>48</v>
+      </c>
+      <c r="S166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="R167" t="s">
+        <v>48</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="R168" t="s">
+        <v>17</v>
+      </c>
+      <c r="S168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>69</v>
+      </c>
+      <c r="R169" t="s">
+        <v>17</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="R170" t="s">
+        <v>17</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>60</v>
+      </c>
+      <c r="R171" t="s">
+        <v>17</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="R172" t="s">
+        <v>17</v>
+      </c>
+      <c r="S172">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -307,16 +307,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -340,13 +331,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42249.68880520833" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42253.711241203702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="184">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-05-06T00:00:00" maxDate="2015-12-07T00:00:00" count="11">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-04-09T00:00:00" maxDate="2015-12-07T00:00:00" count="12">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -357,6 +348,7 @@
         <s v="14/8/2015"/>
         <s v="18/8/2015"/>
         <s v="25/8/2015"/>
+        <d v="2015-04-09T00:00:00"/>
         <s v="21/8/2015" u="1"/>
       </sharedItems>
     </cacheField>
@@ -459,7 +451,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="171">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="184">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -4051,23 +4043,297 @@
     <s v="Catches"/>
     <n v="3"/>
   </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="76"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="9"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="58"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="11"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="48"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="54"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
+      <items count="13">
         <item x="2"/>
         <item x="4"/>
         <item x="6"/>
         <item x="1"/>
+        <item x="10"/>
         <item x="5"/>
         <item x="0"/>
         <item x="9"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item x="3"/>
         <item x="8"/>
         <item x="7"/>
@@ -4134,7 +4400,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -4151,13 +4417,16 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -4191,52 +4460,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H47:Q77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -4316,10 +4540,10 @@
       <x v="17"/>
     </i>
     <i>
-      <x v="13"/>
+      <x/>
     </i>
     <i>
-      <x/>
+      <x v="13"/>
     </i>
     <i>
       <x v="2"/>
@@ -4328,10 +4552,10 @@
       <x v="21"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="12"/>
@@ -4452,8 +4676,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:P33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -4533,13 +4757,13 @@
       <x/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="17"/>
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="18"/>
@@ -4551,19 +4775,19 @@
       <x v="21"/>
     </i>
     <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="19"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="20"/>
     </i>
     <i>
       <x v="3"/>
@@ -4572,43 +4796,43 @@
       <x v="11"/>
     </i>
     <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="29"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="14"/>
@@ -4657,7 +4881,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -4681,11 +4905,56 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S172" totalsRowShown="0">
-  <autoFilter ref="A1:S172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S186" totalsRowShown="0">
+  <autoFilter ref="A1:S186"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -4972,7 +5241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -5030,22 +5299,22 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
+      <c r="A6" s="6">
+        <v>42103</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>72</v>
@@ -5053,57 +5322,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>303</v>
+      <c r="B13" s="3">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5115,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,15 +5406,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5171,22 +5451,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3020</v>
+        <v>3255</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4" s="3">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="L4" s="3">
-        <v>10.431818181818182</v>
+        <v>11.145833333333334</v>
       </c>
       <c r="M4" s="3">
         <v>19</v>
@@ -5206,19 +5486,19 @@
         <v>21</v>
       </c>
       <c r="I5" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="L5" s="3">
-        <v>8.1785714285714288</v>
+        <v>8.3939393939393945</v>
       </c>
       <c r="M5" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -5230,22 +5510,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="L6" s="3">
-        <v>10.714285714285714</v>
+        <v>12.787878787878787</v>
       </c>
       <c r="M6" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -5259,22 +5539,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="3">
         <v>29</v>
       </c>
       <c r="K7" s="3">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="L7" s="3">
-        <v>12.551724137931034</v>
+        <v>9.5862068965517242</v>
       </c>
       <c r="M7" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -5288,22 +5568,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>10.32</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="M8" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -5378,7 +5658,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="3">
         <v>22</v>
@@ -5398,22 +5678,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
         <v>19</v>
       </c>
-      <c r="I12" s="3">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3">
-        <v>22</v>
-      </c>
       <c r="K12" s="3">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="L12" s="3">
-        <v>11.863636363636363</v>
+        <v>7.1578947368421053</v>
       </c>
       <c r="M12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -5427,19 +5707,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="L13" s="3">
-        <v>13.416666666666666</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="M13" s="3">
         <v>5</v>
@@ -5456,19 +5736,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="L14" s="3">
-        <v>5.8571428571428568</v>
+        <v>13.416666666666666</v>
       </c>
       <c r="M14" s="3">
         <v>5</v>
@@ -5485,55 +5765,55 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K15" s="3">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L15" s="3">
-        <v>12.181818181818182</v>
+        <v>11.461538461538462</v>
       </c>
       <c r="M15" s="3">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J16" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="3">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L16" s="3">
-        <v>11.461538461538462</v>
+        <v>12.181818181818182</v>
       </c>
       <c r="M16" s="3">
         <v>4</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
@@ -5595,84 +5875,72 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I19" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="L19" s="3">
-        <v>16.8</v>
+        <v>19</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K20" s="3">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="L20" s="3">
-        <v>19</v>
+        <v>16.8</v>
       </c>
       <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
@@ -5699,10 +5967,10 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -5716,16 +5984,22 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -5774,27 +6048,37 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
       <c r="L26" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I27" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -5837,10 +6121,10 @@
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I29" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -5860,53 +6144,49 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I30" s="3">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
@@ -5942,19 +6222,19 @@
         <v>29</v>
       </c>
       <c r="I33" s="3">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J33" s="3">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="K33" s="3">
-        <v>3344</v>
+        <v>3600</v>
       </c>
       <c r="L33" s="3">
-        <v>10.582278481012658</v>
+        <v>10.650887573964496</v>
       </c>
       <c r="M33" s="3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -6123,19 +6403,19 @@
         <v>69</v>
       </c>
       <c r="I48" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J48" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K48" s="3">
         <v>6</v>
       </c>
       <c r="L48" s="3">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M48" s="3">
-        <v>60.375</v>
+        <v>48.7</v>
       </c>
       <c r="N48" s="3">
         <v>45</v>
@@ -6155,25 +6435,25 @@
         <v>9</v>
       </c>
       <c r="I49" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J49" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="3">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="M49" s="3">
-        <v>25.25</v>
+        <v>29.076923076923077</v>
       </c>
       <c r="N49" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O49" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P49" s="3">
         <v>3</v>
@@ -6184,31 +6464,31 @@
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I50" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="3">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="M50" s="3">
-        <v>32.888888888888886</v>
+        <v>49.571428571428569</v>
       </c>
       <c r="N50" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O50" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -6216,31 +6496,31 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I51" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="M51" s="3">
-        <v>43.666666666666664</v>
+        <v>32.888888888888886</v>
       </c>
       <c r="N51" s="3">
         <v>30</v>
       </c>
       <c r="O51" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -6251,25 +6531,25 @@
         <v>12</v>
       </c>
       <c r="I52" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J52" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K52" s="3">
         <v>1</v>
       </c>
       <c r="L52" s="3">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M52" s="3">
-        <v>25.666666666666668</v>
+        <v>22.545454545454547</v>
       </c>
       <c r="N52" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O52" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P52" s="3">
         <v>1</v>
@@ -6283,25 +6563,25 @@
         <v>60</v>
       </c>
       <c r="I53" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J53" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K53" s="3">
         <v>3</v>
       </c>
       <c r="L53" s="3">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M53" s="3">
-        <v>34.5</v>
+        <v>26.875</v>
       </c>
       <c r="N53" s="3">
         <v>20</v>
       </c>
       <c r="O53" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P53" s="3">
         <v>2</v>
@@ -6312,28 +6592,28 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I54" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J54" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L54" s="3">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M54" s="3">
-        <v>15.5</v>
+        <v>13.266666666666667</v>
       </c>
       <c r="N54" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O54" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -6344,28 +6624,28 @@
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I55" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J55" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" s="3">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M55" s="3">
-        <v>13.923076923076923</v>
+        <v>15.5</v>
       </c>
       <c r="N55" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O55" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
@@ -6379,22 +6659,22 @@
         <v>11</v>
       </c>
       <c r="I56" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J56" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="3">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M56" s="3">
-        <v>14.375</v>
+        <v>15.375</v>
       </c>
       <c r="N56" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O56" s="3">
         <v>7</v>
@@ -6411,25 +6691,25 @@
         <v>20</v>
       </c>
       <c r="I57" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J57" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
       </c>
       <c r="L57" s="3">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M57" s="3">
-        <v>13.75</v>
+        <v>12.2</v>
       </c>
       <c r="N57" s="3">
         <v>6</v>
       </c>
       <c r="O57" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -6539,7 +6819,7 @@
         <v>59</v>
       </c>
       <c r="I61" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J61" s="3">
         <v>6</v>
@@ -6571,22 +6851,22 @@
         <v>49</v>
       </c>
       <c r="I62" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J62" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L62" s="3">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M62" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N62" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>2</v>
@@ -7023,25 +7303,25 @@
         <v>29</v>
       </c>
       <c r="I77" s="3">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J77" s="3">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K77" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L77" s="3">
-        <v>3020</v>
+        <v>3255</v>
       </c>
       <c r="M77" s="3">
-        <v>19.738562091503269</v>
+        <v>19.727272727272727</v>
       </c>
       <c r="N77" s="3">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O77" s="3">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="P77" s="3">
         <v>16</v>
@@ -7057,10 +7337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView topLeftCell="C150" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13683,6 +13963,439 @@
         <v>3</v>
       </c>
     </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>18</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>12</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" t="s">
+        <v>69</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>76</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="R175" t="s">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>8</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>75</v>
+      </c>
+      <c r="H177">
+        <v>9</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>58</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="R177" t="s">
+        <v>3</v>
+      </c>
+      <c r="S177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>17</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>85</v>
+      </c>
+      <c r="H179">
+        <v>11</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>5</v>
+      </c>
+      <c r="M179">
+        <v>48</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="R179" t="s">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B180" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>8</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>20</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="R180" t="s">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B181" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" t="s">
+        <v>59</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" t="s">
+        <v>49</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>8</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>54</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="R183" t="s">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="R184" t="s">
+        <v>17</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="R185" t="s">
+        <v>17</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B186" t="s">
+        <v>38</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Inn</t>
   </si>
   <si>
-    <t>Sum of AvgR</t>
-  </si>
-  <si>
     <t>Match</t>
   </si>
   <si>
@@ -187,22 +184,7 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Sum of Sixes</t>
-  </si>
-  <si>
-    <t>Sum of Fours</t>
-  </si>
-  <si>
-    <t>Sum of Fifties</t>
-  </si>
-  <si>
-    <t>Sum of Hundreds</t>
-  </si>
-  <si>
     <t>Sum of Match</t>
-  </si>
-  <si>
-    <t>Sum of Inn</t>
   </si>
   <si>
     <t>19/7/2015</t>
@@ -218,9 +200,6 @@
   </si>
   <si>
     <t>Not Outs</t>
-  </si>
-  <si>
-    <t>Sum of Not Outs</t>
   </si>
   <si>
     <t>31/7/2015</t>
@@ -254,6 +233,39 @@
   </si>
   <si>
     <t>25/8/2015</t>
+  </si>
+  <si>
+    <t>18/9/2015</t>
+  </si>
+  <si>
+    <t>Tariq</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Inns</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -331,13 +343,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42253.711241203702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="184">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42268.475906828702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="226">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-04-09T00:00:00" maxDate="2015-12-07T00:00:00" count="12">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-04-09T00:00:00" maxDate="2015-12-07T00:00:00" count="14">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -349,6 +361,8 @@
         <s v="18/8/2015"/>
         <s v="25/8/2015"/>
         <d v="2015-04-09T00:00:00"/>
+        <d v="2015-11-09T00:00:00"/>
+        <s v="18/9/2015"/>
         <s v="21/8/2015" u="1"/>
       </sharedItems>
     </cacheField>
@@ -356,7 +370,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems count="32">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -386,6 +400,7 @@
         <s v="Shawaiz"/>
         <s v="Ijaz"/>
         <s v="Umar"/>
+        <s v="Tariq"/>
         <s v="Kalem" u="1"/>
         <s v="Omer" u="1"/>
       </sharedItems>
@@ -451,7 +466,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="184">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="226">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -4137,8 +4152,8 @@
     <n v="75"/>
     <n v="9"/>
     <n v="4"/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="0"/>
     <n v="4"/>
     <n v="58"/>
     <n v="2"/>
@@ -4179,8 +4194,8 @@
     <n v="85"/>
     <n v="11"/>
     <n v="0"/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="0"/>
     <n v="5"/>
     <n v="48"/>
     <n v="1"/>
@@ -4315,17 +4330,900 @@
     <m/>
     <s v="Catches"/>
     <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="International"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="25"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="38"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="66"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="5"/>
+    <n v="67"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="39"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="37"/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="56"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="43"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="5"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="57"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="66"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="29"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="46"/>
+    <n v="2"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="33"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="32"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="66"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="4"/>
+    <n v="38"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="58"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="65"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="106"/>
+    <n v="10"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="7"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="47"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="40"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="49"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="29"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="International"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
+      <items count="15">
         <item x="2"/>
+        <item x="11"/>
         <item x="4"/>
         <item x="6"/>
         <item x="1"/>
@@ -4333,8 +5231,9 @@
         <item x="5"/>
         <item x="0"/>
         <item x="9"/>
-        <item m="1" x="11"/>
+        <item m="1" x="13"/>
         <item x="3"/>
+        <item x="12"/>
         <item x="8"/>
         <item x="7"/>
         <item t="default"/>
@@ -4342,7 +5241,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="32">
+      <items count="33">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -4360,7 +5259,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="30"/>
+        <item m="1" x="31"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -4373,7 +5272,8 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4400,12 +5300,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
@@ -4420,13 +5320,16 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -4460,13 +5363,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:Q77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="31">
+      <items count="32">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -4482,7 +5385,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="30"/>
+        <item m="1" x="31"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -4497,224 +5400,8 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="29"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="30">
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <dataFields count="9">
-    <dataField name="Sum of Match" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Inn" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Not Outs" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of AvgR" fld="21" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sixes" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fours" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Fifties" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Hundreds" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="31">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
         <item m="1" x="30"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="29"/>
+        <item x="29"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -4749,33 +5436,36 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="31">
     <i>
       <x v="27"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="17"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="21"/>
-    </i>
-    <i>
-      <x v="16"/>
     </i>
     <i>
       <x v="19"/>
@@ -4787,37 +5477,34 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="3"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="25"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
@@ -4826,13 +5513,16 @@
       <x v="28"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="22"/>
+      <x v="31"/>
     </i>
     <i>
       <x v="29"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="14"/>
@@ -4905,7 +5595,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="22">
@@ -4950,9 +5640,230 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H47:Q78" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="32">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="31"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="30"/>
+        <item x="29"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S186" totalsRowShown="0">
-  <autoFilter ref="A1:S186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S227" totalsRowShown="0">
+  <autoFilter ref="A1:S227"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
@@ -5241,7 +6152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -5259,7 +6170,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -5270,7 +6181,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -5289,43 +6200,43 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>42130</v>
+        <v>42317</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>42103</v>
+        <v>42130</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>64</v>
+      <c r="A7" s="6">
+        <v>42103</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>72</v>
@@ -5333,57 +6244,68 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3">
-        <v>378</v>
+      <c r="B14" s="3">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5393,10 +6315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q77"/>
+  <dimension ref="A3:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,15 +6328,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5425,7 +6347,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -5451,25 +6373,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3255</v>
+        <v>3974</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I4" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K4" s="3">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="L4" s="3">
-        <v>11.145833333333334</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="M4" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -5483,22 +6405,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3">
-        <v>277</v>
+        <v>432</v>
       </c>
       <c r="L5" s="3">
-        <v>8.3939393939393945</v>
+        <v>11.368421052631579</v>
       </c>
       <c r="M5" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -5506,26 +6428,28 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I6" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K6" s="3">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="L6" s="3">
-        <v>12.787878787878787</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="M6" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -5533,28 +6457,26 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="L7" s="3">
-        <v>9.5862068965517242</v>
+        <v>10.342105263157896</v>
       </c>
       <c r="M7" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -5568,22 +6490,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="L8" s="3">
-        <v>10.714285714285714</v>
+        <v>12.918918918918919</v>
       </c>
       <c r="M8" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -5597,22 +6519,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L9" s="3">
-        <v>9.9444444444444446</v>
+        <v>7.25</v>
       </c>
       <c r="M9" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -5629,19 +6551,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L10" s="3">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="M10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -5655,45 +6577,51 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K11" s="3">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="L11" s="3">
-        <v>11.272727272727273</v>
+        <v>9.9444444444444446</v>
       </c>
       <c r="M11" s="3">
-        <v>6</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="L12" s="3">
-        <v>7.1578947368421053</v>
+        <v>11.466666666666667</v>
       </c>
       <c r="M12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -5707,51 +6635,45 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="L13" s="3">
-        <v>11.863636363636363</v>
+        <v>11.08</v>
       </c>
       <c r="M13" s="3">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>12</v>
       </c>
-      <c r="K14" s="3">
-        <v>161</v>
-      </c>
-      <c r="L14" s="3">
-        <v>13.416666666666666</v>
-      </c>
       <c r="M14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -5765,62 +6687,62 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I15" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="3">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L15" s="3">
-        <v>11.461538461538462</v>
+        <v>13.416666666666666</v>
       </c>
       <c r="M15" s="3">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I16" s="3">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3">
+        <v>192</v>
+      </c>
+      <c r="L16" s="3">
         <v>12</v>
       </c>
-      <c r="J16" s="3">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3">
-        <v>134</v>
-      </c>
-      <c r="L16" s="3">
-        <v>12.181818181818182</v>
-      </c>
       <c r="M16" s="3">
-        <v>4</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3">
         <v>25</v>
@@ -5875,79 +6797,85 @@
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" s="3">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="L19" s="3">
-        <v>19</v>
+        <v>16.8</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -5967,10 +6895,10 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -5996,10 +6924,10 @@
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I24" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -6013,45 +6941,33 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>23</v>
-      </c>
-      <c r="L25" s="3">
-        <v>23</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -6071,7 +6987,9 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
@@ -6104,7 +7022,7 @@
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
@@ -6121,76 +7039,68 @@
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I29" s="3">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I30" s="3">
-        <v>7</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
       <c r="L31" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -6219,30 +7129,59 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="3">
-        <v>229</v>
-      </c>
-      <c r="J33" s="3">
-        <v>338</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>10.650887573964496</v>
-      </c>
-      <c r="M33" s="3">
-        <v>131</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="I34" s="3">
+        <v>285</v>
+      </c>
+      <c r="J34" s="3">
+        <v>401</v>
+      </c>
+      <c r="K34" s="3">
+        <v>4367</v>
+      </c>
+      <c r="L34" s="3">
+        <v>10.890274314214464</v>
+      </c>
+      <c r="M34" s="3">
+        <v>163</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6371,57 +7310,57 @@
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M47" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N47" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I48" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J48" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K48" s="3">
         <v>6</v>
       </c>
       <c r="L48" s="3">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="M48" s="3">
-        <v>48.7</v>
+        <v>39.357142857142854</v>
       </c>
       <c r="N48" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O48" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P48" s="3">
         <v>4</v>
@@ -6435,28 +7374,28 @@
         <v>9</v>
       </c>
       <c r="I49" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J49" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K49" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" s="3">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="M49" s="3">
-        <v>29.076923076923077</v>
+        <v>31.923076923076923</v>
       </c>
       <c r="N49" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O49" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -6467,28 +7406,28 @@
         <v>21</v>
       </c>
       <c r="I50" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J50" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K50" s="3">
         <v>2</v>
       </c>
       <c r="L50" s="3">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="M50" s="3">
-        <v>49.571428571428569</v>
+        <v>37</v>
       </c>
       <c r="N50" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O50" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -6496,25 +7435,25 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I51" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J51" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K51" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L51" s="3">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="M51" s="3">
-        <v>32.888888888888886</v>
+        <v>34.454545454545453</v>
       </c>
       <c r="N51" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O51" s="3">
         <v>18</v>
@@ -6528,31 +7467,31 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" s="3">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="M52" s="3">
-        <v>22.545454545454547</v>
+        <v>33.272727272727273</v>
       </c>
       <c r="N52" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O52" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P52" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -6560,31 +7499,31 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I53" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J53" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="M53" s="3">
-        <v>26.875</v>
+        <v>23.416666666666668</v>
       </c>
       <c r="N53" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O53" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -6595,25 +7534,25 @@
         <v>19</v>
       </c>
       <c r="I54" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J54" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
       </c>
       <c r="L54" s="3">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="M54" s="3">
-        <v>13.266666666666667</v>
+        <v>14.388888888888889</v>
       </c>
       <c r="N54" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O54" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -6627,19 +7566,19 @@
         <v>24</v>
       </c>
       <c r="I55" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J55" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K55" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L55" s="3">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M55" s="3">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="N55" s="3">
         <v>16</v>
@@ -6656,31 +7595,31 @@
     </row>
     <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I56" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J56" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L56" s="3">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="M56" s="3">
-        <v>15.375</v>
+        <v>18.8</v>
       </c>
       <c r="N56" s="3">
         <v>11</v>
       </c>
       <c r="O56" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="3">
         <v>0</v>
@@ -6688,28 +7627,28 @@
     </row>
     <row r="57" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I57" s="3">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>149</v>
+      </c>
+      <c r="M57" s="3">
+        <v>13.545454545454545</v>
+      </c>
+      <c r="N57" s="3">
         <v>12</v>
       </c>
-      <c r="J57" s="3">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
-      <c r="L57" s="3">
-        <v>122</v>
-      </c>
-      <c r="M57" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="N57" s="3">
-        <v>6</v>
-      </c>
       <c r="O57" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -6723,25 +7662,25 @@
         <v>23</v>
       </c>
       <c r="I58" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M58" s="3">
-        <v>11.111111111111111</v>
+        <v>10.727272727272727</v>
       </c>
       <c r="N58" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -6752,31 +7691,31 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I59" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K59" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59" s="3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M59" s="3">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="N59" s="3">
         <v>11</v>
       </c>
-      <c r="N59" s="3">
-        <v>8</v>
-      </c>
       <c r="O59" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -6784,28 +7723,28 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="3">
+        <v>11</v>
+      </c>
+      <c r="J60" s="3">
         <v>8</v>
       </c>
-      <c r="I60" s="3">
-        <v>10</v>
-      </c>
-      <c r="J60" s="3">
-        <v>9</v>
-      </c>
       <c r="K60" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M60" s="3">
-        <v>17</v>
+        <v>11.375</v>
       </c>
       <c r="N60" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -6816,31 +7755,31 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I61" s="3">
         <v>9</v>
       </c>
       <c r="J61" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="3">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M61" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N61" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -6848,28 +7787,28 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J62" s="3">
+        <v>9</v>
+      </c>
+      <c r="K62" s="3">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>85</v>
+      </c>
+      <c r="M62" s="3">
+        <v>17</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
         <v>5</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
-        <v>64</v>
-      </c>
-      <c r="M62" s="3">
-        <v>32</v>
-      </c>
-      <c r="N62" s="3">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -6883,25 +7822,25 @@
         <v>22</v>
       </c>
       <c r="I63" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J63" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
       </c>
       <c r="L63" s="3">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="M63" s="3">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
       </c>
       <c r="O63" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -6912,28 +7851,28 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I64" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J64" s="3">
+        <v>11</v>
+      </c>
+      <c r="K64" s="3">
+        <v>2</v>
+      </c>
+      <c r="L64" s="3">
+        <v>50</v>
+      </c>
+      <c r="M64" s="3">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
         <v>4</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>34</v>
-      </c>
-      <c r="M64" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3">
-        <v>5</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -6947,22 +7886,22 @@
         <v>10</v>
       </c>
       <c r="I65" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J65" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M65" s="3">
-        <v>15.5</v>
+        <v>11.25</v>
       </c>
       <c r="N65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O65" s="3">
         <v>2</v>
@@ -6976,26 +7915,28 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I66" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J66" s="3">
-        <v>2</v>
-      </c>
-      <c r="K66" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
       <c r="L66" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M66" s="3">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="N66" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -7006,28 +7947,26 @@
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I67" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" s="3">
-        <v>4</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M67" s="3">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="N67" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" s="3">
         <v>0</v>
@@ -7038,25 +7977,25 @@
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I68" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J68" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M68" s="3">
-        <v>2.3333333333333335</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="3">
         <v>1</v>
@@ -7070,7 +8009,7 @@
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I69" s="3">
         <v>2</v>
@@ -7094,7 +8033,7 @@
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I70" s="3">
         <v>7</v>
@@ -7126,7 +8065,7 @@
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -7158,7 +8097,7 @@
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I72" s="3">
         <v>3</v>
@@ -7212,7 +8151,7 @@
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
@@ -7244,7 +8183,7 @@
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I75" s="3">
         <v>2</v>
@@ -7272,61 +8211,83 @@
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I76" s="3">
         <v>2</v>
       </c>
       <c r="J76" s="3">
-        <v>2</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K76" s="3"/>
       <c r="L76" s="3">
         <v>1</v>
       </c>
       <c r="M76" s="3">
         <v>1</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="78" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I77" s="3">
-        <v>229</v>
-      </c>
-      <c r="J77" s="3">
-        <v>207</v>
-      </c>
-      <c r="K77" s="3">
-        <v>42</v>
-      </c>
-      <c r="L77" s="3">
-        <v>3255</v>
-      </c>
-      <c r="M77" s="3">
-        <v>19.727272727272727</v>
-      </c>
-      <c r="N77" s="3">
-        <v>276</v>
-      </c>
-      <c r="O77" s="3">
-        <v>181</v>
-      </c>
-      <c r="P77" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q77" s="3">
+      <c r="I78" s="3">
+        <v>285</v>
+      </c>
+      <c r="J78" s="3">
+        <v>253</v>
+      </c>
+      <c r="K78" s="3">
+        <v>50</v>
+      </c>
+      <c r="L78" s="3">
+        <v>3974</v>
+      </c>
+      <c r="M78" s="3">
+        <v>19.576354679802957</v>
+      </c>
+      <c r="N78" s="3">
+        <v>334</v>
+      </c>
+      <c r="O78" s="3">
+        <v>228</v>
+      </c>
+      <c r="P78" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7337,10 +8298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S186"/>
+  <dimension ref="A1:S227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7363,31 +8324,31 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -7408,10 +8369,10 @@
         <v>17</v>
       </c>
       <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
         <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8046,7 +9007,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -8611,7 +9572,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -8935,7 +9896,7 @@
         <v>9</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -8955,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -8975,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -9220,7 +10181,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -9432,7 +10393,7 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -9688,7 +10649,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -9741,10 +10702,10 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -9758,7 +10719,7 @@
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R54" t="s">
         <v>17</v>
@@ -9769,13 +10730,13 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -9819,13 +10780,13 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -9866,7 +10827,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -9910,7 +10871,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -9960,7 +10921,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -10007,7 +10968,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -10051,7 +11012,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -10098,13 +11059,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -10148,7 +11109,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -10195,13 +11156,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -10230,13 +11191,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="R65" t="s">
         <v>3</v>
@@ -10247,7 +11208,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -10282,7 +11243,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -10437,7 +11398,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -10481,7 +11442,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -10525,13 +11486,13 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -10575,7 +11536,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -10625,13 +11586,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -10675,7 +11636,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -10725,13 +11686,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -10769,7 +11730,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -10819,13 +11780,13 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -10869,7 +11830,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -10919,13 +11880,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -10963,7 +11924,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -11013,7 +11974,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -11063,7 +12024,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -11108,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -11116,7 +12077,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -11133,13 +12094,13 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R86" t="s">
         <v>17</v>
@@ -11150,13 +12111,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R87" t="s">
         <v>17</v>
@@ -11258,7 +12219,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -11281,7 +12242,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -11328,7 +12289,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -11530,7 +12491,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -11641,7 +12602,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -11691,7 +12652,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -11731,7 +12692,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R103" t="s">
         <v>17</v>
@@ -11751,7 +12712,7 @@
         <v>13</v>
       </c>
       <c r="R104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -11759,7 +12720,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
@@ -11788,13 +12749,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -11832,7 +12793,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -11870,7 +12831,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
         <v>38</v>
@@ -11914,7 +12875,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
         <v>38</v>
@@ -11952,7 +12913,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -11981,7 +12942,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
         <v>38</v>
@@ -12019,7 +12980,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
         <v>38</v>
@@ -12066,7 +13027,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
         <v>38</v>
@@ -12110,7 +13071,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
         <v>38</v>
@@ -12154,7 +13115,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
         <v>38</v>
@@ -12198,7 +13159,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
         <v>38</v>
@@ -12215,7 +13176,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
         <v>38</v>
@@ -12232,13 +13193,13 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B118" t="s">
         <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -12261,7 +13222,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -12290,7 +13251,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -12319,7 +13280,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -12366,13 +13327,13 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -12413,7 +13374,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -12457,7 +13418,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -12501,13 +13462,13 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -12536,13 +13497,13 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -12571,7 +13532,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -12603,7 +13564,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -12647,7 +13608,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -12685,13 +13646,13 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -12729,7 +13690,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -12773,7 +13734,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -12817,7 +13778,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -12861,13 +13822,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -12890,13 +13851,13 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -12940,7 +13901,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -12969,13 +13930,13 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -12998,7 +13959,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -13015,7 +13976,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -13032,7 +13993,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -13049,13 +14010,13 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R141" t="s">
         <v>17</v>
@@ -13066,7 +14027,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -13083,7 +14044,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -13100,7 +14061,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -13117,13 +14078,13 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R145" t="s">
         <v>17</v>
@@ -13134,7 +14095,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -13151,7 +14112,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -13168,7 +14129,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -13212,7 +14173,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -13241,7 +14202,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -13279,13 +14240,13 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -13308,7 +14269,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -13349,7 +14310,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -13396,7 +14357,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -13437,13 +14398,13 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -13478,13 +14439,13 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -13501,7 +14462,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -13536,7 +14497,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -13559,13 +14520,13 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -13606,7 +14567,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -13644,13 +14605,13 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -13688,13 +14649,13 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -13732,7 +14693,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -13770,7 +14731,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -13808,13 +14769,13 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -13846,16 +14807,16 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S166">
         <v>1</v>
@@ -13863,7 +14824,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -13872,7 +14833,7 @@
         <v>9</v>
       </c>
       <c r="R167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S167">
         <v>1</v>
@@ -13880,7 +14841,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -13897,13 +14858,13 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R169" t="s">
         <v>17</v>
@@ -13914,13 +14875,13 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R170" t="s">
         <v>17</v>
@@ -13931,13 +14892,13 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R171" t="s">
         <v>17</v>
@@ -13948,7 +14909,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -14029,7 +14990,7 @@
         <v>38</v>
       </c>
       <c r="C175" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -14073,7 +15034,7 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -14184,10 +15145,10 @@
         <v>21</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -14292,7 +15253,7 @@
         <v>38</v>
       </c>
       <c r="C182" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -14309,7 +15270,7 @@
         <v>38</v>
       </c>
       <c r="C183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -14386,14 +15347,1248 @@
       <c r="C186" t="s">
         <v>10</v>
       </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="R187" t="s">
+        <v>17</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>59</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>12</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="R188" t="s">
+        <v>3</v>
+      </c>
+      <c r="S188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>30</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>38</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="R189" t="s">
+        <v>3</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>9</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>66</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+      <c r="I191">
+        <v>5</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>5</v>
+      </c>
+      <c r="M191">
+        <v>67</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="R191" t="s">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>39</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="R192" t="s">
+        <v>3</v>
+      </c>
+      <c r="S192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <v>37</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>56</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="R193" t="s">
+        <v>3</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>53</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>13</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>43</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="R194" t="s">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>18</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>51</v>
+      </c>
+      <c r="H197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>57</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="R197" t="s">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>5</v>
+      </c>
+      <c r="L198">
+        <v>5</v>
+      </c>
+      <c r="M198">
+        <v>66</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="R198" t="s">
+        <v>3</v>
+      </c>
+      <c r="S198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>58</v>
+      </c>
+      <c r="H199">
+        <v>7</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>29</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="R199" t="s">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>62</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>46</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>7</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>33</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="R200" t="s">
+        <v>3</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>32</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>30</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="R201" t="s">
+        <v>3</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>66</v>
+      </c>
+      <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>38</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="R202" t="s">
+        <v>3</v>
+      </c>
+      <c r="S202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="R203" t="s">
+        <v>47</v>
+      </c>
+      <c r="S203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>33</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>48</v>
+      </c>
+      <c r="R205" t="s">
+        <v>17</v>
+      </c>
+      <c r="S205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="R206" t="s">
+        <v>17</v>
+      </c>
+      <c r="S206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" t="s">
+        <v>17</v>
+      </c>
+      <c r="S207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>25</v>
+      </c>
+      <c r="R208" t="s">
+        <v>17</v>
+      </c>
+      <c r="S208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>21</v>
+      </c>
+      <c r="R209" t="s">
+        <v>17</v>
+      </c>
+      <c r="S209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>62</v>
+      </c>
+      <c r="R210" t="s">
+        <v>17</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="R211" t="s">
+        <v>17</v>
+      </c>
+      <c r="S211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+      <c r="R212" t="s">
+        <v>17</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="R213" t="s">
+        <v>17</v>
+      </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>68</v>
+      </c>
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>12</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="R214" t="s">
+        <v>17</v>
+      </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>68</v>
+      </c>
+      <c r="B216" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>9</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>5</v>
+      </c>
+      <c r="M216">
+        <v>58</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="R216" t="s">
+        <v>47</v>
+      </c>
+      <c r="S216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>68</v>
+      </c>
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>4</v>
+      </c>
+      <c r="L217">
+        <v>5</v>
+      </c>
+      <c r="M217">
+        <v>65</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="R217" t="s">
+        <v>17</v>
+      </c>
+      <c r="S217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>68</v>
+      </c>
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>106</v>
+      </c>
+      <c r="H218">
+        <v>10</v>
+      </c>
+      <c r="I218">
+        <v>7</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>68</v>
+      </c>
+      <c r="B219" t="s">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>60</v>
+      </c>
+      <c r="H219">
+        <v>7</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="R219" t="s">
+        <v>17</v>
+      </c>
+      <c r="S219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>68</v>
+      </c>
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" t="s">
+        <v>62</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>18</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>4</v>
+      </c>
+      <c r="M220">
+        <v>47</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="R220" t="s">
+        <v>3</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>68</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>4</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>40</v>
+      </c>
+      <c r="R221" t="s">
+        <v>3</v>
+      </c>
+      <c r="S221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>68</v>
+      </c>
+      <c r="B222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>21</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>49</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="R222" t="s">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>68</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>25</v>
+      </c>
+      <c r="R223" t="s">
+        <v>17</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>68</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="R224" t="s">
+        <v>17</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>68</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>21</v>
+      </c>
+      <c r="R226" t="s">
+        <v>3</v>
+      </c>
+      <c r="S226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>68</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="R227" t="s">
+        <v>3</v>
+      </c>
+      <c r="S227">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -267,6 +267,33 @@
   <si>
     <t>100</t>
   </si>
+  <si>
+    <t>27/9/2015</t>
+  </si>
+  <si>
+    <t>Ilyas</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Tabassum</t>
+  </si>
+  <si>
+    <t>Haroon</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Tahir</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
 </sst>
 </file>
 
@@ -343,13 +370,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42268.475906828702" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="226">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42283.665299305554" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="275">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-04-09T00:00:00" maxDate="2015-12-07T00:00:00" count="14">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="16">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -363,6 +390,8 @@
         <d v="2015-04-09T00:00:00"/>
         <d v="2015-11-09T00:00:00"/>
         <s v="18/9/2015"/>
+        <s v="27/9/2015"/>
+        <d v="2015-03-10T00:00:00"/>
         <s v="21/8/2015" u="1"/>
       </sharedItems>
     </cacheField>
@@ -370,7 +399,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="32">
+      <sharedItems count="40">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -401,6 +430,14 @@
         <s v="Ijaz"/>
         <s v="Umar"/>
         <s v="Tariq"/>
+        <s v="Ilyas"/>
+        <s v="Arun"/>
+        <s v="Tabassum"/>
+        <s v="Haroon"/>
+        <s v="Joe"/>
+        <s v="Kim"/>
+        <s v="Tahir"/>
+        <s v="Raj"/>
         <s v="Kalem" u="1"/>
         <s v="Omer" u="1"/>
       </sharedItems>
@@ -424,7 +461,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
     </cacheField>
     <cacheField name="Fifties" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
     </cacheField>
     <cacheField name="Hundreds" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
@@ -466,7 +503,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="226">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="275">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -5212,6 +5249,1035 @@
     <m/>
     <s v="Wides"/>
     <n v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <n v="64"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="30"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="31"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="32"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="46"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="33"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="63"/>
+    <n v="8"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="73"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="52"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="34"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="35"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="37"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="4"/>
+    <n v="49"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="36"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="9"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="13"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="48"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="55"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="29"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="4"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="37"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="37"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="33"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Domestic"/>
+    <x v="33"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="57"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="149"/>
+    <n v="13"/>
+    <n v="11"/>
+    <n v="2"/>
+    <m/>
+    <n v="3"/>
+    <n v="33"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="23"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="44"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="47"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="67"/>
+    <n v="9"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="24"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="33"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="31"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="24"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Domestic"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -5221,17 +6287,19 @@
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+      <items count="17">
         <item x="2"/>
         <item x="11"/>
         <item x="4"/>
         <item x="6"/>
         <item x="1"/>
         <item x="10"/>
+        <item x="14"/>
         <item x="5"/>
         <item x="0"/>
+        <item x="13"/>
         <item x="9"/>
-        <item m="1" x="13"/>
+        <item m="1" x="15"/>
         <item x="3"/>
         <item x="12"/>
         <item x="8"/>
@@ -5241,7 +6309,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="33">
+      <items count="41">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -5259,7 +6327,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="31"/>
+        <item m="1" x="39"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -5272,8 +6340,16 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="30"/>
+        <item m="1" x="38"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5314,9 +6390,6 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
     </i>
     <i>
@@ -5329,7 +6402,10 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -5363,13 +6439,58 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H47:Q86" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="32">
+      <items count="40">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -5385,7 +6506,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="31"/>
+        <item m="1" x="39"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -5400,8 +6521,269 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="30"/>
+        <item m="1" x="38"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="39">
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="40">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="39"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="38"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -5436,7 +6818,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="39">
     <i>
       <x v="27"/>
     </i>
@@ -5456,28 +6838,31 @@
       <x v="16"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="11"/>
@@ -5486,10 +6871,22 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="22"/>
@@ -5501,31 +6898,40 @@
       <x v="23"/>
     </i>
     <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
       <x v="25"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="28"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="29"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -5595,275 +7001,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:Q78" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="32">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item m="1" x="31"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="30"/>
-        <item x="29"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <dataFields count="9">
-    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
-    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S227" totalsRowShown="0">
-  <autoFilter ref="A1:S227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S276" totalsRowShown="0">
+  <autoFilter ref="A1:S276"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
@@ -6315,10 +7455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q78"/>
+  <dimension ref="A3:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6328,15 +7468,15 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6373,25 +7513,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3974</v>
+        <v>4877</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K4" s="3">
-        <v>615</v>
+        <v>710</v>
       </c>
       <c r="L4" s="3">
-        <v>11.181818181818182</v>
+        <v>10.757575757575758</v>
       </c>
       <c r="M4" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -6408,19 +7548,19 @@
         <v>13</v>
       </c>
       <c r="I5" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3">
-        <v>432</v>
+        <v>529</v>
       </c>
       <c r="L5" s="3">
-        <v>11.368421052631579</v>
+        <v>11.25531914893617</v>
       </c>
       <c r="M5" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -6437,19 +7577,19 @@
         <v>21</v>
       </c>
       <c r="I6" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="L6" s="3">
-        <v>9.3333333333333339</v>
+        <v>9.2264150943396235</v>
       </c>
       <c r="M6" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -6464,19 +7604,19 @@
         <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3">
-        <v>393</v>
+        <v>502</v>
       </c>
       <c r="L7" s="3">
-        <v>10.342105263157896</v>
+        <v>10.458333333333334</v>
       </c>
       <c r="M7" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -6522,19 +7662,19 @@
         <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="L9" s="3">
-        <v>7.25</v>
+        <v>7.8965517241379306</v>
       </c>
       <c r="M9" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -6548,51 +7688,45 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I10" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="L10" s="3">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="M10" s="3">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K11" s="3">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="L11" s="3">
-        <v>9.9444444444444446</v>
+        <v>9.8928571428571423</v>
       </c>
       <c r="M11" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -6606,22 +7740,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K12" s="3">
-        <v>172</v>
+        <v>368</v>
       </c>
       <c r="L12" s="3">
-        <v>11.466666666666667</v>
+        <v>11.870967741935484</v>
       </c>
       <c r="M12" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -6638,19 +7772,19 @@
         <v>54</v>
       </c>
       <c r="I13" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K13" s="3">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="L13" s="3">
-        <v>11.08</v>
+        <v>10.633333333333333</v>
       </c>
       <c r="M13" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -6658,22 +7792,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K14" s="3">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="L14" s="3">
-        <v>12</v>
+        <v>9.9444444444444446</v>
       </c>
       <c r="M14" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -6690,19 +7824,19 @@
         <v>24</v>
       </c>
       <c r="I15" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K15" s="3">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L15" s="3">
-        <v>13.416666666666666</v>
+        <v>12.866666666666667</v>
       </c>
       <c r="M15" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -6716,45 +7850,51 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J16" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" s="3">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L16" s="3">
-        <v>12</v>
+        <v>11.368421052631579</v>
       </c>
       <c r="M16" s="3">
-        <v>5</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K17" s="3">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="L17" s="3">
-        <v>10.16</v>
+        <v>10.8</v>
       </c>
       <c r="M17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -6768,51 +7908,45 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I18" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>10.666666666666666</v>
+        <v>7.75</v>
       </c>
       <c r="M18" s="3">
         <v>2</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I19" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L19" s="3">
-        <v>16.8</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -6826,42 +7960,48 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" s="3">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="L20" s="3">
-        <v>17.5</v>
+        <v>16.8</v>
       </c>
       <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="3">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="M21" s="3">
         <v>1</v>
@@ -6872,22 +8012,22 @@
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>19</v>
+      </c>
+      <c r="L22" s="3">
+        <v>19</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -6895,67 +8035,59 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I23" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>35</v>
+      </c>
+      <c r="L23" s="3">
+        <v>17.5</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>46</v>
+      </c>
+      <c r="L25" s="3">
+        <v>23</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6964,39 +8096,27 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I26" s="3">
-        <v>6</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I27" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -7010,53 +8130,65 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
       <c r="L28" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I29" s="3">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
@@ -7073,10 +8205,10 @@
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -7096,174 +8228,254 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I34" s="3">
-        <v>285</v>
-      </c>
-      <c r="J34" s="3">
-        <v>401</v>
-      </c>
-      <c r="K34" s="3">
-        <v>4367</v>
-      </c>
-      <c r="L34" s="3">
-        <v>10.890274314214464</v>
-      </c>
-      <c r="M34" s="3">
-        <v>163</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="H35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
+      <c r="H36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
+      <c r="H39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="H40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="H42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="3">
+        <v>353</v>
+      </c>
+      <c r="J42" s="3">
+        <v>494</v>
+      </c>
+      <c r="K42" s="3">
+        <v>5329</v>
+      </c>
+      <c r="L42" s="3">
+        <v>10.787449392712551</v>
+      </c>
+      <c r="M42" s="3">
+        <v>204</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H43" s="2"/>
@@ -7342,25 +8554,25 @@
         <v>62</v>
       </c>
       <c r="I48" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J48" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K48" s="3">
         <v>6</v>
       </c>
       <c r="L48" s="3">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="M48" s="3">
-        <v>39.357142857142854</v>
+        <v>32.444444444444443</v>
       </c>
       <c r="N48" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O48" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P48" s="3">
         <v>4</v>
@@ -7371,31 +8583,31 @@
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I49" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J49" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49" s="3">
         <v>3</v>
       </c>
       <c r="L49" s="3">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="M49" s="3">
-        <v>31.923076923076923</v>
+        <v>40.642857142857146</v>
       </c>
       <c r="N49" s="3">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="O49" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P49" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -7406,25 +8618,25 @@
         <v>21</v>
       </c>
       <c r="I50" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J50" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" s="3">
-        <v>407</v>
+        <v>537</v>
       </c>
       <c r="M50" s="3">
-        <v>37</v>
+        <v>38.357142857142854</v>
       </c>
       <c r="N50" s="3">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O50" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P50" s="3">
         <v>3</v>
@@ -7438,22 +8650,22 @@
         <v>54</v>
       </c>
       <c r="I51" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J51" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K51" s="3">
         <v>4</v>
       </c>
       <c r="L51" s="3">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="M51" s="3">
-        <v>34.454545454545453</v>
+        <v>27.933333333333334</v>
       </c>
       <c r="N51" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O51" s="3">
         <v>18</v>
@@ -7467,28 +8679,28 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I52" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J52" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="3">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="M52" s="3">
-        <v>33.272727272727273</v>
+        <v>31.923076923076923</v>
       </c>
       <c r="N52" s="3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O52" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P52" s="3">
         <v>4</v>
@@ -7499,31 +8711,31 @@
     </row>
     <row r="53" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I53" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J53" s="3">
+        <v>23</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" s="3">
+        <v>290</v>
+      </c>
+      <c r="M53" s="3">
+        <v>13.80952380952381</v>
+      </c>
+      <c r="N53" s="3">
+        <v>33</v>
+      </c>
+      <c r="O53" s="3">
         <v>13</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3">
-        <v>281</v>
-      </c>
-      <c r="M53" s="3">
-        <v>23.416666666666668</v>
-      </c>
-      <c r="N53" s="3">
-        <v>28</v>
-      </c>
-      <c r="O53" s="3">
-        <v>14</v>
-      </c>
       <c r="P53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -7531,31 +8743,31 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I54" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J54" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
       </c>
       <c r="L54" s="3">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="M54" s="3">
-        <v>14.388888888888889</v>
+        <v>23.416666666666668</v>
       </c>
       <c r="N54" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O54" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -7566,22 +8778,22 @@
         <v>24</v>
       </c>
       <c r="I55" s="3">
+        <v>26</v>
+      </c>
+      <c r="J55" s="3">
         <v>22</v>
       </c>
-      <c r="J55" s="3">
-        <v>19</v>
-      </c>
       <c r="K55" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L55" s="3">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="M55" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N55" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O55" s="3">
         <v>10</v>
@@ -7598,25 +8810,25 @@
         <v>20</v>
       </c>
       <c r="I56" s="3">
+        <v>16</v>
+      </c>
+      <c r="J56" s="3">
         <v>14</v>
       </c>
-      <c r="J56" s="3">
-        <v>12</v>
-      </c>
       <c r="K56" s="3">
         <v>2</v>
       </c>
       <c r="L56" s="3">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M56" s="3">
-        <v>18.8</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="N56" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P56" s="3">
         <v>1</v>
@@ -7630,25 +8842,25 @@
         <v>11</v>
       </c>
       <c r="I57" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J57" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K57" s="3">
         <v>3</v>
       </c>
       <c r="L57" s="3">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="M57" s="3">
-        <v>13.545454545454545</v>
+        <v>13.133333333333333</v>
       </c>
       <c r="N57" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O57" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -7659,28 +8871,28 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I58" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58" s="3">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="M58" s="3">
-        <v>10.727272727272727</v>
+        <v>28.6</v>
       </c>
       <c r="N58" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O58" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -7691,28 +8903,28 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I59" s="3">
+        <v>20</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2</v>
+      </c>
+      <c r="L59" s="3">
+        <v>137</v>
+      </c>
+      <c r="M59" s="3">
+        <v>11.416666666666666</v>
+      </c>
+      <c r="N59" s="3">
+        <v>6</v>
+      </c>
+      <c r="O59" s="3">
         <v>8</v>
-      </c>
-      <c r="J59" s="3">
-        <v>6</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
-        <v>94</v>
-      </c>
-      <c r="M59" s="3">
-        <v>31.333333333333332</v>
-      </c>
-      <c r="N59" s="3">
-        <v>11</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -7723,31 +8935,31 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I60" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J60" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" s="3">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M60" s="3">
-        <v>11.375</v>
+        <v>10.75</v>
       </c>
       <c r="N60" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O60" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -7755,31 +8967,31 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I61" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J61" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M61" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="N61" s="3">
         <v>11</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8</v>
       </c>
-      <c r="O61" s="3">
-        <v>5</v>
-      </c>
       <c r="P61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -7787,31 +8999,31 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I62" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" s="3">
         <v>9</v>
       </c>
       <c r="K62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L62" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M62" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N62" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>5</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -7819,28 +9031,28 @@
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I63" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J63" s="3">
         <v>9</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L63" s="3">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M63" s="3">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
       </c>
       <c r="O63" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
@@ -7851,28 +9063,28 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I64" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J64" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="M64" s="3">
-        <v>5.5555555555555554</v>
+        <v>10.5</v>
       </c>
       <c r="N64" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -7883,28 +9095,28 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I65" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J65" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="3">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M65" s="3">
-        <v>11.25</v>
+        <v>7.5555555555555554</v>
       </c>
       <c r="N65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P65" s="3">
         <v>0</v>
@@ -7915,58 +9127,56 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I66" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J66" s="3">
+        <v>2</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>46</v>
+      </c>
+      <c r="M66" s="3">
+        <v>23</v>
+      </c>
+      <c r="N66" s="3">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>35</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1</v>
-      </c>
       <c r="O66" s="3">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I67" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
-      </c>
-      <c r="K67" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
       <c r="L67" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M67" s="3">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="N67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P67" s="3">
         <v>0</v>
@@ -7977,81 +9187,83 @@
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I68" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J68" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K68" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M68" s="3">
-        <v>4.666666666666667</v>
+        <v>15</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
       </c>
       <c r="O68" s="3">
-        <v>1</v>
-      </c>
-      <c r="P68" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I69" s="3">
         <v>2</v>
       </c>
       <c r="J69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M69" s="3">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="N69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="O69" s="3">
+        <v>2</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I70" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J70" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K70" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M70" s="3">
-        <v>3.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="3">
         <v>1</v>
@@ -8065,82 +9277,78 @@
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
       </c>
       <c r="L71" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M71" s="3">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N71" s="3">
-        <v>0</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0</v>
-      </c>
-      <c r="P71" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I72" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" s="3">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K72" s="3"/>
       <c r="L72" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M72" s="3">
-        <v>6</v>
-      </c>
-      <c r="N72" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1</v>
+      </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I73" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="K73" s="3">
+        <v>4</v>
+      </c>
       <c r="L73" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M73" s="3">
-        <v>6</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N73" s="3">
         <v>0</v>
       </c>
       <c r="O73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="3">
         <v>0</v>
@@ -8151,39 +9359,35 @@
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
       </c>
       <c r="K74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="3">
-        <v>4</v>
-      </c>
-      <c r="M74" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="M74" s="3">
+        <v>10</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
       </c>
       <c r="O74" s="3">
-        <v>0</v>
-      </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I75" s="3">
         <v>2</v>
@@ -8192,48 +9396,56 @@
         <v>1</v>
       </c>
       <c r="K75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="3">
-        <v>2</v>
-      </c>
-      <c r="M75" s="3">
-        <v>2</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M75" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N75" s="3"/>
       <c r="O75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
-      <c r="K76" s="3"/>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
       <c r="L76" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M76" s="3">
-        <v>1</v>
-      </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I77" s="3">
         <v>2</v>
@@ -8245,49 +9457,257 @@
         <v>1</v>
       </c>
       <c r="L77" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M77" s="3">
-        <v>1</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0</v>
-      </c>
-      <c r="O77" s="3">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="3">
+        <v>3</v>
+      </c>
+      <c r="J78" s="3">
+        <v>3</v>
+      </c>
+      <c r="K78" s="3">
+        <v>2</v>
+      </c>
+      <c r="L78" s="3">
+        <v>6</v>
+      </c>
+      <c r="M78" s="3">
+        <v>6</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+    </row>
+    <row r="79" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3">
+        <v>6</v>
+      </c>
+      <c r="M79" s="3">
+        <v>6</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" s="3">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>4</v>
+      </c>
+      <c r="M80" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>2</v>
+      </c>
+      <c r="M82" s="3">
+        <v>2</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>2</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3">
+        <v>1</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="3">
-        <v>285</v>
-      </c>
-      <c r="J78" s="3">
-        <v>253</v>
-      </c>
-      <c r="K78" s="3">
-        <v>50</v>
-      </c>
-      <c r="L78" s="3">
-        <v>3974</v>
-      </c>
-      <c r="M78" s="3">
-        <v>19.576354679802957</v>
-      </c>
-      <c r="N78" s="3">
-        <v>334</v>
-      </c>
-      <c r="O78" s="3">
-        <v>228</v>
-      </c>
-      <c r="P78" s="3">
-        <v>21</v>
-      </c>
-      <c r="Q78" s="3">
+      <c r="I86" s="3">
+        <v>353</v>
+      </c>
+      <c r="J86" s="3">
+        <v>312</v>
+      </c>
+      <c r="K86" s="3">
+        <v>62</v>
+      </c>
+      <c r="L86" s="3">
+        <v>4877</v>
+      </c>
+      <c r="M86" s="3">
+        <v>19.507999999999999</v>
+      </c>
+      <c r="N86" s="3">
+        <v>422</v>
+      </c>
+      <c r="O86" s="3">
+        <v>266</v>
+      </c>
+      <c r="P86" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8298,10 +9718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S227"/>
+  <dimension ref="A1:S276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S227"/>
+    <sheetView topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16591,6 +18011,1544 @@
         <v>5</v>
       </c>
     </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>79</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>54</v>
+      </c>
+      <c r="H228">
+        <v>6</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>6</v>
+      </c>
+      <c r="M228">
+        <v>64</v>
+      </c>
+      <c r="N228">
+        <v>5</v>
+      </c>
+      <c r="R228" t="s">
+        <v>3</v>
+      </c>
+      <c r="S228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>79</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>10</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="R229" t="s">
+        <v>17</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>79</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>7</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>79</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>82</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>46</v>
+      </c>
+      <c r="H231">
+        <v>5</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="R231" t="s">
+        <v>17</v>
+      </c>
+      <c r="S231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>79</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>19</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>31</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="R232" t="s">
+        <v>47</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>63</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>73</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="R233" t="s">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>79</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>28</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>5</v>
+      </c>
+      <c r="M234">
+        <v>52</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="R234" t="s">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>84</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>7</v>
+      </c>
+      <c r="R235" t="s">
+        <v>17</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>85</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>6</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>37</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="R237" t="s">
+        <v>3</v>
+      </c>
+      <c r="S237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>79</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>51</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
+        <v>4</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>49</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="R238" t="s">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>79</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>37</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>19</v>
+      </c>
+      <c r="R239" t="s">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>79</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>86</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>9</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>17</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="R240" t="s">
+        <v>3</v>
+      </c>
+      <c r="S240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>79</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>62</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>13</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="L241">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>48</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="R241" t="s">
+        <v>3</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>79</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>25</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="R242" t="s">
+        <v>17</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>79</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>48</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>49</v>
+      </c>
+      <c r="H243">
+        <v>7</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>5</v>
+      </c>
+      <c r="M243">
+        <v>55</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="R243" t="s">
+        <v>3</v>
+      </c>
+      <c r="S243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>79</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>29</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>30</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="R244" t="s">
+        <v>17</v>
+      </c>
+      <c r="S244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>79</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>53</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>34</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>11</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="R245" t="s">
+        <v>3</v>
+      </c>
+      <c r="S245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>79</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="R246" t="s">
+        <v>47</v>
+      </c>
+      <c r="S246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>79</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>48</v>
+      </c>
+      <c r="R247" t="s">
+        <v>47</v>
+      </c>
+      <c r="S247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>79</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>11</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>37</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="R248" t="s">
+        <v>3</v>
+      </c>
+      <c r="S248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>79</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>19</v>
+      </c>
+      <c r="R249" t="s">
+        <v>17</v>
+      </c>
+      <c r="S249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>79</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>21</v>
+      </c>
+      <c r="R250" t="s">
+        <v>17</v>
+      </c>
+      <c r="S250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>79</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="R251" t="s">
+        <v>17</v>
+      </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>79</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>87</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>79</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>23</v>
+      </c>
+      <c r="R253" t="s">
+        <v>47</v>
+      </c>
+      <c r="S253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>79</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>48</v>
+      </c>
+      <c r="R254" t="s">
+        <v>17</v>
+      </c>
+      <c r="S254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>11</v>
+      </c>
+      <c r="R255" t="s">
+        <v>47</v>
+      </c>
+      <c r="S255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>79</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>83</v>
+      </c>
+      <c r="R256" t="s">
+        <v>3</v>
+      </c>
+      <c r="S256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>79</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>25</v>
+      </c>
+      <c r="R257" t="s">
+        <v>17</v>
+      </c>
+      <c r="S257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>79</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>83</v>
+      </c>
+      <c r="R258" t="s">
+        <v>17</v>
+      </c>
+      <c r="S258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>25</v>
+      </c>
+      <c r="H259">
+        <v>2</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="M259">
+        <v>31</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="R259" t="s">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A260" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>20</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>5</v>
+      </c>
+      <c r="M260">
+        <v>57</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="R260" t="s">
+        <v>3</v>
+      </c>
+      <c r="S260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A261" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>149</v>
+      </c>
+      <c r="H261">
+        <v>13</v>
+      </c>
+      <c r="I261">
+        <v>11</v>
+      </c>
+      <c r="J261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="M261">
+        <v>33</v>
+      </c>
+      <c r="R261" t="s">
+        <v>17</v>
+      </c>
+      <c r="S261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>23</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="R262" t="s">
+        <v>17</v>
+      </c>
+      <c r="S262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>16</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A264" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>53</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>6</v>
+      </c>
+      <c r="M264">
+        <v>49</v>
+      </c>
+      <c r="N264">
+        <v>4</v>
+      </c>
+      <c r="R264" t="s">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>20</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>23</v>
+      </c>
+      <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>44</v>
+      </c>
+      <c r="R265" t="s">
+        <v>3</v>
+      </c>
+      <c r="S265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>62</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>20</v>
+      </c>
+      <c r="H266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>6</v>
+      </c>
+      <c r="M266">
+        <v>47</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="R266" t="s">
+        <v>3</v>
+      </c>
+      <c r="S266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A267" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>67</v>
+      </c>
+      <c r="H267">
+        <v>9</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>6</v>
+      </c>
+      <c r="M267">
+        <v>24</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="R267" t="s">
+        <v>3</v>
+      </c>
+      <c r="S267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A268" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>14</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A269" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>28</v>
+      </c>
+      <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A270" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>8</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>33</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A271" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>81</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>23</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A273" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>62</v>
+      </c>
+      <c r="R273" t="s">
+        <v>47</v>
+      </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A274" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="R274" t="s">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>53</v>
+      </c>
+      <c r="R275" t="s">
+        <v>47</v>
+      </c>
+      <c r="S275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>53</v>
+      </c>
+      <c r="R276" t="s">
+        <v>17</v>
+      </c>
+      <c r="S276">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,15 @@
   <si>
     <t>Raj</t>
   </si>
+  <si>
+    <t>Raza</t>
+  </si>
+  <si>
+    <t>Ameer</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
 </sst>
 </file>
 
@@ -370,13 +379,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42283.665299305554" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="275">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42295.871618518519" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="342">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="16">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="19">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -392,6 +401,9 @@
         <s v="18/9/2015"/>
         <s v="27/9/2015"/>
         <d v="2015-03-10T00:00:00"/>
+        <d v="2015-09-10T00:00:00"/>
+        <d v="2015-09-15T00:00:00"/>
+        <d v="2015-09-16T00:00:00"/>
         <s v="21/8/2015" u="1"/>
       </sharedItems>
     </cacheField>
@@ -399,7 +411,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="40">
+      <sharedItems count="43">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -438,6 +450,9 @@
         <s v="Kim"/>
         <s v="Tahir"/>
         <s v="Raj"/>
+        <s v="Raza"/>
+        <s v="Ameer"/>
+        <s v="Pankaj"/>
         <s v="Kalem" u="1"/>
         <s v="Omer" u="1"/>
       </sharedItems>
@@ -455,7 +470,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="175"/>
     </cacheField>
     <cacheField name="Sixes" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="17"/>
     </cacheField>
     <cacheField name="Fours" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
@@ -473,7 +488,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="104"/>
     </cacheField>
     <cacheField name="Wickets" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="Wides" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
@@ -488,7 +503,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
@@ -503,7 +518,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="275">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="342">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -6262,6 +6277,1413 @@
     <x v="14"/>
     <s v="Domestic"/>
     <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="31"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="32"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="51"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="17"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="57"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="26"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="38"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="39"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="6"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="39"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="62"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="87"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="51"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="37"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="31"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="40"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="42"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="24"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="99"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="63"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="62"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="7"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="58"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="73"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="52"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="27"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="39"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="68"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="43"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="13"/>
+    <n v="4"/>
+    <m/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="40"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="31"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="62"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="78"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="61"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="34"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="38"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="87"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="6"/>
+    <n v="59"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="72"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="34"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="International"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -6284,13 +7706,16 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="17">
+      <items count="20">
         <item x="2"/>
         <item x="11"/>
         <item x="4"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
         <item x="6"/>
         <item x="1"/>
         <item x="10"/>
@@ -6299,7 +7724,7 @@
         <item x="0"/>
         <item x="13"/>
         <item x="9"/>
-        <item m="1" x="15"/>
+        <item m="1" x="18"/>
         <item x="3"/>
         <item x="12"/>
         <item x="8"/>
@@ -6309,7 +7734,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="41">
+      <items count="44">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -6327,7 +7752,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="39"/>
+        <item m="1" x="42"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -6340,7 +7765,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="38"/>
+        <item m="1" x="41"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -6350,6 +7775,9 @@
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6376,12 +7804,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -6399,13 +7830,19 @@
       <x v="10"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -6439,58 +7876,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:Q86" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H47:Q89" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="40">
+      <items count="43">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -6506,7 +7898,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="39"/>
+        <item m="1" x="42"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -6521,7 +7913,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="38"/>
+        <item m="1" x="41"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -6531,6 +7923,9 @@
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -6565,24 +7960,27 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="42">
+    <i>
+      <x v="13"/>
+    </i>
     <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="13"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="2"/>
@@ -6591,16 +7989,16 @@
       <x v="9"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="10"/>
@@ -6615,25 +8013,25 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="34"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="42"/>
     </i>
     <i>
       <x v="35"/>
@@ -6657,10 +8055,10 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="39"/>
@@ -6669,16 +8067,22 @@
       <x v="4"/>
     </i>
     <i>
+      <x v="41"/>
+    </i>
+    <i>
       <x v="29"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="40"/>
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -6736,14 +8140,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H3:P45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="40">
+      <items count="43">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -6759,7 +8163,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="39"/>
+        <item m="1" x="42"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -6774,7 +8178,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="38"/>
+        <item m="1" x="41"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -6784,6 +8188,9 @@
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -6818,7 +8225,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="42">
     <i>
       <x v="27"/>
     </i>
@@ -6832,13 +8239,10 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="17"/>
-    </i>
-    <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="17"/>
     </i>
     <i>
       <x v="10"/>
@@ -6850,16 +8254,19 @@
       <x v="21"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x v="35"/>
@@ -6871,67 +8278,76 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="38"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="23"/>
+      <x v="28"/>
     </i>
     <i>
       <x v="39"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
       <x v="25"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="29"/>
     </i>
     <i t="grand">
       <x/>
@@ -7001,9 +8417,54 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S276" totalsRowShown="0">
-  <autoFilter ref="A1:S276"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S343" totalsRowShown="0">
+  <autoFilter ref="A1:S343"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
@@ -7292,7 +8753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -7351,101 +8812,134 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>42130</v>
+        <v>42263</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
+        <v>42262</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>42257</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>42130</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>42103</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>415</v>
+      <c r="B17" s="3">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7455,10 +8949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q86"/>
+  <dimension ref="A3:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7468,10 +8962,10 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
@@ -7513,25 +9007,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4877</v>
+        <v>6158</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K4" s="3">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="L4" s="3">
-        <v>10.757575757575758</v>
+        <v>10.759493670886076</v>
       </c>
       <c r="M4" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -7548,19 +9042,19 @@
         <v>13</v>
       </c>
       <c r="I5" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="L5" s="3">
-        <v>11.25531914893617</v>
+        <v>11.152542372881356</v>
       </c>
       <c r="M5" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -7577,19 +9071,19 @@
         <v>21</v>
       </c>
       <c r="I6" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3">
-        <v>489</v>
+        <v>680</v>
       </c>
       <c r="L6" s="3">
-        <v>9.2264150943396235</v>
+        <v>9.8550724637681153</v>
       </c>
       <c r="M6" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -7604,19 +9098,19 @@
         <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K7" s="3">
-        <v>502</v>
+        <v>647</v>
       </c>
       <c r="L7" s="3">
-        <v>10.458333333333334</v>
+        <v>11.155172413793103</v>
       </c>
       <c r="M7" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -7630,22 +9124,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K8" s="3">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="L8" s="3">
-        <v>12.918918918918919</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="M8" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -7659,22 +9153,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J9" s="3">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K9" s="3">
-        <v>229</v>
+        <v>642</v>
       </c>
       <c r="L9" s="3">
-        <v>7.8965517241379306</v>
+        <v>13.102040816326531</v>
       </c>
       <c r="M9" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -7688,45 +9182,51 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="L10" s="3">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="M10" s="3">
-        <v>11</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K11" s="3">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="L11" s="3">
-        <v>9.8928571428571423</v>
+        <v>12.405405405405405</v>
       </c>
       <c r="M11" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -7740,51 +9240,45 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3">
         <v>25</v>
       </c>
       <c r="J12" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K12" s="3">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L12" s="3">
-        <v>11.870967741935484</v>
+        <v>10.911764705882353</v>
       </c>
       <c r="M12" s="3">
-        <v>11</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="L13" s="3">
-        <v>10.633333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="M13" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -7792,22 +9286,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="L14" s="3">
-        <v>9.9444444444444446</v>
+        <v>14.65</v>
       </c>
       <c r="M14" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -7821,22 +9315,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" s="3">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L15" s="3">
-        <v>12.866666666666667</v>
+        <v>9.9444444444444446</v>
       </c>
       <c r="M15" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -7850,19 +9344,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J16" s="3">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K16" s="3">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="L16" s="3">
-        <v>11.368421052631579</v>
+        <v>11.411764705882353</v>
       </c>
       <c r="M16" s="3">
         <v>7</v>
@@ -7879,22 +9373,22 @@
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K17" s="3">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="L17" s="3">
-        <v>10.8</v>
+        <v>11.368421052631579</v>
       </c>
       <c r="M17" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -7963,19 +9457,19 @@
         <v>12</v>
       </c>
       <c r="I20" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="L20" s="3">
-        <v>16.8</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -7989,19 +9483,19 @@
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L21" s="3">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="M21" s="3">
         <v>1</v>
@@ -8012,19 +9506,19 @@
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" s="3">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="M22" s="3">
         <v>1</v>
@@ -8058,45 +9552,59 @@
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>46</v>
-      </c>
-      <c r="L25" s="3">
-        <v>23</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
@@ -8136,10 +9644,10 @@
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I28" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -8153,88 +9661,76 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
@@ -8251,44 +9747,68 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I33" s="3">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
       <c r="L33" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
       <c r="L34" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -8312,82 +9832,70 @@
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I36" s="3">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
       <c r="L36" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I37" s="3">
-        <v>6</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H39" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I39" s="3">
         <v>2</v>
@@ -8404,108 +9912,123 @@
     </row>
     <row r="40" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>74</v>
+      </c>
+      <c r="L41" s="3">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I42" s="3">
-        <v>353</v>
-      </c>
-      <c r="J42" s="3">
-        <v>494</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5329</v>
-      </c>
-      <c r="L42" s="3">
-        <v>10.787449392712551</v>
-      </c>
-      <c r="M42" s="3">
-        <v>204</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
+      <c r="H43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
     <row r="44" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
+      <c r="H44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="H45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="3">
+        <v>440</v>
+      </c>
+      <c r="J45" s="3">
+        <v>603</v>
+      </c>
+      <c r="K45" s="3">
+        <v>6734</v>
+      </c>
+      <c r="L45" s="3">
+        <v>11.167495854063018</v>
+      </c>
+      <c r="M45" s="3">
+        <v>247</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H46" s="2"/>
@@ -8551,31 +10074,31 @@
     </row>
     <row r="48" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I48" s="3">
         <v>24</v>
       </c>
       <c r="J48" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K48" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L48" s="3">
-        <v>584</v>
+        <v>818</v>
       </c>
       <c r="M48" s="3">
-        <v>32.444444444444443</v>
+        <v>45.444444444444443</v>
       </c>
       <c r="N48" s="3">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="O48" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q48" s="3">
         <v>1</v>
@@ -8583,34 +10106,34 @@
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I49" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J49" s="3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K49" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L49" s="3">
-        <v>569</v>
+        <v>750</v>
       </c>
       <c r="M49" s="3">
-        <v>40.642857142857146</v>
+        <v>32.608695652173914</v>
       </c>
       <c r="N49" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O49" s="3">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P49" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="8:17" x14ac:dyDescent="0.25">
@@ -8618,25 +10141,25 @@
         <v>21</v>
       </c>
       <c r="I50" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J50" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3">
         <v>3</v>
       </c>
       <c r="L50" s="3">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="M50" s="3">
-        <v>38.357142857142854</v>
+        <v>30.15</v>
       </c>
       <c r="N50" s="3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O50" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P50" s="3">
         <v>3</v>
@@ -8647,31 +10170,31 @@
     </row>
     <row r="51" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I51" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J51" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K51" s="3">
+        <v>5</v>
+      </c>
+      <c r="L51" s="3">
+        <v>485</v>
+      </c>
+      <c r="M51" s="3">
+        <v>28.529411764705884</v>
+      </c>
+      <c r="N51" s="3">
+        <v>33</v>
+      </c>
+      <c r="O51" s="3">
+        <v>35</v>
+      </c>
+      <c r="P51" s="3">
         <v>4</v>
-      </c>
-      <c r="L51" s="3">
-        <v>419</v>
-      </c>
-      <c r="M51" s="3">
-        <v>27.933333333333334</v>
-      </c>
-      <c r="N51" s="3">
-        <v>41</v>
-      </c>
-      <c r="O51" s="3">
-        <v>18</v>
-      </c>
-      <c r="P51" s="3">
-        <v>3</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -8679,31 +10202,31 @@
     </row>
     <row r="52" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I52" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J52" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L52" s="3">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="M52" s="3">
-        <v>31.923076923076923</v>
+        <v>23.95</v>
       </c>
       <c r="N52" s="3">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O52" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -8714,28 +10237,28 @@
         <v>19</v>
       </c>
       <c r="I53" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J53" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" s="3">
-        <v>290</v>
+        <v>459</v>
       </c>
       <c r="M53" s="3">
-        <v>13.80952380952381</v>
+        <v>18.36</v>
       </c>
       <c r="N53" s="3">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O53" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P53" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -8743,63 +10266,63 @@
     </row>
     <row r="54" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="3">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3">
         <v>12</v>
       </c>
-      <c r="I54" s="3">
-        <v>14</v>
-      </c>
-      <c r="J54" s="3">
-        <v>13</v>
-      </c>
       <c r="K54" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L54" s="3">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="M54" s="3">
-        <v>23.416666666666668</v>
+        <v>50</v>
       </c>
       <c r="N54" s="3">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O54" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P54" s="3">
         <v>1</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I55" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J55" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K55" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="M55" s="3">
-        <v>16</v>
+        <v>23.066666666666666</v>
       </c>
       <c r="N55" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O55" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P55" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="3">
         <v>0</v>
@@ -8807,31 +10330,31 @@
     </row>
     <row r="56" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I56" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J56" s="3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K56" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L56" s="3">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="M56" s="3">
-        <v>17.583333333333332</v>
+        <v>15.882352941176471</v>
       </c>
       <c r="N56" s="3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O56" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="3">
         <v>0</v>
@@ -8842,25 +10365,25 @@
         <v>11</v>
       </c>
       <c r="I57" s="3">
+        <v>24</v>
+      </c>
+      <c r="J57" s="3">
+        <v>23</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
+        <v>230</v>
+      </c>
+      <c r="M57" s="3">
+        <v>12.777777777777779</v>
+      </c>
+      <c r="N57" s="3">
         <v>19</v>
       </c>
-      <c r="J57" s="3">
-        <v>18</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
-        <v>197</v>
-      </c>
-      <c r="M57" s="3">
-        <v>13.133333333333333</v>
-      </c>
-      <c r="N57" s="3">
-        <v>16</v>
-      </c>
       <c r="O57" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -8871,31 +10394,31 @@
     </row>
     <row r="58" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I58" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J58" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K58" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L58" s="3">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="M58" s="3">
-        <v>28.6</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="N58" s="3">
+        <v>13</v>
+      </c>
+      <c r="O58" s="3">
         <v>18</v>
       </c>
-      <c r="O58" s="3">
-        <v>4</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -8906,25 +10429,25 @@
         <v>23</v>
       </c>
       <c r="I59" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J59" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" s="3">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="M59" s="3">
-        <v>11.416666666666666</v>
+        <v>11.3125</v>
       </c>
       <c r="N59" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O59" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -8935,31 +10458,31 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I60" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J60" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="3">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M60" s="3">
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="N60" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O60" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -8967,31 +10490,31 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I61" s="3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="3">
         <v>15</v>
       </c>
-      <c r="J61" s="3">
-        <v>10</v>
-      </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M61" s="3">
-        <v>12.8</v>
+        <v>10.23076923076923</v>
       </c>
       <c r="N61" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O61" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -8999,31 +10522,31 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I62" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J62" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M62" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="N62" s="3">
         <v>11</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>5</v>
-      </c>
       <c r="P62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -9031,31 +10554,31 @@
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I63" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="3">
         <v>9</v>
       </c>
       <c r="K63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M63" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N63" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O63" s="3">
         <v>5</v>
       </c>
       <c r="P63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -9063,7 +10586,7 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="3">
         <v>10</v>
@@ -9072,19 +10595,19 @@
         <v>9</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M64" s="3">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="N64" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O64" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -9098,19 +10621,19 @@
         <v>22</v>
       </c>
       <c r="I65" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J65" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K65" s="3">
         <v>2</v>
       </c>
       <c r="L65" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M65" s="3">
-        <v>7.5555555555555554</v>
+        <v>6.9</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -9127,82 +10650,82 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I66" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J66" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M66" s="3">
-        <v>23</v>
+        <v>6.25</v>
       </c>
       <c r="N66" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O66" s="3">
-        <v>1</v>
-      </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I67" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J67" s="3">
+        <v>2</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>46</v>
+      </c>
+      <c r="M67" s="3">
+        <v>23</v>
+      </c>
+      <c r="N67" s="3">
         <v>5</v>
       </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
-        <v>35</v>
-      </c>
-      <c r="M67" s="3">
-        <v>7</v>
-      </c>
-      <c r="N67" s="3">
-        <v>1</v>
-      </c>
       <c r="O67" s="3">
-        <v>5</v>
-      </c>
-      <c r="P67" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I68" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K68" s="3">
         <v>2</v>
       </c>
       <c r="L68" s="3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M68" s="3">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
@@ -9215,26 +10738,28 @@
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I69" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J69" s="3">
-        <v>2</v>
-      </c>
-      <c r="K69" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
       <c r="L69" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M69" s="3">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="N69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P69" s="3">
         <v>0</v>
@@ -9245,28 +10770,26 @@
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I70" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J70" s="3">
-        <v>6</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M70" s="3">
-        <v>4.666666666666667</v>
+        <v>14.5</v>
       </c>
       <c r="N70" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -9277,13 +10800,13 @@
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I71" s="3">
         <v>2</v>
       </c>
       <c r="J71" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -9292,34 +10815,38 @@
         <v>19</v>
       </c>
       <c r="M71" s="3">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="N71" s="3">
-        <v>2</v>
-      </c>
-      <c r="O71" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1</v>
+      </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="3">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
       <c r="L72" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="3">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="N72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -9327,54 +10854,46 @@
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I73" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J73" s="3">
-        <v>7</v>
-      </c>
-      <c r="K73" s="3">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K73" s="3"/>
       <c r="L73" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M73" s="3">
-        <v>3.6666666666666665</v>
+        <v>13</v>
       </c>
       <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="O73" s="3">
-        <v>1</v>
-      </c>
-      <c r="P73" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I74" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J74" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K74" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M74" s="3">
-        <v>10</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
@@ -9382,12 +10901,16 @@
       <c r="O74" s="3">
         <v>1</v>
       </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I75" s="3">
         <v>2</v>
@@ -9396,15 +10919,17 @@
         <v>1</v>
       </c>
       <c r="K75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="3">
-        <v>9</v>
-      </c>
-      <c r="M75" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N75" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="M75" s="3">
+        <v>10</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
       <c r="O75" s="3">
         <v>1</v>
       </c>
@@ -9413,78 +10938,80 @@
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="3">
         <v>9</v>
       </c>
-      <c r="M76" s="3">
-        <v>9</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
+      <c r="M76" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N76" s="3"/>
       <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M77" s="3">
-        <v>7</v>
-      </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M78" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -9523,22 +11050,22 @@
     </row>
     <row r="80" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H80" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="3">
-        <v>4</v>
-      </c>
-      <c r="M80" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="M80" s="3">
+        <v>6</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -9547,10 +11074,10 @@
     </row>
     <row r="81" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H81" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" s="3">
         <v>1</v>
@@ -9564,37 +11091,29 @@
       <c r="M81" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I82" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
       </c>
       <c r="K82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="3">
-        <v>2</v>
-      </c>
-      <c r="M82" s="3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M82" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="N82" s="3">
         <v>0</v>
@@ -9602,24 +11121,28 @@
       <c r="O82" s="3">
         <v>0</v>
       </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H83" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I83" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>2</v>
@@ -9631,22 +11154,22 @@
     </row>
     <row r="84" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H84" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I84" s="3">
         <v>2</v>
       </c>
       <c r="J84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84" s="3">
         <v>0</v>
@@ -9659,7 +11182,7 @@
     </row>
     <row r="85" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H85" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I85" s="3">
         <v>2</v>
@@ -9667,12 +11190,14 @@
       <c r="J85" s="3">
         <v>1</v>
       </c>
-      <c r="K85" s="3"/>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
       <c r="L85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -9681,34 +11206,108 @@
     </row>
     <row r="86" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3">
+        <v>2</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3">
+        <v>1</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="3">
-        <v>353</v>
-      </c>
-      <c r="J86" s="3">
-        <v>312</v>
-      </c>
-      <c r="K86" s="3">
-        <v>62</v>
-      </c>
-      <c r="L86" s="3">
-        <v>4877</v>
-      </c>
-      <c r="M86" s="3">
-        <v>19.507999999999999</v>
-      </c>
-      <c r="N86" s="3">
-        <v>422</v>
-      </c>
-      <c r="O86" s="3">
-        <v>266</v>
-      </c>
-      <c r="P86" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>1</v>
+      <c r="I89" s="3">
+        <v>440</v>
+      </c>
+      <c r="J89" s="3">
+        <v>384</v>
+      </c>
+      <c r="K89" s="3">
+        <v>77</v>
+      </c>
+      <c r="L89" s="3">
+        <v>6158</v>
+      </c>
+      <c r="M89" s="3">
+        <v>20.058631921824105</v>
+      </c>
+      <c r="N89" s="3">
+        <v>559</v>
+      </c>
+      <c r="O89" s="3">
+        <v>311</v>
+      </c>
+      <c r="P89" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9718,10 +11317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S276"/>
+  <dimension ref="A1:S343"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S276"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19549,6 +21148,2096 @@
         <v>1</v>
       </c>
     </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>23</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>18</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>22</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="R277" t="s">
+        <v>3</v>
+      </c>
+      <c r="S277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>81</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>5</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>32</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="R278" t="s">
+        <v>3</v>
+      </c>
+      <c r="S278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>21</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>5</v>
+      </c>
+      <c r="M279">
+        <v>51</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="R279" t="s">
+        <v>3</v>
+      </c>
+      <c r="S279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>18</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>28</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="R280" t="s">
+        <v>17</v>
+      </c>
+      <c r="S280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>4</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>35</v>
+      </c>
+      <c r="N281">
+        <v>3</v>
+      </c>
+      <c r="R281" t="s">
+        <v>3</v>
+      </c>
+      <c r="S281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>48</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>120</v>
+      </c>
+      <c r="H282">
+        <v>17</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>5</v>
+      </c>
+      <c r="M282">
+        <v>57</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="R282" t="s">
+        <v>3</v>
+      </c>
+      <c r="S282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>20</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>26</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="R283" t="s">
+        <v>3</v>
+      </c>
+      <c r="S283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A284" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>88</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A285" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>7</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="R285" t="s">
+        <v>17</v>
+      </c>
+      <c r="S285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A286" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>24</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>39</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="R286" t="s">
+        <v>17</v>
+      </c>
+      <c r="S286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A287" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>62</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>54</v>
+      </c>
+      <c r="H287">
+        <v>6</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>6</v>
+      </c>
+      <c r="M287">
+        <v>39</v>
+      </c>
+      <c r="N287">
+        <v>6</v>
+      </c>
+      <c r="R287" t="s">
+        <v>3</v>
+      </c>
+      <c r="S287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A288" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>29</v>
+      </c>
+      <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>5</v>
+      </c>
+      <c r="M288">
+        <v>62</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="R288" t="s">
+        <v>3</v>
+      </c>
+      <c r="S288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A289" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>87</v>
+      </c>
+      <c r="H289">
+        <v>12</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>5</v>
+      </c>
+      <c r="M289">
+        <v>51</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="R289" t="s">
+        <v>3</v>
+      </c>
+      <c r="S289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A290" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>2</v>
+      </c>
+      <c r="R290" t="s">
+        <v>17</v>
+      </c>
+      <c r="S290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A291" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>24</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>27</v>
+      </c>
+      <c r="H291">
+        <v>3</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>37</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="R291" t="s">
+        <v>3</v>
+      </c>
+      <c r="S291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A292" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>89</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>4</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>31</v>
+      </c>
+      <c r="R292" t="s">
+        <v>3</v>
+      </c>
+      <c r="S292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A293" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>48</v>
+      </c>
+      <c r="R293" t="s">
+        <v>47</v>
+      </c>
+      <c r="S293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A294" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="R294" t="s">
+        <v>47</v>
+      </c>
+      <c r="S294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A295" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>62</v>
+      </c>
+      <c r="R295" t="s">
+        <v>47</v>
+      </c>
+      <c r="S295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A296" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>24</v>
+      </c>
+      <c r="R296" t="s">
+        <v>17</v>
+      </c>
+      <c r="S296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A297" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>21</v>
+      </c>
+      <c r="R297" t="s">
+        <v>17</v>
+      </c>
+      <c r="S297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A298" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
+      <c r="R298" t="s">
+        <v>17</v>
+      </c>
+      <c r="S298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A299" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>48</v>
+      </c>
+      <c r="R299" t="s">
+        <v>17</v>
+      </c>
+      <c r="S299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A300" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>90</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>19</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="R300" t="s">
+        <v>47</v>
+      </c>
+      <c r="S300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A301" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>25</v>
+      </c>
+      <c r="R301" t="s">
+        <v>3</v>
+      </c>
+      <c r="S301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A302" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>54</v>
+      </c>
+      <c r="R302" t="s">
+        <v>17</v>
+      </c>
+      <c r="S302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A303" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>25</v>
+      </c>
+      <c r="R303" t="s">
+        <v>17</v>
+      </c>
+      <c r="S303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A304" s="5">
+        <v>42257</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>9</v>
+      </c>
+      <c r="R304" t="s">
+        <v>17</v>
+      </c>
+      <c r="S304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A305" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>24</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>42</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="R305" t="s">
+        <v>3</v>
+      </c>
+      <c r="S305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A306" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>35</v>
+      </c>
+      <c r="H306">
+        <v>3</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>24</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A307" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>62</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>99</v>
+      </c>
+      <c r="H307">
+        <v>8</v>
+      </c>
+      <c r="I307">
+        <v>7</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>5</v>
+      </c>
+      <c r="M307">
+        <v>63</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="R307" t="s">
+        <v>3</v>
+      </c>
+      <c r="S307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A308" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>23</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>5</v>
+      </c>
+      <c r="M308">
+        <v>62</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="R308" t="s">
+        <v>3</v>
+      </c>
+      <c r="S308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A309" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>61</v>
+      </c>
+      <c r="H309">
+        <v>7</v>
+      </c>
+      <c r="I309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A310" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>10</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>4</v>
+      </c>
+      <c r="M310">
+        <v>58</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="R310" t="s">
+        <v>3</v>
+      </c>
+      <c r="S310">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A311" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>73</v>
+      </c>
+      <c r="H311">
+        <v>9</v>
+      </c>
+      <c r="I311">
+        <v>2</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>4</v>
+      </c>
+      <c r="M311">
+        <v>52</v>
+      </c>
+      <c r="N311">
+        <v>2</v>
+      </c>
+      <c r="R311" t="s">
+        <v>3</v>
+      </c>
+      <c r="S311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A312" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>22</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A313" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>50</v>
+      </c>
+      <c r="H313">
+        <v>6</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313">
+        <v>27</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="R313" t="s">
+        <v>3</v>
+      </c>
+      <c r="S313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A314" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
+      </c>
+      <c r="G314">
+        <v>39</v>
+      </c>
+      <c r="H314">
+        <v>4</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>5</v>
+      </c>
+      <c r="M314">
+        <v>68</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="R314" t="s">
+        <v>3</v>
+      </c>
+      <c r="S314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A315" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>89</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315">
+        <v>43</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="R315" t="s">
+        <v>3</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A316" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>89</v>
+      </c>
+      <c r="R316" t="s">
+        <v>47</v>
+      </c>
+      <c r="S316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A317" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>24</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>2</v>
+      </c>
+      <c r="M317">
+        <v>29</v>
+      </c>
+      <c r="N317">
+        <v>3</v>
+      </c>
+      <c r="R317" t="s">
+        <v>3</v>
+      </c>
+      <c r="S317">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A318" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
+      <c r="M318">
+        <v>45</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="R318" t="s">
+        <v>3</v>
+      </c>
+      <c r="S318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A319" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>100</v>
+      </c>
+      <c r="H319">
+        <v>13</v>
+      </c>
+      <c r="I319">
+        <v>4</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="L319">
+        <v>4</v>
+      </c>
+      <c r="M319">
+        <v>40</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="R319" t="s">
+        <v>3</v>
+      </c>
+      <c r="S319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A320" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>62</v>
+      </c>
+      <c r="R320" t="s">
+        <v>17</v>
+      </c>
+      <c r="S320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A321" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>21</v>
+      </c>
+      <c r="R321" t="s">
+        <v>17</v>
+      </c>
+      <c r="S321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A322" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="R322" t="s">
+        <v>17</v>
+      </c>
+      <c r="S322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A323" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>15</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A324" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>81</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A325" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>9</v>
+      </c>
+      <c r="R325" t="s">
+        <v>47</v>
+      </c>
+      <c r="S325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A326" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="R326" t="s">
+        <v>17</v>
+      </c>
+      <c r="S326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A327" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>19</v>
+      </c>
+      <c r="R327" t="s">
+        <v>17</v>
+      </c>
+      <c r="S327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A328" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R328" t="s">
+        <v>17</v>
+      </c>
+      <c r="S328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A329" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B329" t="s">
+        <v>38</v>
+      </c>
+      <c r="C329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>2</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>62</v>
+      </c>
+      <c r="H329">
+        <v>7</v>
+      </c>
+      <c r="I329">
+        <v>2</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+      <c r="L329">
+        <v>3</v>
+      </c>
+      <c r="M329">
+        <v>38</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="R329" t="s">
+        <v>3</v>
+      </c>
+      <c r="S329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A330" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B330" t="s">
+        <v>38</v>
+      </c>
+      <c r="C330" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>22</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="L330">
+        <v>6</v>
+      </c>
+      <c r="M330">
+        <v>78</v>
+      </c>
+      <c r="N330">
+        <v>2</v>
+      </c>
+      <c r="R330" t="s">
+        <v>3</v>
+      </c>
+      <c r="S330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A331" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B331" t="s">
+        <v>38</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>3</v>
+      </c>
+      <c r="L331">
+        <v>3</v>
+      </c>
+      <c r="M331">
+        <v>61</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="R331" t="s">
+        <v>3</v>
+      </c>
+      <c r="S331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A332" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B332" t="s">
+        <v>38</v>
+      </c>
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>2</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>2</v>
+      </c>
+      <c r="L332">
+        <v>2</v>
+      </c>
+      <c r="M332">
+        <v>34</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="R332" t="s">
+        <v>3</v>
+      </c>
+      <c r="S332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A333" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B333" t="s">
+        <v>38</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>15</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A334" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B334" t="s">
+        <v>38</v>
+      </c>
+      <c r="C334" t="s">
+        <v>62</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>13</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="L334">
+        <v>2</v>
+      </c>
+      <c r="M334">
+        <v>38</v>
+      </c>
+      <c r="R334" t="s">
+        <v>3</v>
+      </c>
+      <c r="S334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A335" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B335" t="s">
+        <v>38</v>
+      </c>
+      <c r="C335" t="s">
+        <v>48</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>87</v>
+      </c>
+      <c r="H335">
+        <v>10</v>
+      </c>
+      <c r="I335">
+        <v>4</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="L335">
+        <v>6</v>
+      </c>
+      <c r="M335">
+        <v>59</v>
+      </c>
+      <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="R335" t="s">
+        <v>3</v>
+      </c>
+      <c r="S335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A336" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B336" t="s">
+        <v>38</v>
+      </c>
+      <c r="C336" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>72</v>
+      </c>
+      <c r="H336">
+        <v>10</v>
+      </c>
+      <c r="I336">
+        <v>2</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A337" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B337" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337" t="s">
+        <v>24</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+      <c r="G337">
+        <v>3</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>34</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A338" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B338" t="s">
+        <v>38</v>
+      </c>
+      <c r="C338" t="s">
+        <v>23</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A339" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B339" t="s">
+        <v>38</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+      <c r="R339" t="s">
+        <v>47</v>
+      </c>
+      <c r="S339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A340" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B340" t="s">
+        <v>38</v>
+      </c>
+      <c r="C340" t="s">
+        <v>21</v>
+      </c>
+      <c r="R340" t="s">
+        <v>17</v>
+      </c>
+      <c r="S340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A341" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B341" t="s">
+        <v>38</v>
+      </c>
+      <c r="C341" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>7</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A342" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B342" t="s">
+        <v>38</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+      <c r="R342" t="s">
+        <v>47</v>
+      </c>
+      <c r="S342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A343" s="5">
+        <v>42263</v>
+      </c>
+      <c r="B343" t="s">
+        <v>38</v>
+      </c>
+      <c r="C343" t="s">
+        <v>9</v>
+      </c>
+      <c r="R343" t="s">
+        <v>17</v>
+      </c>
+      <c r="S343">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,21 @@
   <si>
     <t>Pankaj</t>
   </si>
+  <si>
+    <t>15/09/2015</t>
+  </si>
+  <si>
+    <t>16/09/2015</t>
+  </si>
+  <si>
+    <t>23/10/2015</t>
+  </si>
+  <si>
+    <t>Hammad</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
 </sst>
 </file>
 
@@ -379,13 +394,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42295.871618518519" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="342">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42317.445603819448" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="369">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="19">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="22">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -402,16 +417,19 @@
         <s v="27/9/2015"/>
         <d v="2015-03-10T00:00:00"/>
         <d v="2015-09-10T00:00:00"/>
-        <d v="2015-09-15T00:00:00"/>
-        <d v="2015-09-16T00:00:00"/>
+        <s v="15/09/2015"/>
+        <s v="16/09/2015"/>
+        <s v="23/10/2015"/>
         <s v="21/8/2015" u="1"/>
+        <d v="2015-09-16T00:00:00" u="1"/>
+        <d v="2015-09-15T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MatchType" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="43">
+      <sharedItems count="45">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -453,6 +471,8 @@
         <s v="Raza"/>
         <s v="Ameer"/>
         <s v="Pankaj"/>
+        <s v="Hammad"/>
+        <s v="Amir"/>
         <s v="Kalem" u="1"/>
         <s v="Omer" u="1"/>
       </sharedItems>
@@ -518,7 +538,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="342">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="369">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -7700,21 +7720,588 @@
     <m/>
     <s v="Catches"/>
     <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="60"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="41"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="110"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="81"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="4"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="46"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="43"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="34"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="41"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="32"/>
+    <n v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="86"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="87"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="93"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="67"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="63"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="42"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="39"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="20">
+      <items count="23">
         <item x="2"/>
         <item x="11"/>
         <item x="4"/>
-        <item x="17"/>
-        <item x="16"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
         <item x="15"/>
         <item x="6"/>
         <item x="1"/>
@@ -7724,17 +8311,20 @@
         <item x="0"/>
         <item x="13"/>
         <item x="9"/>
-        <item m="1" x="18"/>
+        <item x="18"/>
+        <item m="1" x="19"/>
         <item x="3"/>
         <item x="12"/>
         <item x="8"/>
+        <item x="17"/>
+        <item x="16"/>
         <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="44">
+      <items count="46">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -7752,7 +8342,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="42"/>
+        <item m="1" x="44"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -7765,7 +8355,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="41"/>
+        <item m="1" x="43"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -7778,6 +8368,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7804,18 +8396,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -7836,13 +8422,22 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -7876,13 +8471,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:Q89" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="43">
+      <items count="45">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -7898,7 +8493,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="42"/>
+        <item m="1" x="44"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -7913,7 +8508,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="41"/>
+        <item m="1" x="43"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -7926,271 +8521,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="42">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <dataFields count="9">
-    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
-    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="43">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item m="1" x="42"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="41"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -8225,15 +8557,15 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="44">
     <i>
       <x v="27"/>
     </i>
     <i>
-      <x v="13"/>
+      <x/>
     </i>
     <i>
-      <x/>
+      <x v="13"/>
     </i>
     <i>
       <x v="12"/>
@@ -8251,31 +8583,31 @@
       <x v="19"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="21"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="18"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="33"/>
@@ -8284,10 +8616,67 @@
       <x v="38"/>
     </i>
     <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
       <x v="24"/>
     </i>
     <i>
       <x v="26"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="4"/>
@@ -8297,57 +8686,6 @@
     </i>
     <i>
       <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="25"/>
     </i>
     <i t="grand">
       <x/>
@@ -8417,8 +8755,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -8462,9 +8800,282 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H58:Q102" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="45">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="43"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="44">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S343" totalsRowShown="0">
-  <autoFilter ref="A1:S343"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S370" totalsRowShown="0">
+  <autoFilter ref="A1:S370"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
@@ -8753,7 +9364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -8812,134 +9423,145 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>42262</v>
+        <v>42130</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>42257</v>
+        <v>42103</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>42130</v>
+      <c r="A9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>42103</v>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3">
-        <v>485</v>
+      <c r="B18" s="3">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -8949,10 +9571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q89"/>
+  <dimension ref="A3:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8962,14 +9584,13 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9007,25 +9628,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>6158</v>
+        <v>6687</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" s="3">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="L4" s="3">
-        <v>10.759493670886076</v>
+        <v>10.759036144578314</v>
       </c>
       <c r="M4" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -9039,22 +9660,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K5" s="3">
-        <v>658</v>
+        <v>767</v>
       </c>
       <c r="L5" s="3">
-        <v>11.152542372881356</v>
+        <v>10.364864864864865</v>
       </c>
       <c r="M5" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -9062,28 +9683,26 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K6" s="3">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="L6" s="3">
-        <v>9.8550724637681153</v>
+        <v>11.152542372881356</v>
       </c>
       <c r="M6" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -9091,14 +9710,16 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3">
         <v>58</v>
@@ -9156,19 +9777,19 @@
         <v>9</v>
       </c>
       <c r="I9" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K9" s="3">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="L9" s="3">
-        <v>13.102040816326531</v>
+        <v>13.641509433962264</v>
       </c>
       <c r="M9" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -9185,19 +9806,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="L10" s="3">
-        <v>9.75</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="M10" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -9214,16 +9835,16 @@
         <v>19</v>
       </c>
       <c r="I11" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="L11" s="3">
-        <v>12.405405405405405</v>
+        <v>12.153846153846153</v>
       </c>
       <c r="M11" s="3">
         <v>14</v>
@@ -9240,45 +9861,51 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J12" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K12" s="3">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="L12" s="3">
-        <v>10.911764705882353</v>
+        <v>12.025</v>
       </c>
       <c r="M12" s="3">
-        <v>12</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K13" s="3">
-        <v>252</v>
+        <v>412</v>
       </c>
       <c r="L13" s="3">
-        <v>10.5</v>
+        <v>10.842105263157896</v>
       </c>
       <c r="M13" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -9289,19 +9916,19 @@
         <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="L14" s="3">
-        <v>14.65</v>
+        <v>14.476190476190476</v>
       </c>
       <c r="M14" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -9315,51 +9942,45 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I15" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K15" s="3">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="L15" s="3">
-        <v>9.9444444444444446</v>
+        <v>10.5</v>
       </c>
       <c r="M15" s="3">
-        <v>9</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K16" s="3">
-        <v>388</v>
+        <v>179</v>
       </c>
       <c r="L16" s="3">
-        <v>11.411764705882353</v>
+        <v>9.9444444444444446</v>
       </c>
       <c r="M16" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -9402,26 +10023,32 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L18" s="3">
-        <v>7.75</v>
+        <v>15.7</v>
       </c>
       <c r="M18" s="3">
-        <v>2</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
@@ -9454,32 +10081,26 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I20" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>15.857142857142858</v>
+        <v>7.75</v>
       </c>
       <c r="M20" s="3">
         <v>2</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
@@ -9529,19 +10150,19 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I23" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J23" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K23" s="3">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="L23" s="3">
-        <v>17.5</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
@@ -9552,19 +10173,19 @@
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="3">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L24" s="3">
-        <v>19</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
@@ -9575,145 +10196,133 @@
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>35</v>
+      </c>
+      <c r="L25" s="3">
+        <v>17.5</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3">
+        <v>19</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I27" s="3">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
       </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
@@ -9730,56 +10339,56 @@
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I32" s="3">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
       <c r="L32" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I33" s="3">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3">
         <v>16</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -9799,16 +10408,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I35" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -9828,38 +10435,28 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I36" s="3">
-        <v>10</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" s="2" t="s">
         <v>85</v>
       </c>
@@ -9876,9 +10473,9 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -9893,7 +10490,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" s="2" t="s">
         <v>87</v>
       </c>
@@ -9910,9 +10507,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I40" s="3">
         <v>2</v>
@@ -9927,32 +10524,38 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I41" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J41" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>74</v>
-      </c>
-      <c r="L41" s="3">
-        <v>24.666666666666668</v>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I42" s="3">
         <v>2</v>
@@ -9967,554 +10570,350 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I43" s="3">
-        <v>2</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
       <c r="L43" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I44" s="3">
-        <v>2</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
       <c r="L44" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I45" s="3">
-        <v>440</v>
-      </c>
-      <c r="J45" s="3">
-        <v>603</v>
-      </c>
-      <c r="K45" s="3">
-        <v>6734</v>
-      </c>
-      <c r="L45" s="3">
-        <v>11.167495854063018</v>
-      </c>
-      <c r="M45" s="3">
-        <v>247</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="3">
+        <v>7</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H47" s="1" t="s">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="3">
+        <v>475</v>
+      </c>
+      <c r="J47" s="3">
+        <v>643</v>
+      </c>
+      <c r="K47" s="3">
+        <v>7319</v>
+      </c>
+      <c r="L47" s="3">
+        <v>11.382581648522551</v>
+      </c>
+      <c r="M47" s="3">
+        <v>264</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I58" t="s">
         <v>70</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J58" t="s">
         <v>71</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K58" t="s">
         <v>72</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L58" t="s">
         <v>73</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M58" t="s">
         <v>74</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N58" t="s">
         <v>75</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O58" t="s">
         <v>76</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P58" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q58" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="3">
-        <v>24</v>
-      </c>
-      <c r="J48" s="3">
-        <v>22</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>818</v>
-      </c>
-      <c r="M48" s="3">
-        <v>45.444444444444443</v>
-      </c>
-      <c r="N48" s="3">
-        <v>87</v>
-      </c>
-      <c r="O48" s="3">
-        <v>43</v>
-      </c>
-      <c r="P48" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="3">
-        <v>30</v>
-      </c>
-      <c r="J49" s="3">
-        <v>30</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7</v>
-      </c>
-      <c r="L49" s="3">
-        <v>750</v>
-      </c>
-      <c r="M49" s="3">
-        <v>32.608695652173914</v>
-      </c>
-      <c r="N49" s="3">
-        <v>66</v>
-      </c>
-      <c r="O49" s="3">
-        <v>43</v>
-      </c>
-      <c r="P49" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="3">
-        <v>23</v>
-      </c>
-      <c r="J50" s="3">
-        <v>23</v>
-      </c>
-      <c r="K50" s="3">
-        <v>3</v>
-      </c>
-      <c r="L50" s="3">
-        <v>603</v>
-      </c>
-      <c r="M50" s="3">
-        <v>30.15</v>
-      </c>
-      <c r="N50" s="3">
-        <v>68</v>
-      </c>
-      <c r="O50" s="3">
-        <v>19</v>
-      </c>
-      <c r="P50" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="3">
-        <v>22</v>
-      </c>
-      <c r="J51" s="3">
-        <v>22</v>
-      </c>
-      <c r="K51" s="3">
-        <v>5</v>
-      </c>
-      <c r="L51" s="3">
-        <v>485</v>
-      </c>
-      <c r="M51" s="3">
-        <v>28.529411764705884</v>
-      </c>
-      <c r="N51" s="3">
-        <v>33</v>
-      </c>
-      <c r="O51" s="3">
-        <v>35</v>
-      </c>
-      <c r="P51" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="3">
-        <v>25</v>
-      </c>
-      <c r="J52" s="3">
-        <v>24</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>479</v>
-      </c>
-      <c r="M52" s="3">
-        <v>23.95</v>
-      </c>
-      <c r="N52" s="3">
-        <v>47</v>
-      </c>
-      <c r="O52" s="3">
-        <v>21</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="3">
-        <v>31</v>
-      </c>
-      <c r="J53" s="3">
-        <v>28</v>
-      </c>
-      <c r="K53" s="3">
-        <v>3</v>
-      </c>
-      <c r="L53" s="3">
-        <v>459</v>
-      </c>
-      <c r="M53" s="3">
-        <v>18.36</v>
-      </c>
-      <c r="N53" s="3">
-        <v>55</v>
-      </c>
-      <c r="O53" s="3">
-        <v>17</v>
-      </c>
-      <c r="P53" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="3">
-        <v>16</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
-        <v>350</v>
-      </c>
-      <c r="M54" s="3">
-        <v>50</v>
-      </c>
-      <c r="N54" s="3">
-        <v>45</v>
-      </c>
-      <c r="O54" s="3">
-        <v>9</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="3">
-        <v>18</v>
-      </c>
-      <c r="J55" s="3">
-        <v>16</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3">
-        <v>346</v>
-      </c>
-      <c r="M55" s="3">
-        <v>23.066666666666666</v>
-      </c>
-      <c r="N55" s="3">
-        <v>35</v>
-      </c>
-      <c r="O55" s="3">
-        <v>17</v>
-      </c>
-      <c r="P55" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="3">
-        <v>32</v>
-      </c>
-      <c r="J56" s="3">
-        <v>26</v>
-      </c>
-      <c r="K56" s="3">
-        <v>9</v>
-      </c>
-      <c r="L56" s="3">
-        <v>270</v>
-      </c>
-      <c r="M56" s="3">
-        <v>15.882352941176471</v>
-      </c>
-      <c r="N56" s="3">
-        <v>25</v>
-      </c>
-      <c r="O56" s="3">
-        <v>11</v>
-      </c>
-      <c r="P56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="3">
-        <v>24</v>
-      </c>
-      <c r="J57" s="3">
-        <v>23</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
-        <v>230</v>
-      </c>
-      <c r="M57" s="3">
-        <v>12.777777777777779</v>
-      </c>
-      <c r="N57" s="3">
-        <v>19</v>
-      </c>
-      <c r="O57" s="3">
-        <v>13</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="3">
-        <v>16</v>
-      </c>
-      <c r="J58" s="3">
-        <v>14</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2</v>
-      </c>
-      <c r="L58" s="3">
-        <v>211</v>
-      </c>
-      <c r="M58" s="3">
-        <v>17.583333333333332</v>
-      </c>
-      <c r="N58" s="3">
-        <v>13</v>
-      </c>
-      <c r="O58" s="3">
-        <v>18</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I59" s="3">
         <v>26</v>
       </c>
       <c r="J59" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L59" s="3">
-        <v>181</v>
+        <v>824</v>
       </c>
       <c r="M59" s="3">
-        <v>11.3125</v>
+        <v>41.2</v>
       </c>
       <c r="N59" s="3">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="O59" s="3">
+        <v>43</v>
+      </c>
+      <c r="P59" s="3">
         <v>9</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I60" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J60" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K60" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L60" s="3">
-        <v>147</v>
+        <v>785</v>
       </c>
       <c r="M60" s="3">
-        <v>12.25</v>
+        <v>31.4</v>
       </c>
       <c r="N60" s="3">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="O60" s="3">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3">
         <v>25</v>
       </c>
-      <c r="I61" s="3">
-        <v>18</v>
-      </c>
       <c r="J61" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K61" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61" s="3">
-        <v>133</v>
+        <v>620</v>
       </c>
       <c r="M61" s="3">
-        <v>10.23076923076923</v>
+        <v>29.523809523809526</v>
       </c>
       <c r="N61" s="3">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="O61" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P61" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -10522,31 +10921,31 @@
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I62" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J62" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L62" s="3">
-        <v>128</v>
+        <v>595</v>
       </c>
       <c r="M62" s="3">
-        <v>12.8</v>
+        <v>31.315789473684209</v>
       </c>
       <c r="N62" s="3">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O62" s="3">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -10554,31 +10953,31 @@
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I63" s="3">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J63" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L63" s="3">
-        <v>88</v>
+        <v>545</v>
       </c>
       <c r="M63" s="3">
-        <v>11</v>
+        <v>20.96153846153846</v>
       </c>
       <c r="N63" s="3">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="O63" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -10586,31 +10985,31 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I64" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K64" s="3">
         <v>4</v>
       </c>
       <c r="L64" s="3">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="M64" s="3">
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="N64" s="3">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O64" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P64" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="3">
         <v>0</v>
@@ -10618,31 +11017,31 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I65" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J65" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="M65" s="3">
-        <v>6.9</v>
+        <v>22.470588235294116</v>
       </c>
       <c r="N65" s="3">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="O65" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="P65" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="3">
         <v>0</v>
@@ -10650,119 +11049,127 @@
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I66" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J66" s="3">
+        <v>12</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
+        <v>350</v>
+      </c>
+      <c r="M66" s="3">
+        <v>50</v>
+      </c>
+      <c r="N66" s="3">
+        <v>45</v>
+      </c>
+      <c r="O66" s="3">
         <v>9</v>
       </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3">
-        <v>50</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2</v>
-      </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I67" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K67" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L67" s="3">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="M67" s="3">
-        <v>23</v>
+        <v>15.421052631578947</v>
       </c>
       <c r="N67" s="3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="O67" s="3">
-        <v>1</v>
-      </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="P67" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I68" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J68" s="3">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K68" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L68" s="3">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="M68" s="3">
-        <v>7.6</v>
+        <v>15.444444444444445</v>
       </c>
       <c r="N68" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O68" s="3">
-        <v>3</v>
-      </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I69" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J69" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K69" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" s="3">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="M69" s="3">
-        <v>7</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="N69" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O69" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -10770,26 +11177,28 @@
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I70" s="3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J70" s="3">
-        <v>2</v>
-      </c>
-      <c r="K70" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3</v>
+      </c>
       <c r="L70" s="3">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="M70" s="3">
-        <v>14.5</v>
+        <v>10.882352941176471</v>
       </c>
       <c r="N70" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O70" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -10800,109 +11209,127 @@
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I71" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J71" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K71" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" s="3">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="M71" s="3">
-        <v>19</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="N71" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O71" s="3">
-        <v>1</v>
-      </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I72" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J72" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K72" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" s="3">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="M72" s="3">
-        <v>9.5</v>
+        <v>11.928571428571429</v>
       </c>
       <c r="N72" s="3">
-        <v>2</v>
-      </c>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="O72" s="3">
+        <v>14</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I73" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
       <c r="L73" s="3">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M73" s="3">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="N73" s="3">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="O73" s="3">
+        <v>8</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I74" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J74" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K74" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L74" s="3">
+        <v>88</v>
+      </c>
+      <c r="M74" s="3">
         <v>11</v>
       </c>
-      <c r="M74" s="3">
-        <v>3.6666666666666665</v>
-      </c>
       <c r="N74" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O74" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -10910,82 +11337,92 @@
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I75" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J75" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K75" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M75" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="3">
-        <v>1</v>
-      </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I76" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J76" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K76" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" s="3">
-        <v>9</v>
-      </c>
-      <c r="M76" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N76" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="M76" s="3">
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
       <c r="O76" s="3">
-        <v>1</v>
-      </c>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I77" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J77" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="3">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="M77" s="3">
-        <v>9</v>
+        <v>7.4444444444444446</v>
       </c>
       <c r="N77" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O77" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P77" s="3">
         <v>0</v>
@@ -10996,7 +11433,7 @@
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I78" s="3">
         <v>2</v>
@@ -11005,156 +11442,172 @@
         <v>2</v>
       </c>
       <c r="K78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="3">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M78" s="3">
-        <v>7</v>
-      </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="N78" s="3">
+        <v>5</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H79" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I79" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J79" s="3">
-        <v>1</v>
-      </c>
-      <c r="K79" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="K79" s="3">
+        <v>2</v>
+      </c>
       <c r="L79" s="3">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M79" s="3">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="N79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="3">
-        <v>0</v>
-      </c>
-      <c r="P79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I80" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J80" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="M80" s="3">
-        <v>6</v>
-      </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3">
+        <v>5</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H81" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="I81" s="3">
         <v>2</v>
       </c>
       <c r="J81" s="3">
-        <v>1</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K81" s="3"/>
       <c r="L81" s="3">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M81" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="3">
-        <v>4</v>
-      </c>
-      <c r="M82" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>25</v>
+      </c>
+      <c r="M82" s="3">
+        <v>12.5</v>
       </c>
       <c r="N82" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O82" s="3">
         <v>0</v>
       </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H83" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I83" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
       </c>
       <c r="L83" s="3">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2</v>
-      </c>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="M83" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2</v>
+      </c>
+      <c r="O83" s="3">
+        <v>1</v>
+      </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H84" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I84" s="3">
         <v>2</v>
@@ -11166,71 +11619,77 @@
         <v>0</v>
       </c>
       <c r="L84" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M84" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H85" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I85" s="3">
         <v>2</v>
       </c>
       <c r="J85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
       </c>
       <c r="L85" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M85" s="3">
-        <v>2</v>
-      </c>
-      <c r="N85" s="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="N85" s="3">
+        <v>2</v>
+      </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I86" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M86" s="3">
-        <v>1</v>
-      </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H87" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I87" s="3">
         <v>2</v>
@@ -11240,73 +11699,425 @@
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M87" s="3">
-        <v>1</v>
-      </c>
-      <c r="N87" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1</v>
+      </c>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H88" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I88" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J88" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K88" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M88" s="3">
-        <v>1</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N88" s="3">
         <v>0</v>
       </c>
       <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3">
+        <v>10</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1</v>
+      </c>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>9</v>
+      </c>
+      <c r="M90" s="3">
+        <v>9</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>9</v>
+      </c>
+      <c r="M91" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3">
+        <v>1</v>
+      </c>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2</v>
+      </c>
+      <c r="L92" s="3">
+        <v>6</v>
+      </c>
+      <c r="M92" s="3">
+        <v>6</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3">
+        <v>6</v>
+      </c>
+      <c r="M93" s="3">
+        <v>6</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="3">
+        <v>6</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1</v>
+      </c>
+      <c r="L95" s="3">
+        <v>4</v>
+      </c>
+      <c r="M95" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
+      <c r="L96" s="3">
+        <v>4</v>
+      </c>
+      <c r="M96" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H97" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>2</v>
+      </c>
+      <c r="M97" s="3">
+        <v>2</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>2</v>
+      </c>
+      <c r="M98" s="3">
+        <v>2</v>
+      </c>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>1</v>
+      </c>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I89" s="3">
-        <v>440</v>
-      </c>
-      <c r="J89" s="3">
-        <v>384</v>
-      </c>
-      <c r="K89" s="3">
-        <v>77</v>
-      </c>
-      <c r="L89" s="3">
-        <v>6158</v>
-      </c>
-      <c r="M89" s="3">
-        <v>20.058631921824105</v>
-      </c>
-      <c r="N89" s="3">
-        <v>559</v>
-      </c>
-      <c r="O89" s="3">
-        <v>311</v>
-      </c>
-      <c r="P89" s="3">
-        <v>32</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="I102" s="3">
+        <v>475</v>
+      </c>
+      <c r="J102" s="3">
+        <v>413</v>
+      </c>
+      <c r="K102" s="3">
+        <v>84</v>
+      </c>
+      <c r="L102" s="3">
+        <v>6687</v>
+      </c>
+      <c r="M102" s="3">
+        <v>20.325227963525837</v>
+      </c>
+      <c r="N102" s="3">
+        <v>614</v>
+      </c>
+      <c r="O102" s="3">
+        <v>336</v>
+      </c>
+      <c r="P102" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3</v>
       </c>
     </row>
@@ -11317,10 +12128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S343"/>
+  <dimension ref="A1:S370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S343"/>
+      <selection activeCell="A2" sqref="A2:S370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22012,8 +22823,8 @@
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A305" s="5">
-        <v>42262</v>
+      <c r="A305" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -22056,8 +22867,8 @@
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A306" s="5">
-        <v>42262</v>
+      <c r="A306" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -22094,8 +22905,8 @@
       </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A307" s="5">
-        <v>42262</v>
+      <c r="A307" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -22144,8 +22955,8 @@
       </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A308" s="5">
-        <v>42262</v>
+      <c r="A308" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -22188,8 +22999,8 @@
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A309" s="5">
-        <v>42262</v>
+      <c r="A309" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -22217,8 +23028,8 @@
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A310" s="5">
-        <v>42262</v>
+      <c r="A310" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -22261,8 +23072,8 @@
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A311" s="5">
-        <v>42262</v>
+      <c r="A311" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -22311,8 +23122,8 @@
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A312" s="5">
-        <v>42262</v>
+      <c r="A312" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -22334,8 +23145,8 @@
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A313" s="5">
-        <v>42262</v>
+      <c r="A313" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -22384,8 +23195,8 @@
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A314" s="5">
-        <v>42262</v>
+      <c r="A314" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -22428,8 +23239,8 @@
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A315" s="5">
-        <v>42262</v>
+      <c r="A315" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -22466,8 +23277,8 @@
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A316" s="5">
-        <v>42262</v>
+      <c r="A316" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -22483,8 +23294,8 @@
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A317" s="5">
-        <v>42262</v>
+      <c r="A317" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -22518,8 +23329,8 @@
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A318" s="5">
-        <v>42262</v>
+      <c r="A318" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -22556,8 +23367,8 @@
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A319" s="5">
-        <v>42262</v>
+      <c r="A319" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -22603,8 +23414,8 @@
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A320" s="5">
-        <v>42262</v>
+      <c r="A320" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -22620,8 +23431,8 @@
       </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A321" s="5">
-        <v>42262</v>
+      <c r="A321" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -22637,8 +23448,8 @@
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A322" s="5">
-        <v>42262</v>
+      <c r="A322" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -22654,8 +23465,8 @@
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A323" s="5">
-        <v>42262</v>
+      <c r="A323" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -22683,8 +23494,8 @@
       </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A324" s="5">
-        <v>42262</v>
+      <c r="A324" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -22706,8 +23517,8 @@
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A325" s="5">
-        <v>42262</v>
+      <c r="A325" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -22723,8 +23534,8 @@
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A326" s="5">
-        <v>42262</v>
+      <c r="A326" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -22740,8 +23551,8 @@
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A327" s="5">
-        <v>42262</v>
+      <c r="A327" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -22757,8 +23568,8 @@
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A328" s="5">
-        <v>42262</v>
+      <c r="A328" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -22774,8 +23585,8 @@
       </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A329" s="5">
-        <v>42263</v>
+      <c r="A329" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B329" t="s">
         <v>38</v>
@@ -22821,8 +23632,8 @@
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A330" s="5">
-        <v>42263</v>
+      <c r="A330" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B330" t="s">
         <v>38</v>
@@ -22865,8 +23676,8 @@
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A331" s="5">
-        <v>42263</v>
+      <c r="A331" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B331" t="s">
         <v>38</v>
@@ -22903,8 +23714,8 @@
       </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A332" s="5">
-        <v>42263</v>
+      <c r="A332" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B332" t="s">
         <v>38</v>
@@ -22941,8 +23752,8 @@
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A333" s="5">
-        <v>42263</v>
+      <c r="A333" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B333" t="s">
         <v>38</v>
@@ -22970,8 +23781,8 @@
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A334" s="5">
-        <v>42263</v>
+      <c r="A334" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B334" t="s">
         <v>38</v>
@@ -23011,8 +23822,8 @@
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A335" s="5">
-        <v>42263</v>
+      <c r="A335" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
@@ -23058,8 +23869,8 @@
       </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A336" s="5">
-        <v>42263</v>
+      <c r="A336" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B336" t="s">
         <v>38</v>
@@ -23090,8 +23901,8 @@
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A337" s="5">
-        <v>42263</v>
+      <c r="A337" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B337" t="s">
         <v>38</v>
@@ -23122,8 +23933,8 @@
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A338" s="5">
-        <v>42263</v>
+      <c r="A338" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B338" t="s">
         <v>38</v>
@@ -23145,8 +23956,8 @@
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A339" s="5">
-        <v>42263</v>
+      <c r="A339" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B339" t="s">
         <v>38</v>
@@ -23162,8 +23973,8 @@
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A340" s="5">
-        <v>42263</v>
+      <c r="A340" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B340" t="s">
         <v>38</v>
@@ -23179,8 +23990,8 @@
       </c>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A341" s="5">
-        <v>42263</v>
+      <c r="A341" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B341" t="s">
         <v>38</v>
@@ -23205,8 +24016,8 @@
       </c>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A342" s="5">
-        <v>42263</v>
+      <c r="A342" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B342" t="s">
         <v>38</v>
@@ -23222,8 +24033,8 @@
       </c>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A343" s="5">
-        <v>42263</v>
+      <c r="A343" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B343" t="s">
         <v>38</v>
@@ -23236,6 +24047,870 @@
       </c>
       <c r="S343">
         <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>93</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>22</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>11</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>93</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>24</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>8</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>11</v>
+      </c>
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="R345" t="s">
+        <v>3</v>
+      </c>
+      <c r="S345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>93</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>25</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>34</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>5</v>
+      </c>
+      <c r="L346">
+        <v>4</v>
+      </c>
+      <c r="M346">
+        <v>60</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="R346" t="s">
+        <v>3</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>93</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>94</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>25</v>
+      </c>
+      <c r="H347">
+        <v>3</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>3</v>
+      </c>
+      <c r="M347">
+        <v>41</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="R347" t="s">
+        <v>3</v>
+      </c>
+      <c r="S347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>93</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>110</v>
+      </c>
+      <c r="H348">
+        <v>15</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>4</v>
+      </c>
+      <c r="M348">
+        <v>81</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="R348" t="s">
+        <v>47</v>
+      </c>
+      <c r="S348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>93</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>36</v>
+      </c>
+      <c r="H349">
+        <v>4</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+      <c r="L349">
+        <v>3</v>
+      </c>
+      <c r="M349">
+        <v>46</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="R349" t="s">
+        <v>3</v>
+      </c>
+      <c r="S349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>93</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="E350">
+        <v>2</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>6</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>93</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>62</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+      <c r="E351">
+        <v>2</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>35</v>
+      </c>
+      <c r="H351">
+        <v>4</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351">
+        <v>43</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="R351" t="s">
+        <v>17</v>
+      </c>
+      <c r="S351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>93</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>84</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352">
+        <v>2</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>7</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>93</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>54</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>16</v>
+      </c>
+      <c r="H353">
+        <v>2</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>4</v>
+      </c>
+      <c r="M353">
+        <v>41</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="R353" t="s">
+        <v>3</v>
+      </c>
+      <c r="S353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>93</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354">
+        <v>2</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>32</v>
+      </c>
+      <c r="H354">
+        <v>3</v>
+      </c>
+      <c r="I354">
+        <v>2</v>
+      </c>
+      <c r="R354" t="s">
+        <v>17</v>
+      </c>
+      <c r="S354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>93</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+      <c r="E355">
+        <v>2</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>86</v>
+      </c>
+      <c r="H355">
+        <v>9</v>
+      </c>
+      <c r="I355">
+        <v>6</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>15</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="R355" t="s">
+        <v>3</v>
+      </c>
+      <c r="S355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>93</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>21</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>2</v>
+      </c>
+      <c r="F356">
+        <v>1</v>
+      </c>
+      <c r="G356">
+        <v>17</v>
+      </c>
+      <c r="H356">
+        <v>2</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>5</v>
+      </c>
+      <c r="M356">
+        <v>87</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="R356" t="s">
+        <v>17</v>
+      </c>
+      <c r="S356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>93</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>23</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>4</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>6</v>
+      </c>
+      <c r="M357">
+        <v>93</v>
+      </c>
+      <c r="N357">
+        <v>6</v>
+      </c>
+      <c r="R357" t="s">
+        <v>3</v>
+      </c>
+      <c r="S357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>93</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>89</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>4</v>
+      </c>
+      <c r="M358">
+        <v>67</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="R358" t="s">
+        <v>17</v>
+      </c>
+      <c r="S358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>93</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>63</v>
+      </c>
+      <c r="H359">
+        <v>7</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="R359" t="s">
+        <v>17</v>
+      </c>
+      <c r="S359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>93</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="R360" t="s">
+        <v>17</v>
+      </c>
+      <c r="S360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>93</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>17</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>93</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>95</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>21</v>
+      </c>
+      <c r="H362">
+        <v>2</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>93</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>62</v>
+      </c>
+      <c r="R363" t="s">
+        <v>3</v>
+      </c>
+      <c r="S363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>93</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>94</v>
+      </c>
+      <c r="R364" t="s">
+        <v>47</v>
+      </c>
+      <c r="S364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>93</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="R365" t="s">
+        <v>3</v>
+      </c>
+      <c r="S365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>93</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>12</v>
+      </c>
+      <c r="R366" t="s">
+        <v>47</v>
+      </c>
+      <c r="S366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>93</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>89</v>
+      </c>
+      <c r="R367" t="s">
+        <v>47</v>
+      </c>
+      <c r="S367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>93</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>89</v>
+      </c>
+      <c r="R368" t="s">
+        <v>3</v>
+      </c>
+      <c r="S368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>93</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>23</v>
+      </c>
+      <c r="R369" t="s">
+        <v>47</v>
+      </c>
+      <c r="S369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>93</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>21</v>
+      </c>
+      <c r="R370" t="s">
+        <v>3</v>
+      </c>
+      <c r="S370">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -318,6 +318,12 @@
   <si>
     <t>Amir</t>
   </si>
+  <si>
+    <t>20/11/2015</t>
+  </si>
+  <si>
+    <t>Waheed</t>
+  </si>
 </sst>
 </file>
 
@@ -394,13 +400,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42317.445603819448" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="369">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42355.624892245367" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="408">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="22">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="25">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -420,6 +426,9 @@
         <s v="15/09/2015"/>
         <s v="16/09/2015"/>
         <s v="23/10/2015"/>
+        <s v="20/11/2015"/>
+        <d v="2015-04-12T00:00:00"/>
+        <d v="2015-11-12T00:00:00"/>
         <s v="21/8/2015" u="1"/>
         <d v="2015-09-16T00:00:00" u="1"/>
         <d v="2015-09-15T00:00:00" u="1"/>
@@ -429,7 +438,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Player" numFmtId="0">
-      <sharedItems count="45">
+      <sharedItems count="46">
         <s v="Khalid"/>
         <s v="Mahjoob"/>
         <s v="Shakir"/>
@@ -473,6 +482,7 @@
         <s v="Pankaj"/>
         <s v="Hammad"/>
         <s v="Amir"/>
+        <s v="Waheed"/>
         <s v="Kalem" u="1"/>
         <s v="Omer" u="1"/>
       </sharedItems>
@@ -523,7 +533,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
     </cacheField>
     <cacheField name="Econ" numFmtId="0" formula="RunsConceded/Overs" databaseField="0"/>
     <cacheField name="AvgW" numFmtId="0" formula="RunsConceded/Wickets" databaseField="0"/>
@@ -538,7 +548,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="369">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="408">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -8287,24 +8297,845 @@
     <m/>
     <s v="Wides"/>
     <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="43"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="4"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="38"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="40"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="57"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="37"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="82"/>
+    <n v="5"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="53"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="26"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="67"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="17"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="35"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="43"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="55"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <n v="5"/>
+    <n v="38"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="42"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Domestic"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="52"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="91"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="44"/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="42"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="47"/>
+    <n v="5"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="28"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="29"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="43"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="23">
+      <items count="26">
         <item x="2"/>
+        <item x="21"/>
         <item x="11"/>
         <item x="4"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="15"/>
         <item x="6"/>
         <item x="1"/>
+        <item x="20"/>
         <item x="10"/>
         <item x="14"/>
         <item x="5"/>
@@ -8312,7 +9143,8 @@
         <item x="13"/>
         <item x="9"/>
         <item x="18"/>
-        <item m="1" x="19"/>
+        <item m="1" x="22"/>
+        <item x="19"/>
         <item x="3"/>
         <item x="12"/>
         <item x="8"/>
@@ -8324,7 +9156,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="46">
+      <items count="47">
         <item x="14"/>
         <item x="3"/>
         <item x="20"/>
@@ -8342,7 +9174,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="44"/>
+        <item m="1" x="45"/>
         <item x="18"/>
         <item x="22"/>
         <item x="2"/>
@@ -8355,7 +9187,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="43"/>
+        <item m="1" x="44"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -8370,6 +9202,7 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8396,7 +9229,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -8404,25 +9237,28 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
@@ -8434,10 +9270,16 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -8471,13 +9313,58 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:P47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H58:Q103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="45">
+      <items count="46">
         <item x="14"/>
         <item x="3"/>
         <item x="5"/>
@@ -8493,7 +9380,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="9"/>
-        <item m="1" x="44"/>
+        <item m="1" x="45"/>
         <item x="18"/>
         <item x="2"/>
         <item x="7"/>
@@ -8508,7 +9395,7 @@
         <item x="12"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="43"/>
+        <item m="1" x="44"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
@@ -8523,6 +9410,284 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="45">
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="9">
+    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
+    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:P48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="46">
+        <item x="14"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item m="1" x="44"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -8557,7 +9722,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x v="27"/>
     </i>
@@ -8568,13 +9733,13 @@
       <x v="13"/>
     </i>
     <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i>
       <x v="10"/>
@@ -8583,10 +9748,10 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="9"/>
@@ -8601,6 +9766,12 @@
       <x v="7"/>
     </i>
     <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
     <i>
@@ -8613,13 +9784,10 @@
       <x v="33"/>
     </i>
     <i>
-      <x v="38"/>
-    </i>
-    <i>
       <x v="41"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="38"/>
     </i>
     <i>
       <x v="24"/>
@@ -8628,7 +9796,28 @@
       <x v="26"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
     </i>
     <i>
       <x v="36"/>
@@ -8640,49 +9829,28 @@
       <x v="25"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
       <x v="23"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="34"/>
     </i>
     <i>
       <x v="22"/>
@@ -8755,327 +9923,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H58:Q102" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="45">
-        <item x="14"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="44">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-  </colItems>
-  <dataFields count="9">
-    <dataField name="Matches" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Inns" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Nos" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Runs" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Avg" fld="21" baseField="0" baseItem="0"/>
-    <dataField name="6" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="4" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="50" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="100" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S370" totalsRowShown="0">
-  <autoFilter ref="A1:S370"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S409" totalsRowShown="0">
+  <autoFilter ref="A1:S409"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Date" dataDxfId="1"/>
     <tableColumn id="2" name="MatchType"/>
@@ -9364,7 +10214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -9412,156 +10262,189 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>42317</v>
+        <v>42320</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>42257</v>
+        <v>42317</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>42130</v>
+        <v>42257</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>42103</v>
+        <v>42130</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
+      <c r="A9" s="6">
+        <v>42106</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
+      <c r="A10" s="6">
+        <v>42103</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>595</v>
+      <c r="B21" s="3">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -9571,10 +10454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q102"/>
+  <dimension ref="A3:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,13 +10467,14 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9628,25 +10512,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>6687</v>
+        <v>7517</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K4" s="3">
-        <v>893</v>
+        <v>992</v>
       </c>
       <c r="L4" s="3">
-        <v>10.759036144578314</v>
+        <v>11.146067415730338</v>
       </c>
       <c r="M4" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -9663,19 +10547,19 @@
         <v>21</v>
       </c>
       <c r="I5" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K5" s="3">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="L5" s="3">
-        <v>10.364864864864865</v>
+        <v>10.105882352941176</v>
       </c>
       <c r="M5" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -9716,19 +10600,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3">
-        <v>647</v>
+        <v>813</v>
       </c>
       <c r="L7" s="3">
-        <v>11.155172413793103</v>
+        <v>13.327868852459016</v>
       </c>
       <c r="M7" s="3">
         <v>23</v>
@@ -9745,22 +10629,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3">
-        <v>390</v>
+        <v>647</v>
       </c>
       <c r="L8" s="3">
-        <v>8.6666666666666661</v>
+        <v>11.155172413793103</v>
       </c>
       <c r="M8" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -9774,22 +10658,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9" s="3">
-        <v>723</v>
+        <v>493</v>
       </c>
       <c r="L9" s="3">
-        <v>13.641509433962264</v>
+        <v>8.8035714285714288</v>
       </c>
       <c r="M9" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -9806,19 +10690,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J10" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="3">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="L10" s="3">
-        <v>10.333333333333334</v>
+        <v>10.315789473684211</v>
       </c>
       <c r="M10" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -9835,19 +10719,19 @@
         <v>19</v>
       </c>
       <c r="I11" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K11" s="3">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="L11" s="3">
-        <v>12.153846153846153</v>
+        <v>11.952380952380953</v>
       </c>
       <c r="M11" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -9861,71 +10745,71 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>40</v>
       </c>
       <c r="K12" s="3">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="L12" s="3">
-        <v>12.025</v>
+        <v>11.275</v>
       </c>
       <c r="M12" s="3">
-        <v>13</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I13" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J13" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K13" s="3">
-        <v>412</v>
+        <v>539</v>
       </c>
       <c r="L13" s="3">
-        <v>10.842105263157896</v>
+        <v>11.977777777777778</v>
       </c>
       <c r="M13" s="3">
-        <v>13</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="L14" s="3">
-        <v>14.476190476190476</v>
+        <v>14.636363636363637</v>
       </c>
       <c r="M14" s="3">
         <v>12</v>
@@ -9997,7 +10881,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3">
         <v>19</v>
@@ -10023,126 +10907,126 @@
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
         <v>12</v>
       </c>
-      <c r="I18" s="3">
-        <v>20</v>
-      </c>
-      <c r="J18" s="3">
-        <v>10</v>
-      </c>
       <c r="K18" s="3">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="L18" s="3">
-        <v>15.7</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="M18" s="3">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
       <c r="K19" s="3">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="L19" s="3">
-        <v>10.666666666666666</v>
+        <v>6.7</v>
       </c>
       <c r="M19" s="3">
-        <v>2</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K20" s="3">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L20" s="3">
-        <v>7.75</v>
+        <v>15.7</v>
       </c>
       <c r="M20" s="3">
-        <v>2</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="L21" s="3">
-        <v>19.5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22" s="3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L22" s="3">
-        <v>8.5</v>
+        <v>7.75</v>
       </c>
       <c r="M22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -10150,19 +11034,19 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I23" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K23" s="3">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="L23" s="3">
-        <v>20.142857142857142</v>
+        <v>19.5</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
@@ -10173,19 +11057,19 @@
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24" s="3">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="L24" s="3">
-        <v>13.666666666666666</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
@@ -10196,19 +11080,19 @@
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I25" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
         <v>2</v>
       </c>
       <c r="K25" s="3">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L25" s="3">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -10219,19 +11103,19 @@
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L26" s="3">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="M26" s="3">
         <v>1</v>
@@ -10242,133 +11126,151 @@
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>19</v>
+      </c>
+      <c r="L27" s="3">
+        <v>19</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I28" s="3">
-        <v>4</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
       <c r="L28" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I30" s="3">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
       <c r="L30" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
       <c r="L31" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I33" s="3">
         <v>2</v>
@@ -10385,66 +11287,44 @@
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I34" s="3">
-        <v>16</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I36" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -10458,24 +11338,36 @@
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" s="2" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I37" s="3">
         <v>2</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
       <c r="L37" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -10492,7 +11384,7 @@
     </row>
     <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I39" s="3">
         <v>2</v>
@@ -10509,7 +11401,7 @@
     </row>
     <row r="40" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I40" s="3">
         <v>2</v>
@@ -10526,10 +11418,10 @@
     </row>
     <row r="41" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I41" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -10549,13 +11441,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I42" s="3">
         <v>2</v>
@@ -10572,33 +11462,27 @@
     </row>
     <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
+      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -10624,7 +11508,7 @@
     </row>
     <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I45" s="3">
         <v>2</v>
@@ -10641,10 +11525,10 @@
     </row>
     <row r="46" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I46" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -10664,42 +11548,55 @@
     </row>
     <row r="47" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="3">
-        <v>475</v>
-      </c>
-      <c r="J47" s="3">
-        <v>643</v>
-      </c>
-      <c r="K47" s="3">
-        <v>7319</v>
-      </c>
-      <c r="L47" s="3">
-        <v>11.382581648522551</v>
-      </c>
-      <c r="M47" s="3">
-        <v>264</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="I48" s="3">
+        <v>528</v>
+      </c>
+      <c r="J48" s="3">
+        <v>711</v>
+      </c>
+      <c r="K48" s="3">
+        <v>8029</v>
+      </c>
+      <c r="L48" s="3">
+        <v>11.292545710267229</v>
+      </c>
+      <c r="M48" s="3">
+        <v>294</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H49" s="2"/>
@@ -10825,31 +11722,31 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I59" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J59" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K59" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L59" s="3">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="M59" s="3">
-        <v>41.2</v>
+        <v>29.821428571428573</v>
       </c>
       <c r="N59" s="3">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O59" s="3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P59" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>1</v>
@@ -10857,31 +11754,31 @@
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I60" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J60" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K60" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L60" s="3">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="M60" s="3">
-        <v>31.4</v>
+        <v>41.2</v>
       </c>
       <c r="N60" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O60" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q60" s="3">
         <v>1</v>
@@ -10892,25 +11789,25 @@
         <v>21</v>
       </c>
       <c r="I61" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J61" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L61" s="3">
-        <v>620</v>
+        <v>787</v>
       </c>
       <c r="M61" s="3">
-        <v>29.523809523809526</v>
+        <v>31.48</v>
       </c>
       <c r="N61" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O61" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P61" s="3">
         <v>3</v>
@@ -10924,28 +11821,28 @@
         <v>9</v>
       </c>
       <c r="I62" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J62" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K62" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L62" s="3">
-        <v>595</v>
+        <v>716</v>
       </c>
       <c r="M62" s="3">
-        <v>31.315789473684209</v>
+        <v>34.095238095238095</v>
       </c>
       <c r="N62" s="3">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O62" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P62" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -10956,28 +11853,28 @@
         <v>19</v>
       </c>
       <c r="I63" s="3">
+        <v>36</v>
+      </c>
+      <c r="J63" s="3">
         <v>33</v>
       </c>
-      <c r="J63" s="3">
-        <v>30</v>
-      </c>
       <c r="K63" s="3">
+        <v>5</v>
+      </c>
+      <c r="L63" s="3">
+        <v>625</v>
+      </c>
+      <c r="M63" s="3">
+        <v>22.321428571428573</v>
+      </c>
+      <c r="N63" s="3">
+        <v>74</v>
+      </c>
+      <c r="O63" s="3">
+        <v>25</v>
+      </c>
+      <c r="P63" s="3">
         <v>4</v>
-      </c>
-      <c r="L63" s="3">
-        <v>545</v>
-      </c>
-      <c r="M63" s="3">
-        <v>20.96153846153846</v>
-      </c>
-      <c r="N63" s="3">
-        <v>64</v>
-      </c>
-      <c r="O63" s="3">
-        <v>23</v>
-      </c>
-      <c r="P63" s="3">
-        <v>3</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -10988,25 +11885,25 @@
         <v>54</v>
       </c>
       <c r="I64" s="3">
+        <v>30</v>
+      </c>
+      <c r="J64" s="3">
         <v>27</v>
-      </c>
-      <c r="J64" s="3">
-        <v>26</v>
       </c>
       <c r="K64" s="3">
         <v>4</v>
       </c>
       <c r="L64" s="3">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="M64" s="3">
-        <v>22.5</v>
+        <v>22.826086956521738</v>
       </c>
       <c r="N64" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O64" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P64" s="3">
         <v>3</v>
@@ -11017,95 +11914,95 @@
     </row>
     <row r="65" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I65" s="3">
         <v>20</v>
       </c>
       <c r="J65" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K65" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L65" s="3">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="M65" s="3">
-        <v>22.470588235294116</v>
+        <v>53.875</v>
       </c>
       <c r="N65" s="3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O65" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P65" s="3">
         <v>2</v>
       </c>
       <c r="Q65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I66" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J66" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K66" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="M66" s="3">
-        <v>50</v>
+        <v>22.470588235294116</v>
       </c>
       <c r="N66" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O66" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I67" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J67" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K67" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L67" s="3">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="M67" s="3">
-        <v>15.421052631578947</v>
+        <v>16.095238095238095</v>
       </c>
       <c r="N67" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O67" s="3">
         <v>15</v>
       </c>
       <c r="P67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="3">
         <v>0</v>
@@ -11113,31 +12010,31 @@
     </row>
     <row r="68" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="3">
+        <v>26</v>
+      </c>
+      <c r="J68" s="3">
         <v>24</v>
       </c>
-      <c r="I68" s="3">
-        <v>34</v>
-      </c>
-      <c r="J68" s="3">
-        <v>27</v>
-      </c>
       <c r="K68" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L68" s="3">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M68" s="3">
-        <v>15.444444444444445</v>
+        <v>15.421052631578947</v>
       </c>
       <c r="N68" s="3">
         <v>26</v>
       </c>
       <c r="O68" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -11148,19 +12045,19 @@
         <v>20</v>
       </c>
       <c r="I69" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J69" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="3">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M69" s="3">
-        <v>17.583333333333332</v>
+        <v>18</v>
       </c>
       <c r="N69" s="3">
         <v>13</v>
@@ -11180,25 +12077,25 @@
         <v>23</v>
       </c>
       <c r="I70" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J70" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K70" s="3">
         <v>3</v>
       </c>
       <c r="L70" s="3">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="M70" s="3">
-        <v>10.882352941176471</v>
+        <v>11.315789473684211</v>
       </c>
       <c r="N70" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O70" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -11209,31 +12106,31 @@
     </row>
     <row r="71" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I71" s="3">
+        <v>23</v>
+      </c>
+      <c r="J71" s="3">
+        <v>20</v>
+      </c>
+      <c r="K71" s="3">
+        <v>5</v>
+      </c>
+      <c r="L71" s="3">
+        <v>197</v>
+      </c>
+      <c r="M71" s="3">
+        <v>13.133333333333333</v>
+      </c>
+      <c r="N71" s="3">
+        <v>7</v>
+      </c>
+      <c r="O71" s="3">
         <v>16</v>
       </c>
-      <c r="J71" s="3">
-        <v>15</v>
-      </c>
-      <c r="K71" s="3">
-        <v>2</v>
-      </c>
-      <c r="L71" s="3">
-        <v>179</v>
-      </c>
-      <c r="M71" s="3">
-        <v>13.76923076923077</v>
-      </c>
-      <c r="N71" s="3">
-        <v>18</v>
-      </c>
-      <c r="O71" s="3">
-        <v>6</v>
-      </c>
       <c r="P71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="3">
         <v>0</v>
@@ -11241,31 +12138,31 @@
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I72" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J72" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K72" s="3">
         <v>2</v>
       </c>
       <c r="L72" s="3">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M72" s="3">
-        <v>11.928571428571429</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="N72" s="3">
+        <v>18</v>
+      </c>
+      <c r="O72" s="3">
         <v>6</v>
       </c>
-      <c r="O72" s="3">
-        <v>14</v>
-      </c>
       <c r="P72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -11273,31 +12170,31 @@
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I73" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J73" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K73" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M73" s="3">
-        <v>12.8</v>
+        <v>10.153846153846153</v>
       </c>
       <c r="N73" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O73" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -11305,31 +12202,31 @@
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I74" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J74" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="3">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M74" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="N74" s="3">
         <v>11</v>
       </c>
-      <c r="N74" s="3">
+      <c r="O74" s="3">
         <v>8</v>
       </c>
-      <c r="O74" s="3">
-        <v>5</v>
-      </c>
       <c r="P74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -11337,63 +12234,59 @@
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3">
+        <v>4</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>93</v>
+      </c>
+      <c r="M75" s="3">
+        <v>31</v>
+      </c>
+      <c r="N75" s="3">
         <v>8</v>
       </c>
-      <c r="I75" s="3">
-        <v>10</v>
-      </c>
-      <c r="J75" s="3">
-        <v>9</v>
-      </c>
-      <c r="K75" s="3">
-        <v>4</v>
-      </c>
-      <c r="L75" s="3">
-        <v>85</v>
-      </c>
-      <c r="M75" s="3">
-        <v>17</v>
-      </c>
-      <c r="N75" s="3">
-        <v>1</v>
-      </c>
       <c r="O75" s="3">
-        <v>5</v>
-      </c>
-      <c r="P75" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I76" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J76" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K76" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M76" s="3">
-        <v>7.2727272727272725</v>
+        <v>11</v>
       </c>
       <c r="N76" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O76" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -11404,25 +12297,25 @@
         <v>18</v>
       </c>
       <c r="I77" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J77" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" s="3">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M77" s="3">
-        <v>7.4444444444444446</v>
+        <v>6.5384615384615383</v>
       </c>
       <c r="N77" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P77" s="3">
         <v>0</v>
@@ -11433,181 +12326,185 @@
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I78" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J78" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K78" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="3">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M78" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
         <v>5</v>
       </c>
-      <c r="O78" s="3">
-        <v>1</v>
-      </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I79" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J79" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K79" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M79" s="3">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="N79" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H80" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I80" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J80" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M80" s="3">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N80" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O80" s="3">
-        <v>5</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H81" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I81" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J81" s="3">
-        <v>2</v>
-      </c>
-      <c r="K81" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2</v>
+      </c>
       <c r="L81" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M81" s="3">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="N81" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81" s="3">
-        <v>2</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I82" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J82" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
       </c>
       <c r="L82" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M82" s="3">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="N82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O82" s="3">
-        <v>0</v>
-      </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H83" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="I83" s="3">
         <v>2</v>
       </c>
       <c r="J83" s="3">
-        <v>1</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K83" s="3"/>
       <c r="L83" s="3">
-        <v>21</v>
-      </c>
-      <c r="M83" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>29</v>
+      </c>
+      <c r="M83" s="3">
+        <v>14.5</v>
       </c>
       <c r="N83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O83" s="3">
-        <v>1</v>
-      </c>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I84" s="3">
         <v>2</v>
@@ -11616,16 +12513,16 @@
         <v>1</v>
       </c>
       <c r="K84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="3">
-        <v>19</v>
-      </c>
-      <c r="M84" s="3">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="M84" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="N84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O84" s="3">
         <v>1</v>
@@ -11661,106 +12558,102 @@
     </row>
     <row r="86" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H86" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I86" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J86" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M86" s="3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H87" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I87" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87" s="3">
-        <v>1</v>
-      </c>
-      <c r="K87" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K87" s="3">
+        <v>2</v>
+      </c>
       <c r="L87" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M87" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N87" s="3">
-        <v>1</v>
-      </c>
-      <c r="O87" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H88" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I88" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J88" s="3">
-        <v>7</v>
-      </c>
-      <c r="K88" s="3">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K88" s="3"/>
       <c r="L88" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M88" s="3">
-        <v>3.6666666666666665</v>
+        <v>13</v>
       </c>
       <c r="N88" s="3">
-        <v>0</v>
-      </c>
-      <c r="O88" s="3">
-        <v>1</v>
-      </c>
-      <c r="P88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H89" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I89" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J89" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L89" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M89" s="3">
-        <v>10</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -11768,15 +12661,19 @@
       <c r="O89" s="3">
         <v>1</v>
       </c>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H90" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -11785,23 +12682,19 @@
         <v>0</v>
       </c>
       <c r="L90" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M90" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N90" s="3">
         <v>0</v>
       </c>
       <c r="O90" s="3">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H91" s="2" t="s">
@@ -11831,27 +12724,35 @@
     </row>
     <row r="92" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H92" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K92" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M92" s="3">
-        <v>6</v>
-      </c>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H93" s="2" t="s">
@@ -11885,22 +12786,22 @@
     </row>
     <row r="94" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H94" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I94" s="3">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+      <c r="L94" s="3">
         <v>6</v>
       </c>
-      <c r="J94" s="3">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>2</v>
-      </c>
-      <c r="L94" s="3">
-        <v>5</v>
-      </c>
       <c r="M94" s="3">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -11909,42 +12810,34 @@
     </row>
     <row r="95" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H95" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I95" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J95" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="3">
-        <v>4</v>
-      </c>
-      <c r="M95" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0</v>
-      </c>
-      <c r="P95" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H96" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I96" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" s="3">
         <v>1</v>
@@ -11958,14 +12851,22 @@
       <c r="M96" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H97" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I97" s="3">
         <v>2</v>
@@ -11974,20 +12875,16 @@
         <v>1</v>
       </c>
       <c r="K97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="3">
-        <v>2</v>
-      </c>
-      <c r="M97" s="3">
-        <v>2</v>
-      </c>
-      <c r="N97" s="3">
-        <v>0</v>
-      </c>
-      <c r="O97" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M97" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
@@ -12017,7 +12914,7 @@
     </row>
     <row r="99" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H99" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I99" s="3">
         <v>2</v>
@@ -12025,21 +12922,27 @@
       <c r="J99" s="3">
         <v>1</v>
       </c>
-      <c r="K99" s="3"/>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
       <c r="L99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" s="3">
-        <v>1</v>
-      </c>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H100" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I100" s="3">
         <v>2</v>
@@ -12056,14 +12959,18 @@
       <c r="M100" s="3">
         <v>1</v>
       </c>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H101" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I101" s="3">
         <v>2</v>
@@ -12080,44 +12987,62 @@
       <c r="M101" s="3">
         <v>1</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H103" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I102" s="3">
-        <v>475</v>
-      </c>
-      <c r="J102" s="3">
-        <v>413</v>
-      </c>
-      <c r="K102" s="3">
-        <v>84</v>
-      </c>
-      <c r="L102" s="3">
-        <v>6687</v>
-      </c>
-      <c r="M102" s="3">
-        <v>20.325227963525837</v>
-      </c>
-      <c r="N102" s="3">
-        <v>614</v>
-      </c>
-      <c r="O102" s="3">
-        <v>336</v>
-      </c>
-      <c r="P102" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="I103" s="3">
+        <v>528</v>
+      </c>
+      <c r="J103" s="3">
+        <v>455</v>
+      </c>
+      <c r="K103" s="3">
+        <v>96</v>
+      </c>
+      <c r="L103" s="3">
+        <v>7517</v>
+      </c>
+      <c r="M103" s="3">
+        <v>20.938718662952645</v>
+      </c>
+      <c r="N103" s="3">
+        <v>686</v>
+      </c>
+      <c r="O103" s="3">
+        <v>384</v>
+      </c>
+      <c r="P103" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q103" s="3">
         <v>3</v>
       </c>
     </row>
@@ -12128,10 +13053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S370"/>
+  <dimension ref="A1:S409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S370"/>
+      <selection activeCell="A2" sqref="A2:S409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22823,7 +23748,7 @@
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+      <c r="A305" t="s">
         <v>91</v>
       </c>
       <c r="B305" t="s">
@@ -22867,7 +23792,7 @@
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+      <c r="A306" t="s">
         <v>91</v>
       </c>
       <c r="B306" t="s">
@@ -22905,7 +23830,7 @@
       </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+      <c r="A307" t="s">
         <v>91</v>
       </c>
       <c r="B307" t="s">
@@ -22955,7 +23880,7 @@
       </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+      <c r="A308" t="s">
         <v>91</v>
       </c>
       <c r="B308" t="s">
@@ -22999,7 +23924,7 @@
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+      <c r="A309" t="s">
         <v>91</v>
       </c>
       <c r="B309" t="s">
@@ -23028,7 +23953,7 @@
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+      <c r="A310" t="s">
         <v>91</v>
       </c>
       <c r="B310" t="s">
@@ -23072,7 +23997,7 @@
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+      <c r="A311" t="s">
         <v>91</v>
       </c>
       <c r="B311" t="s">
@@ -23122,7 +24047,7 @@
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+      <c r="A312" t="s">
         <v>91</v>
       </c>
       <c r="B312" t="s">
@@ -23145,7 +24070,7 @@
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+      <c r="A313" t="s">
         <v>91</v>
       </c>
       <c r="B313" t="s">
@@ -23195,7 +24120,7 @@
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+      <c r="A314" t="s">
         <v>91</v>
       </c>
       <c r="B314" t="s">
@@ -23239,7 +24164,7 @@
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
+      <c r="A315" t="s">
         <v>91</v>
       </c>
       <c r="B315" t="s">
@@ -23277,7 +24202,7 @@
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
+      <c r="A316" t="s">
         <v>91</v>
       </c>
       <c r="B316" t="s">
@@ -23294,7 +24219,7 @@
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+      <c r="A317" t="s">
         <v>91</v>
       </c>
       <c r="B317" t="s">
@@ -23329,7 +24254,7 @@
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A318" s="5" t="s">
+      <c r="A318" t="s">
         <v>91</v>
       </c>
       <c r="B318" t="s">
@@ -23367,7 +24292,7 @@
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+      <c r="A319" t="s">
         <v>91</v>
       </c>
       <c r="B319" t="s">
@@ -23414,7 +24339,7 @@
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+      <c r="A320" t="s">
         <v>91</v>
       </c>
       <c r="B320" t="s">
@@ -23431,7 +24356,7 @@
       </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+      <c r="A321" t="s">
         <v>91</v>
       </c>
       <c r="B321" t="s">
@@ -23448,7 +24373,7 @@
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+      <c r="A322" t="s">
         <v>91</v>
       </c>
       <c r="B322" t="s">
@@ -23465,7 +24390,7 @@
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+      <c r="A323" t="s">
         <v>91</v>
       </c>
       <c r="B323" t="s">
@@ -23494,7 +24419,7 @@
       </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+      <c r="A324" t="s">
         <v>91</v>
       </c>
       <c r="B324" t="s">
@@ -23517,7 +24442,7 @@
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+      <c r="A325" t="s">
         <v>91</v>
       </c>
       <c r="B325" t="s">
@@ -23534,7 +24459,7 @@
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
+      <c r="A326" t="s">
         <v>91</v>
       </c>
       <c r="B326" t="s">
@@ -23551,7 +24476,7 @@
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+      <c r="A327" t="s">
         <v>91</v>
       </c>
       <c r="B327" t="s">
@@ -23568,7 +24493,7 @@
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A328" s="5" t="s">
+      <c r="A328" t="s">
         <v>91</v>
       </c>
       <c r="B328" t="s">
@@ -23585,7 +24510,7 @@
       </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+      <c r="A329" t="s">
         <v>92</v>
       </c>
       <c r="B329" t="s">
@@ -23632,7 +24557,7 @@
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+      <c r="A330" t="s">
         <v>92</v>
       </c>
       <c r="B330" t="s">
@@ -23676,7 +24601,7 @@
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+      <c r="A331" t="s">
         <v>92</v>
       </c>
       <c r="B331" t="s">
@@ -23714,7 +24639,7 @@
       </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+      <c r="A332" t="s">
         <v>92</v>
       </c>
       <c r="B332" t="s">
@@ -23752,7 +24677,7 @@
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+      <c r="A333" t="s">
         <v>92</v>
       </c>
       <c r="B333" t="s">
@@ -23781,7 +24706,7 @@
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+      <c r="A334" t="s">
         <v>92</v>
       </c>
       <c r="B334" t="s">
@@ -23822,7 +24747,7 @@
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+      <c r="A335" t="s">
         <v>92</v>
       </c>
       <c r="B335" t="s">
@@ -23869,7 +24794,7 @@
       </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
+      <c r="A336" t="s">
         <v>92</v>
       </c>
       <c r="B336" t="s">
@@ -23901,7 +24826,7 @@
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
+      <c r="A337" t="s">
         <v>92</v>
       </c>
       <c r="B337" t="s">
@@ -23933,7 +24858,7 @@
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
+      <c r="A338" t="s">
         <v>92</v>
       </c>
       <c r="B338" t="s">
@@ -23956,7 +24881,7 @@
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
+      <c r="A339" t="s">
         <v>92</v>
       </c>
       <c r="B339" t="s">
@@ -23973,7 +24898,7 @@
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
+      <c r="A340" t="s">
         <v>92</v>
       </c>
       <c r="B340" t="s">
@@ -23990,7 +24915,7 @@
       </c>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+      <c r="A341" t="s">
         <v>92</v>
       </c>
       <c r="B341" t="s">
@@ -24016,7 +24941,7 @@
       </c>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+      <c r="A342" t="s">
         <v>92</v>
       </c>
       <c r="B342" t="s">
@@ -24033,7 +24958,7 @@
       </c>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+      <c r="A343" t="s">
         <v>92</v>
       </c>
       <c r="B343" t="s">
@@ -24911,6 +25836,1344 @@
       </c>
       <c r="S370">
         <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>96</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>97</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>36</v>
+      </c>
+      <c r="H371">
+        <v>3</v>
+      </c>
+      <c r="I371">
+        <v>3</v>
+      </c>
+      <c r="L371">
+        <v>2</v>
+      </c>
+      <c r="M371">
+        <v>17</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+      <c r="R371" t="s">
+        <v>47</v>
+      </c>
+      <c r="S371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>96</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>24</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>26</v>
+      </c>
+      <c r="H372">
+        <v>4</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>96</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>38</v>
+      </c>
+      <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="L373">
+        <v>3</v>
+      </c>
+      <c r="M373">
+        <v>27</v>
+      </c>
+      <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="R373" t="s">
+        <v>3</v>
+      </c>
+      <c r="S373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>23</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>16</v>
+      </c>
+      <c r="N374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>96</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>54</v>
+      </c>
+      <c r="H375">
+        <v>8</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>96</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>5</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>3</v>
+      </c>
+      <c r="M376">
+        <v>40</v>
+      </c>
+      <c r="N376">
+        <v>3</v>
+      </c>
+      <c r="R376" t="s">
+        <v>3</v>
+      </c>
+      <c r="S376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>96</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>62</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>6</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="M377">
+        <v>57</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>96</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>54</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>30</v>
+      </c>
+      <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>3</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>24</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="R378" t="s">
+        <v>17</v>
+      </c>
+      <c r="S378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>96</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>48</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>16</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>3</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379">
+        <v>37</v>
+      </c>
+      <c r="R379" t="s">
+        <v>3</v>
+      </c>
+      <c r="S379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>96</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>18</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>96</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>48</v>
+      </c>
+      <c r="R381" t="s">
+        <v>17</v>
+      </c>
+      <c r="S381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>96</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="R382" t="s">
+        <v>17</v>
+      </c>
+      <c r="S382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>96</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>19</v>
+      </c>
+      <c r="R383" t="s">
+        <v>17</v>
+      </c>
+      <c r="S383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A384" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+      <c r="E384">
+        <v>2</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>82</v>
+      </c>
+      <c r="H384">
+        <v>5</v>
+      </c>
+      <c r="I384">
+        <v>6</v>
+      </c>
+      <c r="L384">
+        <v>6</v>
+      </c>
+      <c r="M384">
+        <v>53</v>
+      </c>
+      <c r="N384">
+        <v>2</v>
+      </c>
+      <c r="R384" t="s">
+        <v>3</v>
+      </c>
+      <c r="S384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A385" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>19</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385">
+        <v>2</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>26</v>
+      </c>
+      <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>3</v>
+      </c>
+      <c r="M385">
+        <v>28</v>
+      </c>
+      <c r="N385">
+        <v>2</v>
+      </c>
+      <c r="R385" t="s">
+        <v>3</v>
+      </c>
+      <c r="S385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A386" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>25</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+      <c r="E386">
+        <v>2</v>
+      </c>
+      <c r="F386">
+        <v>2</v>
+      </c>
+      <c r="G386">
+        <v>18</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>2</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="M386">
+        <v>6</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A387" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>94</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>8</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>6</v>
+      </c>
+      <c r="M387">
+        <v>67</v>
+      </c>
+      <c r="R387" t="s">
+        <v>3</v>
+      </c>
+      <c r="S387">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A388" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>20</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A389" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>24</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389">
+        <v>18</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A390" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A391" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391">
+        <v>25</v>
+      </c>
+      <c r="H391">
+        <v>2</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>4</v>
+      </c>
+      <c r="M391">
+        <v>35</v>
+      </c>
+      <c r="R391" t="s">
+        <v>3</v>
+      </c>
+      <c r="S391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A392" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>18</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392">
+        <v>2</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392">
+        <v>6</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A393" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>97</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <v>2</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>36</v>
+      </c>
+      <c r="H393">
+        <v>2</v>
+      </c>
+      <c r="I393">
+        <v>4</v>
+      </c>
+      <c r="L393">
+        <v>5</v>
+      </c>
+      <c r="M393">
+        <v>22</v>
+      </c>
+      <c r="N393">
+        <v>1</v>
+      </c>
+      <c r="R393" t="s">
+        <v>3</v>
+      </c>
+      <c r="S393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A394" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>48</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>55</v>
+      </c>
+      <c r="H394">
+        <v>6</v>
+      </c>
+      <c r="I394">
+        <v>3</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="L394">
+        <v>5</v>
+      </c>
+      <c r="M394">
+        <v>38</v>
+      </c>
+      <c r="N394">
+        <v>2</v>
+      </c>
+      <c r="R394" t="s">
+        <v>3</v>
+      </c>
+      <c r="S394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A395" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>48</v>
+      </c>
+      <c r="R395" t="s">
+        <v>47</v>
+      </c>
+      <c r="S395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A396" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>23</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>29</v>
+      </c>
+      <c r="H396">
+        <v>2</v>
+      </c>
+      <c r="I396">
+        <v>2</v>
+      </c>
+      <c r="L396">
+        <v>4</v>
+      </c>
+      <c r="M396">
+        <v>42</v>
+      </c>
+      <c r="N396">
+        <v>1</v>
+      </c>
+      <c r="R396" t="s">
+        <v>3</v>
+      </c>
+      <c r="S396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A397" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>94</v>
+      </c>
+      <c r="R397" t="s">
+        <v>47</v>
+      </c>
+      <c r="S397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A398" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B398" t="s">
+        <v>38</v>
+      </c>
+      <c r="C398" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>52</v>
+      </c>
+      <c r="H398">
+        <v>5</v>
+      </c>
+      <c r="I398">
+        <v>3</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A399" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B399" t="s">
+        <v>38</v>
+      </c>
+      <c r="C399" t="s">
+        <v>18</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399">
+        <v>2</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>12</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A400" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B400" t="s">
+        <v>38</v>
+      </c>
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+      <c r="G400">
+        <v>91</v>
+      </c>
+      <c r="H400">
+        <v>9</v>
+      </c>
+      <c r="I400">
+        <v>4</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400">
+        <v>15</v>
+      </c>
+      <c r="N400">
+        <v>1</v>
+      </c>
+      <c r="R400" t="s">
+        <v>3</v>
+      </c>
+      <c r="S400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A401" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B401" t="s">
+        <v>38</v>
+      </c>
+      <c r="C401" t="s">
+        <v>24</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>34</v>
+      </c>
+      <c r="H401">
+        <v>2</v>
+      </c>
+      <c r="I401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A402" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B402" t="s">
+        <v>38</v>
+      </c>
+      <c r="C402" t="s">
+        <v>62</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>44</v>
+      </c>
+      <c r="H402">
+        <v>2</v>
+      </c>
+      <c r="I402">
+        <v>4</v>
+      </c>
+      <c r="L402">
+        <v>3</v>
+      </c>
+      <c r="M402">
+        <v>42</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="R402" t="s">
+        <v>3</v>
+      </c>
+      <c r="S402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A403" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B403" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" t="s">
+        <v>21</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>47</v>
+      </c>
+      <c r="H403">
+        <v>5</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="L403">
+        <v>2</v>
+      </c>
+      <c r="M403">
+        <v>12</v>
+      </c>
+      <c r="N403">
+        <v>1</v>
+      </c>
+      <c r="R403" t="s">
+        <v>17</v>
+      </c>
+      <c r="S403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A404" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B404" t="s">
+        <v>38</v>
+      </c>
+      <c r="C404" t="s">
+        <v>25</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>12</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+      <c r="M404">
+        <v>14</v>
+      </c>
+      <c r="N404">
+        <v>1</v>
+      </c>
+      <c r="R404" t="s">
+        <v>3</v>
+      </c>
+      <c r="S404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A405" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B405" t="s">
+        <v>38</v>
+      </c>
+      <c r="C405" t="s">
+        <v>48</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>10</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="L405">
+        <v>3</v>
+      </c>
+      <c r="M405">
+        <v>28</v>
+      </c>
+      <c r="R405" t="s">
+        <v>3</v>
+      </c>
+      <c r="S405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A406" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B406" t="s">
+        <v>38</v>
+      </c>
+      <c r="C406" t="s">
+        <v>94</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>5</v>
+      </c>
+      <c r="L406">
+        <v>3</v>
+      </c>
+      <c r="M406">
+        <v>29</v>
+      </c>
+      <c r="N406">
+        <v>3</v>
+      </c>
+      <c r="R406" t="s">
+        <v>3</v>
+      </c>
+      <c r="S406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A407" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407" t="s">
+        <v>94</v>
+      </c>
+      <c r="R407" t="s">
+        <v>47</v>
+      </c>
+      <c r="S407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A408" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B408" t="s">
+        <v>38</v>
+      </c>
+      <c r="C408" t="s">
+        <v>97</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>21</v>
+      </c>
+      <c r="H408">
+        <v>3</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>3</v>
+      </c>
+      <c r="M408">
+        <v>28</v>
+      </c>
+      <c r="N408">
+        <v>3</v>
+      </c>
+      <c r="R408" t="s">
+        <v>3</v>
+      </c>
+      <c r="S408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A409" s="5">
+        <v>42320</v>
+      </c>
+      <c r="B409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" t="s">
+        <v>54</v>
+      </c>
+      <c r="D409">
+        <v>2</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409">
+        <v>15</v>
+      </c>
+      <c r="N409">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,12 @@
   <si>
     <t>Waheed</t>
   </si>
+  <si>
+    <t>18/12/2015</t>
+  </si>
+  <si>
+    <t>25/12/2015</t>
+  </si>
 </sst>
 </file>
 
@@ -376,10 +382,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -400,13 +403,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42355.624892245367" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="408">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kaleem" refreshedDate="42365.431881944445" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="433">
   <cacheSource type="worksheet">
     <worksheetSource name="data"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="25">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2015-03-10T00:00:00" maxDate="2015-12-07T00:00:00" count="27">
         <s v="29/05/2015"/>
         <d v="2015-05-06T00:00:00"/>
         <d v="2015-12-06T00:00:00"/>
@@ -429,6 +432,8 @@
         <s v="20/11/2015"/>
         <d v="2015-04-12T00:00:00"/>
         <d v="2015-11-12T00:00:00"/>
+        <s v="18/12/2015"/>
+        <s v="25/12/2015"/>
         <s v="21/8/2015" u="1"/>
         <d v="2015-09-16T00:00:00" u="1"/>
         <d v="2015-09-15T00:00:00" u="1"/>
@@ -548,7 +553,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="408">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="433">
   <r>
     <x v="0"/>
     <s v="Domestic"/>
@@ -9116,22 +9121,547 @@
     <m/>
     <m/>
     <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="37"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="41"/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="96"/>
+    <n v="9"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="35"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="43"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="83"/>
+    <n v="12"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="5"/>
+    <n v="48"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="38"/>
+    <n v="4"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="53"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="International"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="135"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="43"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="55"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="53"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <n v="44"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="58"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Wides"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Catches"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="International"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Balls"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="26">
+      <items count="28">
         <item x="2"/>
         <item x="21"/>
         <item x="11"/>
         <item x="4"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="15"/>
         <item x="6"/>
         <item x="1"/>
@@ -9142,12 +9672,14 @@
         <item x="0"/>
         <item x="13"/>
         <item x="9"/>
+        <item x="23"/>
         <item x="18"/>
-        <item m="1" x="22"/>
+        <item m="1" x="24"/>
         <item x="19"/>
         <item x="3"/>
         <item x="12"/>
         <item x="8"/>
+        <item x="22"/>
         <item x="17"/>
         <item x="16"/>
         <item x="7"/>
@@ -9229,7 +9761,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -9264,22 +9796,25 @@
       <x v="16"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="17"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -9313,51 +9848,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H58:Q103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
@@ -9447,22 +9937,22 @@
   </rowFields>
   <rowItems count="45">
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="27"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="17"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="16"/>
@@ -9477,13 +9967,16 @@
       <x v="12"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="1"/>
@@ -9495,16 +9988,13 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="45"/>
-    </i>
-    <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="34"/>
@@ -9516,6 +10006,9 @@
       <x v="33"/>
     </i>
     <i>
+      <x v="41"/>
+    </i>
+    <i>
       <x v="24"/>
     </i>
     <i>
@@ -9525,10 +10018,10 @@
       <x v="44"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="42"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="36"/>
@@ -9549,13 +10042,10 @@
       <x v="23"/>
     </i>
     <i>
-      <x v="14"/>
-    </i>
-    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="4"/>
@@ -9570,10 +10060,10 @@
       <x v="29"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="28"/>
     </i>
     <i>
       <x v="31"/>
@@ -9634,7 +10124,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:P48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
@@ -9724,10 +10214,10 @@
   </rowFields>
   <rowItems count="45">
     <i>
-      <x v="27"/>
+      <x/>
     </i>
     <i>
-      <x/>
+      <x v="27"/>
     </i>
     <i>
       <x v="13"/>
@@ -9736,19 +10226,19 @@
       <x v="17"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
       <x v="21"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="3"/>
@@ -9763,28 +10253,28 @@
       <x v="18"/>
     </i>
     <i>
+      <x v="45"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
       <x v="43"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="41"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
+      <x v="35"/>
+    </i>
+    <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="35"/>
-    </i>
-    <i>
       <x v="33"/>
-    </i>
-    <i>
-      <x v="41"/>
     </i>
     <i>
       <x v="38"/>
@@ -9796,61 +10286,61 @@
       <x v="26"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
       <x v="32"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="44"/>
     </i>
     <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
       <x v="28"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="29"/>
-    </i>
-    <i>
-      <x v="23"/>
     </i>
     <i>
       <x v="22"/>
@@ -9899,7 +10389,7 @@
     <dataField name="Sum of Catches" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -9923,11 +10413,56 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RunsScored" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S409" totalsRowShown="0">
-  <autoFilter ref="A1:S409"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:S434" totalsRowShown="0">
+  <autoFilter ref="A1:S434"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="MatchType"/>
     <tableColumn id="3" name="Player"/>
     <tableColumn id="16" name="Match"/>
@@ -10214,7 +10749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -10361,90 +10896,101 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3">
-        <v>716</v>
+      <c r="B22" s="3">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -10456,8 +11002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10467,11 +11013,11 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" customWidth="1"/>
@@ -10512,25 +11058,25 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>7517</v>
+        <v>8038</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K4" s="3">
-        <v>992</v>
+        <v>938</v>
       </c>
       <c r="L4" s="3">
-        <v>11.146067415730338</v>
+        <v>9.7708333333333339</v>
       </c>
       <c r="M4" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -10538,28 +11084,26 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I5" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K5" s="3">
-        <v>859</v>
+        <v>1029</v>
       </c>
       <c r="L5" s="3">
-        <v>10.105882352941176</v>
+        <v>11.064516129032258</v>
       </c>
       <c r="M5" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -10567,7 +11111,9 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
@@ -10603,19 +11149,19 @@
         <v>9</v>
       </c>
       <c r="I7" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K7" s="3">
-        <v>813</v>
+        <v>866</v>
       </c>
       <c r="L7" s="3">
-        <v>13.327868852459016</v>
+        <v>13.323076923076924</v>
       </c>
       <c r="M7" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -10629,22 +11175,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" s="3">
-        <v>647</v>
+        <v>546</v>
       </c>
       <c r="L8" s="3">
-        <v>11.155172413793103</v>
+        <v>9.1</v>
       </c>
       <c r="M8" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -10658,22 +11204,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3">
-        <v>493</v>
+        <v>647</v>
       </c>
       <c r="L9" s="3">
-        <v>8.8035714285714288</v>
+        <v>11.155172413793103</v>
       </c>
       <c r="M9" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -10687,19 +11233,19 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K10" s="3">
-        <v>392</v>
+        <v>502</v>
       </c>
       <c r="L10" s="3">
-        <v>10.315789473684211</v>
+        <v>11.952380952380953</v>
       </c>
       <c r="M10" s="3">
         <v>16</v>
@@ -10716,62 +11262,62 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="3">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="L11" s="3">
-        <v>11.952380952380953</v>
+        <v>11.219512195121951</v>
       </c>
       <c r="M11" s="3">
         <v>16</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" s="3">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="L12" s="3">
-        <v>11.275</v>
+        <v>10.315789473684211</v>
       </c>
       <c r="M12" s="3">
-        <v>15</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3">
         <v>45</v>
@@ -10800,7 +11346,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J14" s="3">
         <v>22</v>
@@ -10878,74 +11424,74 @@
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I17" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J17" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="L17" s="3">
-        <v>11.368421052631579</v>
+        <v>8.0952380952380949</v>
       </c>
       <c r="M17" s="3">
-        <v>7</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J18" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K18" s="3">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="L18" s="3">
-        <v>11.416666666666666</v>
+        <v>11.368421052631579</v>
       </c>
       <c r="M18" s="3">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K19" s="3">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="L19" s="3">
-        <v>6.7</v>
+        <v>12.8125</v>
       </c>
       <c r="M19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -10953,51 +11499,45 @@
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I20" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="L20" s="3">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I21" s="3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
       <c r="K21" s="3">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="L21" s="3">
-        <v>10.666666666666666</v>
+        <v>15.7</v>
       </c>
       <c r="M21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -11034,42 +11574,48 @@
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="3">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="L23" s="3">
-        <v>19.5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I24" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K24" s="3">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="L24" s="3">
-        <v>20.142857142857142</v>
+        <v>19.5</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
@@ -11149,10 +11695,10 @@
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -11172,9 +11718,7 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
@@ -11195,10 +11739,10 @@
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I30" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -11212,48 +11756,30 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
@@ -11270,20 +11796,32 @@
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I33" s="3">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
       <c r="L33" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
@@ -11304,20 +11842,32 @@
     </row>
     <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="I35" s="3">
         <v>2</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
       <c r="L35" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" s="2" t="s">
@@ -11338,10 +11888,10 @@
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -11367,20 +11917,32 @@
     </row>
     <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
       <c r="L38" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" s="2" t="s">
@@ -11401,7 +11963,7 @@
     </row>
     <row r="40" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I40" s="3">
         <v>2</v>
@@ -11418,29 +11980,19 @@
     </row>
     <row r="41" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I41" s="3">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="8:16" x14ac:dyDescent="0.25">
@@ -11462,53 +12014,53 @@
     </row>
     <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I43" s="3">
-        <v>2</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
       <c r="L43" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I44" s="3">
-        <v>20</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="3">
         <v>2</v>
@@ -11525,23 +12077,17 @@
     </row>
     <row r="46" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
+      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -11574,19 +12120,19 @@
         <v>29</v>
       </c>
       <c r="I48" s="3">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="J48" s="3">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="K48" s="3">
-        <v>8029</v>
+        <v>8477</v>
       </c>
       <c r="L48" s="3">
-        <v>11.292545710267229</v>
+        <v>11.242705570291777</v>
       </c>
       <c r="M48" s="3">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -11722,63 +12268,63 @@
     </row>
     <row r="59" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I59" s="3">
+        <v>34</v>
+      </c>
+      <c r="J59" s="3">
+        <v>34</v>
+      </c>
+      <c r="K59" s="3">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
+        <v>894</v>
+      </c>
+      <c r="M59" s="3">
+        <v>30.827586206896552</v>
+      </c>
+      <c r="N59" s="3">
+        <v>94</v>
+      </c>
+      <c r="O59" s="3">
         <v>35</v>
       </c>
-      <c r="J59" s="3">
-        <v>35</v>
-      </c>
-      <c r="K59" s="3">
-        <v>7</v>
-      </c>
-      <c r="L59" s="3">
-        <v>835</v>
-      </c>
-      <c r="M59" s="3">
-        <v>29.821428571428573</v>
-      </c>
-      <c r="N59" s="3">
-        <v>72</v>
-      </c>
-      <c r="O59" s="3">
-        <v>49</v>
-      </c>
       <c r="P59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I60" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J60" s="3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K60" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L60" s="3">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="M60" s="3">
-        <v>41.2</v>
+        <v>28</v>
       </c>
       <c r="N60" s="3">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O60" s="3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P60" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="3">
         <v>1</v>
@@ -11786,34 +12332,34 @@
     </row>
     <row r="61" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I61" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J61" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K61" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L61" s="3">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="M61" s="3">
-        <v>31.48</v>
+        <v>41.2</v>
       </c>
       <c r="N61" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O61" s="3">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P61" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="8:17" x14ac:dyDescent="0.25">
@@ -11821,19 +12367,19 @@
         <v>9</v>
       </c>
       <c r="I62" s="3">
+        <v>30</v>
+      </c>
+      <c r="J62" s="3">
         <v>29</v>
       </c>
-      <c r="J62" s="3">
-        <v>28</v>
-      </c>
       <c r="K62" s="3">
         <v>7</v>
       </c>
       <c r="L62" s="3">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M62" s="3">
-        <v>34.095238095238095</v>
+        <v>32.590909090909093</v>
       </c>
       <c r="N62" s="3">
         <v>59</v>
@@ -11850,31 +12396,31 @@
     </row>
     <row r="63" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I63" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J63" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K63" s="3">
+        <v>4</v>
+      </c>
+      <c r="L63" s="3">
+        <v>701</v>
+      </c>
+      <c r="M63" s="3">
+        <v>25.962962962962962</v>
+      </c>
+      <c r="N63" s="3">
+        <v>67</v>
+      </c>
+      <c r="O63" s="3">
+        <v>34</v>
+      </c>
+      <c r="P63" s="3">
         <v>5</v>
-      </c>
-      <c r="L63" s="3">
-        <v>625</v>
-      </c>
-      <c r="M63" s="3">
-        <v>22.321428571428573</v>
-      </c>
-      <c r="N63" s="3">
-        <v>74</v>
-      </c>
-      <c r="O63" s="3">
-        <v>25</v>
-      </c>
-      <c r="P63" s="3">
-        <v>4</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -11882,31 +12428,31 @@
     </row>
     <row r="64" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I64" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J64" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K64" s="3">
+        <v>5</v>
+      </c>
+      <c r="L64" s="3">
+        <v>625</v>
+      </c>
+      <c r="M64" s="3">
+        <v>22.321428571428573</v>
+      </c>
+      <c r="N64" s="3">
+        <v>74</v>
+      </c>
+      <c r="O64" s="3">
+        <v>25</v>
+      </c>
+      <c r="P64" s="3">
         <v>4</v>
-      </c>
-      <c r="L64" s="3">
-        <v>525</v>
-      </c>
-      <c r="M64" s="3">
-        <v>22.826086956521738</v>
-      </c>
-      <c r="N64" s="3">
-        <v>51</v>
-      </c>
-      <c r="O64" s="3">
-        <v>24</v>
-      </c>
-      <c r="P64" s="3">
-        <v>3</v>
       </c>
       <c r="Q64" s="3">
         <v>0</v>
@@ -11917,25 +12463,25 @@
         <v>48</v>
       </c>
       <c r="I65" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J65" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K65" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L65" s="3">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="M65" s="3">
-        <v>53.875</v>
+        <v>52.111111111111114</v>
       </c>
       <c r="N65" s="3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O65" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P65" s="3">
         <v>2</v>
@@ -11981,25 +12527,25 @@
         <v>24</v>
       </c>
       <c r="I67" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J67" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K67" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L67" s="3">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M67" s="3">
-        <v>16.095238095238095</v>
+        <v>15.541666666666666</v>
       </c>
       <c r="N67" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O67" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P67" s="3">
         <v>0</v>
@@ -12042,31 +12588,31 @@
     </row>
     <row r="69" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I69" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J69" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K69" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="3">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M69" s="3">
-        <v>18</v>
+        <v>11.2</v>
       </c>
       <c r="N69" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O69" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -12074,31 +12620,31 @@
     </row>
     <row r="70" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I70" s="3">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J70" s="3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K70" s="3">
         <v>3</v>
       </c>
       <c r="L70" s="3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M70" s="3">
-        <v>11.315789473684211</v>
+        <v>18</v>
       </c>
       <c r="N70" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O70" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -12109,25 +12655,25 @@
         <v>25</v>
       </c>
       <c r="I71" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J71" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K71" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L71" s="3">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M71" s="3">
-        <v>13.133333333333333</v>
+        <v>13.3125</v>
       </c>
       <c r="N71" s="3">
         <v>7</v>
       </c>
       <c r="O71" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P71" s="3">
         <v>1</v>
@@ -12138,63 +12684,61 @@
     </row>
     <row r="72" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="I72" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J72" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>2</v>
       </c>
       <c r="L72" s="3">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M72" s="3">
-        <v>13.76923076923077</v>
+        <v>31.5</v>
       </c>
       <c r="N72" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O72" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I73" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J73" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" s="3">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="M73" s="3">
-        <v>10.153846153846153</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="N73" s="3">
+        <v>18</v>
+      </c>
+      <c r="O73" s="3">
         <v>6</v>
       </c>
-      <c r="O73" s="3">
-        <v>13</v>
-      </c>
       <c r="P73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -12202,31 +12746,31 @@
     </row>
     <row r="74" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I74" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J74" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K74" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M74" s="3">
-        <v>12.8</v>
+        <v>10.153846153846153</v>
       </c>
       <c r="N74" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O74" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -12234,31 +12778,35 @@
     </row>
     <row r="75" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I75" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J75" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="3">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="M75" s="3">
-        <v>31</v>
+        <v>12.8</v>
       </c>
       <c r="N75" s="3">
+        <v>11</v>
+      </c>
+      <c r="O75" s="3">
         <v>8</v>
       </c>
-      <c r="O75" s="3">
-        <v>7</v>
-      </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
@@ -12294,28 +12842,28 @@
     </row>
     <row r="77" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I77" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J77" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K77" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L77" s="3">
         <v>85</v>
       </c>
       <c r="M77" s="3">
-        <v>6.5384615384615383</v>
+        <v>17</v>
       </c>
       <c r="N77" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O77" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77" s="3">
         <v>0</v>
@@ -12326,28 +12874,28 @@
     </row>
     <row r="78" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I78" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J78" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K78" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L78" s="3">
         <v>85</v>
       </c>
       <c r="M78" s="3">
-        <v>17</v>
+        <v>6.5384615384615383</v>
       </c>
       <c r="N78" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O78" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78" s="3">
         <v>0</v>
@@ -12389,22 +12937,22 @@
         <v>94</v>
       </c>
       <c r="I80" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J80" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M80" s="3">
-        <v>9.5</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="N80" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O80" s="3">
         <v>0</v>
@@ -12442,58 +12990,56 @@
     </row>
     <row r="82" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I82" s="3">
+        <v>10</v>
+      </c>
+      <c r="J82" s="3">
+        <v>7</v>
+      </c>
+      <c r="K82" s="3">
+        <v>3</v>
+      </c>
+      <c r="L82" s="3">
+        <v>36</v>
+      </c>
+      <c r="M82" s="3">
         <v>9</v>
       </c>
-      <c r="J82" s="3">
-        <v>5</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>35</v>
-      </c>
-      <c r="M82" s="3">
-        <v>7</v>
-      </c>
       <c r="N82" s="3">
         <v>1</v>
       </c>
       <c r="O82" s="3">
-        <v>5</v>
-      </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H83" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I83" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J83" s="3">
-        <v>2</v>
-      </c>
-      <c r="K83" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
       <c r="L83" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M83" s="3">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="N83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -12504,55 +13050,59 @@
     </row>
     <row r="84" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H84" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="I84" s="3">
         <v>2</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
-      </c>
-      <c r="K84" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K84" s="3"/>
       <c r="L84" s="3">
-        <v>21</v>
-      </c>
-      <c r="M84" s="3" t="e">
-        <v>#DIV/0!</v>
+        <v>29</v>
+      </c>
+      <c r="M84" s="3">
+        <v>14.5</v>
       </c>
       <c r="N84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O84" s="3">
-        <v>1</v>
-      </c>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H85" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I85" s="3">
         <v>2</v>
       </c>
       <c r="J85" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="3">
-        <v>19</v>
-      </c>
-      <c r="M85" s="3">
-        <v>9.5</v>
+        <v>21</v>
+      </c>
+      <c r="M85" s="3" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="N85" s="3">
         <v>2</v>
       </c>
-      <c r="O85" s="3"/>
+      <c r="O85" s="3">
+        <v>1</v>
+      </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
@@ -12586,106 +13136,100 @@
     </row>
     <row r="87" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K87" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M87" s="3">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H88" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I88" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" s="3">
-        <v>1</v>
-      </c>
-      <c r="K88" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="K88" s="3">
+        <v>2</v>
+      </c>
       <c r="L88" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M88" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N88" s="3">
-        <v>1</v>
-      </c>
-      <c r="O88" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H89" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I89" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J89" s="3">
-        <v>7</v>
-      </c>
-      <c r="K89" s="3">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K89" s="3"/>
       <c r="L89" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M89" s="3">
-        <v>3.6666666666666665</v>
+        <v>13</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>1</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H90" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I90" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J90" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K90" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L90" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M90" s="3">
-        <v>10</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N90" s="3">
         <v>0</v>
@@ -12693,12 +13237,16 @@
       <c r="O90" s="3">
         <v>1</v>
       </c>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H91" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I91" s="3">
         <v>2</v>
@@ -12707,15 +13255,17 @@
         <v>1</v>
       </c>
       <c r="K91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>9</v>
-      </c>
-      <c r="M91" s="3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N91" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="M91" s="3">
+        <v>10</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
       <c r="O91" s="3">
         <v>1</v>
       </c>
@@ -12724,39 +13274,33 @@
     </row>
     <row r="92" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H92" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
       </c>
       <c r="K92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="3">
         <v>9</v>
       </c>
-      <c r="M92" s="3">
-        <v>9</v>
-      </c>
-      <c r="N92" s="3">
-        <v>0</v>
-      </c>
+      <c r="M92" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N92" s="3"/>
       <c r="O92" s="3">
-        <v>0</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H93" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I93" s="3">
         <v>1</v>
@@ -12764,12 +13308,14 @@
       <c r="J93" s="3">
         <v>1</v>
       </c>
-      <c r="K93" s="3"/>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
       <c r="L93" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M93" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N93" s="3">
         <v>0</v>
@@ -12810,27 +13356,33 @@
     </row>
     <row r="95" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H95" s="2" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I95" s="3">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3">
         <v>6</v>
       </c>
-      <c r="J95" s="3">
-        <v>4</v>
-      </c>
-      <c r="K95" s="3">
-        <v>2</v>
-      </c>
-      <c r="L95" s="3">
-        <v>5</v>
-      </c>
       <c r="M95" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H96" s="2" t="s">
@@ -12942,7 +13494,7 @@
     </row>
     <row r="100" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H100" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I100" s="3">
         <v>2</v>
@@ -12959,18 +13511,14 @@
       <c r="M100" s="3">
         <v>1</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H101" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I101" s="3">
         <v>2</v>
@@ -12987,8 +13535,12 @@
       <c r="M101" s="3">
         <v>1</v>
       </c>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
@@ -13019,28 +13571,28 @@
         <v>29</v>
       </c>
       <c r="I103" s="3">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="J103" s="3">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="K103" s="3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L103" s="3">
-        <v>7517</v>
+        <v>8038</v>
       </c>
       <c r="M103" s="3">
-        <v>20.938718662952645</v>
+        <v>20.932291666666668</v>
       </c>
       <c r="N103" s="3">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="O103" s="3">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="P103" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q103" s="3">
         <v>3</v>
@@ -13053,10 +13605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S409"/>
+  <dimension ref="A1:S434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S409"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27176,6 +27728,803 @@
         <v>1</v>
       </c>
     </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>98</v>
+      </c>
+      <c r="B410" t="s">
+        <v>38</v>
+      </c>
+      <c r="C410" t="s">
+        <v>62</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+      <c r="E410">
+        <v>2</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>5</v>
+      </c>
+      <c r="L410">
+        <v>4</v>
+      </c>
+      <c r="M410">
+        <v>37</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>98</v>
+      </c>
+      <c r="B411" t="s">
+        <v>38</v>
+      </c>
+      <c r="C411" t="s">
+        <v>54</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411">
+        <v>2</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411">
+        <v>41</v>
+      </c>
+      <c r="H411">
+        <v>2</v>
+      </c>
+      <c r="I411">
+        <v>3</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>9</v>
+      </c>
+      <c r="N411">
+        <v>1</v>
+      </c>
+      <c r="R411" t="s">
+        <v>3</v>
+      </c>
+      <c r="S411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>98</v>
+      </c>
+      <c r="B412" t="s">
+        <v>38</v>
+      </c>
+      <c r="C412" t="s">
+        <v>24</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412">
+        <v>2</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>24</v>
+      </c>
+      <c r="H412">
+        <v>2</v>
+      </c>
+      <c r="I412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>98</v>
+      </c>
+      <c r="B413" t="s">
+        <v>38</v>
+      </c>
+      <c r="C413" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+      <c r="E413">
+        <v>2</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>96</v>
+      </c>
+      <c r="H413">
+        <v>9</v>
+      </c>
+      <c r="I413">
+        <v>6</v>
+      </c>
+      <c r="J413">
+        <v>1</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>5</v>
+      </c>
+      <c r="M413">
+        <v>35</v>
+      </c>
+      <c r="N413">
+        <v>5</v>
+      </c>
+      <c r="R413" t="s">
+        <v>3</v>
+      </c>
+      <c r="S413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>98</v>
+      </c>
+      <c r="B414" t="s">
+        <v>38</v>
+      </c>
+      <c r="C414" t="s">
+        <v>97</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+      <c r="E414">
+        <v>2</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414">
+        <v>83</v>
+      </c>
+      <c r="H414">
+        <v>12</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <v>5</v>
+      </c>
+      <c r="M414">
+        <v>48</v>
+      </c>
+      <c r="N414">
+        <v>3</v>
+      </c>
+      <c r="R414" t="s">
+        <v>3</v>
+      </c>
+      <c r="S414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>98</v>
+      </c>
+      <c r="B415" t="s">
+        <v>38</v>
+      </c>
+      <c r="C415" t="s">
+        <v>48</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+      <c r="E415">
+        <v>2</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415">
+        <v>38</v>
+      </c>
+      <c r="H415">
+        <v>4</v>
+      </c>
+      <c r="I415">
+        <v>3</v>
+      </c>
+      <c r="L415">
+        <v>4</v>
+      </c>
+      <c r="M415">
+        <v>53</v>
+      </c>
+      <c r="N415">
+        <v>3</v>
+      </c>
+      <c r="R415" t="s">
+        <v>3</v>
+      </c>
+      <c r="S415">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>98</v>
+      </c>
+      <c r="B416" t="s">
+        <v>38</v>
+      </c>
+      <c r="C416" t="s">
+        <v>89</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>18</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="L416">
+        <v>2</v>
+      </c>
+      <c r="M416">
+        <v>18</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="R416" t="s">
+        <v>3</v>
+      </c>
+      <c r="S416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>98</v>
+      </c>
+      <c r="B417" t="s">
+        <v>38</v>
+      </c>
+      <c r="C417" t="s">
+        <v>94</v>
+      </c>
+      <c r="D417">
+        <v>2</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417">
+        <v>10</v>
+      </c>
+      <c r="N417">
+        <v>1</v>
+      </c>
+      <c r="R417" t="s">
+        <v>3</v>
+      </c>
+      <c r="S417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>98</v>
+      </c>
+      <c r="B418" t="s">
+        <v>38</v>
+      </c>
+      <c r="C418" t="s">
+        <v>21</v>
+      </c>
+      <c r="R418" t="s">
+        <v>17</v>
+      </c>
+      <c r="S418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>98</v>
+      </c>
+      <c r="B419" t="s">
+        <v>38</v>
+      </c>
+      <c r="C419" t="s">
+        <v>94</v>
+      </c>
+      <c r="R419" t="s">
+        <v>17</v>
+      </c>
+      <c r="S419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>98</v>
+      </c>
+      <c r="B420" t="s">
+        <v>38</v>
+      </c>
+      <c r="C420" t="s">
+        <v>48</v>
+      </c>
+      <c r="R420" t="s">
+        <v>47</v>
+      </c>
+      <c r="S420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>98</v>
+      </c>
+      <c r="B421" t="s">
+        <v>38</v>
+      </c>
+      <c r="C421" t="s">
+        <v>62</v>
+      </c>
+      <c r="R421" t="s">
+        <v>17</v>
+      </c>
+      <c r="S421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>99</v>
+      </c>
+      <c r="B422" t="s">
+        <v>38</v>
+      </c>
+      <c r="C422" t="s">
+        <v>54</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>2</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>135</v>
+      </c>
+      <c r="H422">
+        <v>14</v>
+      </c>
+      <c r="I422">
+        <v>7</v>
+      </c>
+      <c r="J422">
+        <v>2</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="R422" t="s">
+        <v>17</v>
+      </c>
+      <c r="S422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>99</v>
+      </c>
+      <c r="B423" t="s">
+        <v>38</v>
+      </c>
+      <c r="C423" t="s">
+        <v>97</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>13</v>
+      </c>
+      <c r="H423">
+        <v>2</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>6</v>
+      </c>
+      <c r="M423">
+        <v>55</v>
+      </c>
+      <c r="N423">
+        <v>2</v>
+      </c>
+      <c r="R423" t="s">
+        <v>3</v>
+      </c>
+      <c r="S423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>99</v>
+      </c>
+      <c r="B424" t="s">
+        <v>38</v>
+      </c>
+      <c r="C424" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="L424">
+        <v>4</v>
+      </c>
+      <c r="M424">
+        <v>53</v>
+      </c>
+      <c r="N424">
+        <v>3</v>
+      </c>
+      <c r="R424" t="s">
+        <v>3</v>
+      </c>
+      <c r="S424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>99</v>
+      </c>
+      <c r="B425" t="s">
+        <v>38</v>
+      </c>
+      <c r="C425" t="s">
+        <v>24</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>11</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="I425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>99</v>
+      </c>
+      <c r="B426" t="s">
+        <v>38</v>
+      </c>
+      <c r="C426" t="s">
+        <v>23</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>2</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>99</v>
+      </c>
+      <c r="B427" t="s">
+        <v>38</v>
+      </c>
+      <c r="C427" t="s">
+        <v>21</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>2</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>11</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>2</v>
+      </c>
+      <c r="L427">
+        <v>6</v>
+      </c>
+      <c r="M427">
+        <v>44</v>
+      </c>
+      <c r="N427">
+        <v>1</v>
+      </c>
+      <c r="R427" t="s">
+        <v>3</v>
+      </c>
+      <c r="S427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>99</v>
+      </c>
+      <c r="B428" t="s">
+        <v>38</v>
+      </c>
+      <c r="C428" t="s">
+        <v>25</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>2</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>16</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>99</v>
+      </c>
+      <c r="B429" t="s">
+        <v>38</v>
+      </c>
+      <c r="C429" t="s">
+        <v>94</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>2</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>7</v>
+      </c>
+      <c r="H429">
+        <v>1</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>3</v>
+      </c>
+      <c r="M429">
+        <v>58</v>
+      </c>
+      <c r="N429">
+        <v>1</v>
+      </c>
+      <c r="R429" t="s">
+        <v>3</v>
+      </c>
+      <c r="S429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>99</v>
+      </c>
+      <c r="B430" t="s">
+        <v>38</v>
+      </c>
+      <c r="C430" t="s">
+        <v>89</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>2</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>13</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>2</v>
+      </c>
+      <c r="L430">
+        <v>2</v>
+      </c>
+      <c r="M430">
+        <v>28</v>
+      </c>
+      <c r="N430">
+        <v>2</v>
+      </c>
+      <c r="R430" t="s">
+        <v>47</v>
+      </c>
+      <c r="S430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>99</v>
+      </c>
+      <c r="B431" t="s">
+        <v>38</v>
+      </c>
+      <c r="C431" t="s">
+        <v>9</v>
+      </c>
+      <c r="R431" t="s">
+        <v>17</v>
+      </c>
+      <c r="S431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>99</v>
+      </c>
+      <c r="B432" t="s">
+        <v>38</v>
+      </c>
+      <c r="C432" t="s">
+        <v>94</v>
+      </c>
+      <c r="R432" t="s">
+        <v>17</v>
+      </c>
+      <c r="S432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>99</v>
+      </c>
+      <c r="B433" t="s">
+        <v>38</v>
+      </c>
+      <c r="C433" t="s">
+        <v>21</v>
+      </c>
+      <c r="R433" t="s">
+        <v>17</v>
+      </c>
+      <c r="S433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>99</v>
+      </c>
+      <c r="B434" t="s">
+        <v>38</v>
+      </c>
+      <c r="C434" t="s">
+        <v>94</v>
+      </c>
+      <c r="R434" t="s">
+        <v>47</v>
+      </c>
+      <c r="S434">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
